--- a/Excel/MEIO_TP.xlsx
+++ b/Excel/MEIO_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE628892-07D5-482A-A0D1-F3AFE041171E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DAB8D8-813D-4170-895B-641C5FCC54DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE73A478-8AB6-8545-B007-EDD1EFE519A1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>b:</t>
   </si>
@@ -133,40 +133,67 @@
     <t>Prazo Entrega</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SOMA</t>
+  </si>
+  <si>
+    <t>Teste Encomenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encomenda </t>
+  </si>
+  <si>
+    <t>Aux Prazo Entrega</t>
+  </si>
+  <si>
+    <t>Receção</t>
+  </si>
+  <si>
+    <t>Aux Receção</t>
+  </si>
+  <si>
+    <t>Prazo de entrega da receção</t>
+  </si>
+  <si>
+    <t>Total Encomendas Acumuladas</t>
+  </si>
+  <si>
+    <t>Quebra Acumulada</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Stock Atual</t>
+  </si>
+  <si>
+    <t>Custo Total Acumulado</t>
+  </si>
+  <si>
+    <t>Estatísticas Sobre a Simulação</t>
+  </si>
+  <si>
     <t>Stock Médio</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>SOMA</t>
-  </si>
-  <si>
-    <t>Teste Encomenda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encomenda </t>
-  </si>
-  <si>
-    <t>Aux Prazo Entrega</t>
-  </si>
-  <si>
-    <t>Receção</t>
-  </si>
-  <si>
-    <t>Aux Receção</t>
-  </si>
-  <si>
-    <t>Prazo de entrega da receção</t>
-  </si>
-  <si>
-    <t>Total Encomendas Acumuladas</t>
-  </si>
-  <si>
-    <t>Quebra Acumulada</t>
-  </si>
-  <si>
-    <t>r</t>
+    <t>Nº Encomendas</t>
+  </si>
+  <si>
+    <t>Nº Quebras</t>
+  </si>
+  <si>
+    <t>Quantidade Vendas</t>
+  </si>
+  <si>
+    <t>Custo Armazenamento</t>
+  </si>
+  <si>
+    <t>50 semanas</t>
+  </si>
+  <si>
+    <t>Lucro de Vendas</t>
   </si>
 </sst>
 </file>
@@ -217,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,17 +283,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -319,11 +335,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,26 +409,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1071,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A298210-0850-4264-BB47-A3D4A27C3146}">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1091,36 +1144,37 @@
     <col min="13" max="13" width="13.8984375" customWidth="1"/>
     <col min="14" max="14" width="26.796875" customWidth="1"/>
     <col min="15" max="15" width="17.69921875" customWidth="1"/>
+    <col min="16" max="16" width="21.69921875" customWidth="1"/>
     <col min="18" max="18" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>33</v>
@@ -1129,19 +1183,22 @@
         <v>32</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1157,17 +1214,19 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="16"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="16"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="19">
-        <v>300</v>
+        <f xml:space="preserve"> B55</f>
+        <v>1000</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>30</v>
@@ -1202,58 +1261,59 @@
       <c r="O3" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="20">
-        <f ca="1">L4-M4*H4-M4*$S$62/2+IF(F4=1,L4,0)</f>
-        <v>612.97010719428761</v>
+        <f ca="1">IF(F4=1,MAX(L4+B3-M4, 0),MAX(B3-M4, 0))</f>
+        <v>594.22329999999999</v>
       </c>
       <c r="C4" s="20" t="b">
-        <f ca="1">AND(B4&lt;$S$64,MOD(A4,$S$62)=0)</f>
-        <v>0</v>
+        <f t="shared" ref="C4:C35" ca="1" si="0">AND(B4&lt;$S$64,MOD(A4,$S$62)=0)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="20" t="str">
-        <f t="shared" ref="D4:D52" ca="1" si="0" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND(L4,3) &amp; " unidades", "-")</f>
-        <v>-</v>
+        <f t="shared" ref="D4:D16" ca="1" si="1" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND(L4,3) &amp; " unidades", "-")</f>
+        <v>Encomenda:  1644,213 unidades</v>
       </c>
       <c r="E4" s="20" t="str">
         <f ca="1">IF(F4=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F4)-G4,12)),3), " unidades"),"-")</f>
         <v>-</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F52" si="1">IFERROR(VLOOKUP(ROW(D4),I1:I3,1,0)/ROW(D4),0)</f>
+        <f t="shared" ref="F4:F52" si="2">IFERROR(VLOOKUP(ROW(D4),I1:I3,1,0)/ROW(D4),0)</f>
         <v>0</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" ref="G4:G52" si="2">IFERROR(IF(MATCH(ROW(D4),I1:I3,0)=2,2,IF(MATCH(ROW(D4),I1:I3,0)=3,1,0)),0)</f>
+        <f t="shared" ref="G4:G52" si="3">IFERROR(IF(MATCH(ROW(D4),I1:I3,0)=2,2,IF(MATCH(ROW(D4),I1:I3,0)=3,1,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H35" ca="1" si="3">IF(J4&lt;=0.6,1,2)</f>
+        <f t="shared" ref="H4:H35" ca="1" si="4">IF(J4&lt;=0.6,1,2)</f>
         <v>1</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I52" ca="1" si="4">IF(C4=TRUE(),(A4+H4+2),0)</f>
-        <v>0</v>
+        <f t="shared" ref="I4:I52" ca="1" si="5">IF(C4=TRUE(),(A4+H4+2),0)</f>
+        <v>5</v>
       </c>
       <c r="J4" s="20">
         <f ca="1">RAND()</f>
-        <v>3.1227897520013204E-2</v>
+        <v>3.9040940492498288E-2</v>
       </c>
       <c r="K4" s="20">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="L4" s="22">
         <f ca="1">SQRT((2*M4*$S$61)/$S$59) + $S$64 - M4*$S$62/2</f>
-        <v>1456.5235071942875</v>
+        <v>1644.21293726867</v>
       </c>
       <c r="M4" s="20">
         <f ca="1">421.7767 + K4</f>
-        <v>421.77670000000001</v>
+        <v>405.77670000000001</v>
       </c>
       <c r="N4" s="20">
         <v>0</v>
@@ -1262,749 +1322,762 @@
         <f ca="1">IF(B4 &lt;= 0, 1 + O3, O3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="20">
-        <f t="shared" ref="B5:B52" ca="1" si="5">L5-M5*H5-M5*$S$62/2+IF(F5=1,L5,0)</f>
-        <v>621.65150716253891</v>
+        <f t="shared" ref="B5:B52" ca="1" si="6">IF(F5=1,MAX(L5+B4-M5, 0),MAX(B4-M5, 0))</f>
+        <v>1821.5528055529708</v>
       </c>
       <c r="C5" s="20" t="b">
-        <f ca="1">AND(B5&lt;$S$64,MOD(A5,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="E5" s="20" t="str">
-        <f t="shared" ref="E5:E52" ca="1" si="6">IF(F5=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F5)-G5,12)),3), " unidades"),"-")</f>
-        <v>-</v>
+        <f t="shared" ref="E5:E17" ca="1" si="7">IF(F5=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F5)-G5,12)),3), " unidades"),"-")</f>
+        <v>Receção: 1644,213 unidades</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ref="J5:J52" ca="1" si="7">RAND()</f>
-        <v>0.12118941873290812</v>
+        <f t="shared" ref="J5:J52" ca="1" si="8">RAND()</f>
+        <v>0.69650433629346975</v>
       </c>
       <c r="K5" s="20">
-        <f t="shared" ref="K5:K18" ca="1" si="8" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>-7</v>
+        <f t="shared" ref="K5:K18" ca="1" si="9" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
+        <v>27</v>
       </c>
       <c r="L5" s="22">
-        <f t="shared" ref="L5:L52" ca="1" si="9">SQRT((2*M5*$S$61)/$S$59) + $S$64 - M5*$S$62/2</f>
-        <v>1451.2049071625388</v>
+        <f t="shared" ref="L5:L52" ca="1" si="10">SQRT((2*M5*$S$61)/$S$59) + $S$64 - M5*$S$62/2</f>
+        <v>1676.1062055529706</v>
       </c>
       <c r="M5" s="20">
-        <f t="shared" ref="M5:M18" ca="1" si="10">421.7767 + K5</f>
-        <v>414.77670000000001</v>
+        <f t="shared" ref="M5:M18" ca="1" si="11">421.7767 + K5</f>
+        <v>448.77670000000001</v>
       </c>
       <c r="N5" s="20">
-        <f t="shared" ref="N5:N52" ca="1" si="11">IF(C5 = TRUE(), 1+ N4, N4)</f>
+        <f t="shared" ref="N5:N52" ca="1" si="12">IF(C5 = TRUE(), 1+ N4, N4)</f>
         <v>0</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" ref="O5:O52" ca="1" si="12">IF(B5 &lt;= 0, 1 + O4, O4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O5:O52" ca="1" si="13">IF(B5 &lt;= 0, 1 + O4, O4)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="20">
-        <f ca="1">L6-M6*H6-M6*$S$62/2</f>
-        <v>568.08423068264835</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1401.7761055529709</v>
       </c>
       <c r="C6" s="20" t="b">
-        <f ca="1">AND(B6&lt;$S$64,MOD(A6,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="E6" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.33328465733073553</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.55398080241610237</v>
       </c>
       <c r="K6" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-2</v>
       </c>
       <c r="L6" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1481.6376306826483</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1655.0144066622811</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>456.77670000000001</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>419.77670000000001</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="O6" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="20">
-        <f ca="1">L7-M7*H7-M7*$S$62/2</f>
-        <v>188.94483752516828</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>944.99940555297087</v>
       </c>
       <c r="C7" s="20" t="b">
-        <f ca="1">AND(B7&lt;$S$64,MOD(A7,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="E7" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J7" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.96675298315164582</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18815333825277625</v>
       </c>
       <c r="K7" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>35</v>
       </c>
       <c r="L7" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1457.2749375251683</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1681.6376306826483</v>
       </c>
       <c r="M7" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>422.77670000000001</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>456.77670000000001</v>
       </c>
       <c r="N7" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="O7" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="20">
-        <f t="shared" ref="B8:B52" ca="1" si="13">L8-M8*H8-M8*$S$62/2</f>
-        <v>639.89950825747826</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>540.22270555297087</v>
       </c>
       <c r="C8" s="20" t="b">
-        <f ca="1">AND(B8&lt;$S$64,MOD(A8,$S$62)=0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D8" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Encomenda:  1643,425 unidades</v>
       </c>
       <c r="E8" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
       <c r="F8" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="J8" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.1526971382153326</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.81537733143308966</v>
       </c>
       <c r="K8" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-22</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-17</v>
       </c>
       <c r="L8" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1439.4529082574782</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1643.425150929721</v>
       </c>
       <c r="M8" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>399.77670000000001</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>404.77670000000001</v>
       </c>
       <c r="N8" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>86.44600555297086</v>
+      </c>
+      <c r="C9" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.58785331252548767</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="L9" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1679.5773398091255</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>453.77670000000001</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>213.56360467317029</v>
-      </c>
-      <c r="C9" s="20" t="b">
-        <f ca="1">AND(B9&lt;$S$64,MOD(A9,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E9" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.723335185154514</v>
-      </c>
-      <c r="K9" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-10</v>
-      </c>
-      <c r="L9" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1448.8937046731703</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>411.77670000000001</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>1317.8020017338467</v>
+      </c>
+      <c r="C10" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Receção: 1643,425 unidades</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.89618455082545256</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1666.1326961808759</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>434.77670000000001</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>591.46776581128904</v>
-      </c>
-      <c r="C10" s="20" t="b">
-        <f ca="1">AND(B10&lt;$S$64,MOD(A10,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E10" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.30832262445994829</v>
-      </c>
-      <c r="K10" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="L10" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1469.0211658112889</v>
-      </c>
-      <c r="M10" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>438.77670000000001</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>866.02530173384673</v>
+      </c>
+      <c r="C11" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.28176176357435145</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="L11" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1678.1945144672677</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>451.77670000000001</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>621.65150716253891</v>
-      </c>
-      <c r="C11" s="20" t="b">
-        <f ca="1">AND(B11&lt;$S$64,MOD(A11,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E11" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.12898814536533987</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-7</v>
-      </c>
-      <c r="L11" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1451.2049071625388</v>
-      </c>
-      <c r="M11" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>414.77670000000001</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>430.24860173384673</v>
+      </c>
+      <c r="C12" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Encomenda:  1666,858 unidades</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.71787734869295783</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1666.857774080207</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>435.77670000000001</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>649.42640133028078</v>
-      </c>
-      <c r="C12" s="20" t="b">
-        <f ca="1">AND(B12&lt;$S$64,MOD(A12,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E12" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.2126716339727811</v>
-      </c>
-      <c r="K12" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-30</v>
-      </c>
-      <c r="L12" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1432.9798013302807</v>
-      </c>
-      <c r="M12" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>391.77670000000001</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E13" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.50020351920354056</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1677.5002938555599</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>450.77670000000001</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O13" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>246.71251352391721</v>
-      </c>
-      <c r="C13" s="20" t="b">
-        <f ca="1">AND(B13&lt;$S$64,MOD(A13,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E13" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.92606926823222746</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-25</v>
-      </c>
-      <c r="L13" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1437.0426135239172</v>
-      </c>
-      <c r="M13" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>396.77670000000001</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>1235.9583443693259</v>
+      </c>
+      <c r="C14" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E14" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Receção: 1666,858 unidades</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.56525437706891279</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1652.7350443693258</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>416.77670000000001</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O14" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>614.21659937676384</v>
-      </c>
-      <c r="C14" s="20" t="b">
-        <f ca="1">AND(B14&lt;$S$64,MOD(A14,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E14" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F14" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.51711746397693215</v>
-      </c>
-      <c r="K14" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1455.7699993767637</v>
-      </c>
-      <c r="M14" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>420.77670000000001</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>801.18164436932591</v>
+      </c>
+      <c r="C15" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E15" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.77549432193472112</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="L15" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1666.1326961808759</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>434.77670000000001</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O15" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>586.32490783053379</v>
-      </c>
-      <c r="C15" s="20" t="b">
-        <f ca="1">AND(B15&lt;$S$64,MOD(A15,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E15" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F15" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.26061142106049473</v>
-      </c>
-      <c r="K15" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="L15" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1471.8783078305337</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>442.77670000000001</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>402.4049443693259</v>
+      </c>
+      <c r="C16" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Encomenda:  1638,652 unidades</v>
+      </c>
+      <c r="E16" s="20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.20950735976433621</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>-23</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1638.6517393091417</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>398.77670000000001</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O16" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>637.49510063432933</v>
-      </c>
-      <c r="C16" s="20" t="b">
-        <f ca="1">AND(B16&lt;$S$64,MOD(A16,$S$62)=0)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="E16" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.27839108957631875</v>
-      </c>
-      <c r="K16" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-20</v>
-      </c>
-      <c r="L16" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1441.0485006343292</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>401.77670000000001</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>143.54820783053367</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1627.580962874576</v>
       </c>
       <c r="C17" s="20" t="b">
-        <f ca="1">AND(B17&lt;$S$64,MOD(A17,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="20" t="str">
@@ -2012,60 +2085,61 @@
         <v>-</v>
       </c>
       <c r="E17" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>-</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>Receção: 1638,652 unidades</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J17" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.84515114527933377</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.90757197332157591</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>34</v>
       </c>
       <c r="L17" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1471.8783078305337</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1680.9527185052498</v>
       </c>
       <c r="M17" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>442.77670000000001</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>455.77670000000001</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>609.21819514965625</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1234.8042628745761</v>
       </c>
       <c r="C18" s="20" t="b">
-        <f ca="1">AND(B18&lt;$S$64,MOD(A18,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="20" t="str">
@@ -2077,56 +2151,57 @@
         <v>-</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.8047028760550585E-3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.86511593753477944</v>
       </c>
       <c r="K18" s="20">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>-29</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1633.7969697532171</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>392.77670000000001</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="L18" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1458.7715951496562</v>
-      </c>
-      <c r="M18" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>424.77670000000001</v>
-      </c>
-      <c r="N18" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
       <c r="O18" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="28"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>-119.98934253557491</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>670.51896287457612</v>
       </c>
       <c r="C19" s="20" t="b">
-        <f ca="1">AND(B19&lt;$S$64,MOD(A19,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="20" t="str">
@@ -2138,117 +2213,119 @@
         <v>-</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J19" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.95936214598067371</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17711163364884819</v>
       </c>
       <c r="K19" s="20">
         <f ca="1">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="L19" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1539.8665574644251</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1745.6147061664665</v>
       </c>
       <c r="M19" s="20">
         <f ca="1" xml:space="preserve"> 561.2853 + K19</f>
-        <v>553.28530000000001</v>
+        <v>564.28530000000001</v>
       </c>
       <c r="N19" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="28"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>446.46869282977832</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>130.23366287457611</v>
       </c>
       <c r="C20" s="20" t="b">
-        <f ca="1">AND(B20&lt;$S$64,MOD(A20,$S$62)=0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D20" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1732,857 unidades</v>
       </c>
       <c r="E20" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
       </c>
       <c r="J20" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.42297505464933161</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.6547612025566516</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" ref="K20:K30" ca="1" si="16">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-17</v>
+        <v>-21</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1535.0392928297783</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1732.8571623987837</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" ref="M20:M30" ca="1" si="17" xml:space="preserve"> 561.2853 + K20</f>
-        <v>544.28530000000001</v>
+        <v>540.28530000000001</v>
       </c>
       <c r="N20" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>-159.68238918694897</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C21" s="20" t="b">
-        <f ca="1">AND(B21&lt;$S$64,MOD(A21,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="20" t="str">
@@ -2260,56 +2337,57 @@
         <v>-</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J21" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.85226075920592548</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.43265606294364212</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>8</v>
+        <v>-12</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1548.1735108130511</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1737.7350981677869</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>569.28530000000001</v>
+        <v>549.28530000000001</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>453.73745734849263</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1193.9202324683984</v>
       </c>
       <c r="C22" s="20" t="b">
-        <f ca="1">AND(B22&lt;$S$64,MOD(A22,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="20" t="str">
@@ -2318,59 +2396,60 @@
       </c>
       <c r="E22" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1732,857 unidades</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J22" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.41329999009229856</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.86508252012426101</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="L22" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1532.3080573484926</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1731.2055324683984</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>539.28530000000001</v>
+        <v>537.28530000000001</v>
       </c>
       <c r="N22" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>463.85326246036084</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>667.63493246839835</v>
       </c>
       <c r="C23" s="20" t="b">
-        <f ca="1">AND(B23&lt;$S$64,MOD(A23,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="20" t="str">
@@ -2382,117 +2461,119 @@
         <v>-</v>
       </c>
       <c r="F23" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I23" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J23" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.36731956096511131</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.92146402883768641</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-29</v>
+        <v>-35</v>
       </c>
       <c r="L23" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1528.4238624603609</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1725.0374544542096</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>532.28530000000001</v>
+        <v>526.28530000000001</v>
       </c>
       <c r="N23" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>371.90859861394665</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>138.34963246839834</v>
       </c>
       <c r="C24" s="20" t="b">
-        <f ca="1">AND(B24&lt;$S$64,MOD(A24,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D24" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1560,479 unidades</v>
+        <v>Encomenda:  1726,737 unidades</v>
       </c>
       <c r="E24" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F24" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>25</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.3074475151257603</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.48585849094550915</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>-32</v>
       </c>
       <c r="L24" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1560.4791986139467</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1726.7373087916239</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>594.28530000000001</v>
+        <v>529.28530000000001</v>
       </c>
       <c r="N24" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>434.76517615298235</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1316.2520665900893</v>
       </c>
       <c r="C25" s="20" t="b">
-        <f ca="1">AND(B25&lt;$S$64,MOD(A25,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="20" t="str">
@@ -2501,59 +2582,60 @@
       </c>
       <c r="E25" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1560,479 unidades</v>
+        <v>Receção: 1726,737 unidades</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G25" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J25" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.39031050805114142</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.68876135631641289</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="L25" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1539.3357761529824</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1749.1877341216909</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>552.28530000000001</v>
+        <v>571.28530000000001</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="28"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>445.01067270384237</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>777.96676659008926</v>
       </c>
       <c r="C26" s="20" t="b">
-        <f ca="1">AND(B26&lt;$S$64,MOD(A26,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="20" t="str">
@@ -2565,56 +2647,57 @@
         <v>-</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J26" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.16268437498141275</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.6162673278348803E-2</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1535.5812727038424</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1731.7575153737102</v>
       </c>
       <c r="M26" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>545.28530000000001</v>
+        <v>538.28530000000001</v>
       </c>
       <c r="N26" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="28"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>-209.77412069337652</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>250.68146659008926</v>
       </c>
       <c r="C27" s="20" t="b">
-        <f ca="1">AND(B27&lt;$S$64,MOD(A27,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="20" t="str">
@@ -2626,117 +2709,119 @@
         <v>-</v>
       </c>
       <c r="F27" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J27" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.82287078637429456</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18118072641282146</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>28</v>
+        <v>-34</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1558.0817793066235</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1725.6055574157272</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>589.28530000000001</v>
+        <v>527.28530000000001</v>
       </c>
       <c r="N27" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
       </c>
       <c r="O27" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="P27" s="28"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>374.95337937242539</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C28" s="20" t="b">
-        <f ca="1">AND(B28&lt;$S$64,MOD(A28,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1559,524 unidades</v>
+        <v>Encomenda:  1729,541 unidades</v>
       </c>
       <c r="E28" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>29</v>
       </c>
       <c r="J28" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.55515791399175918</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.45503441037056591</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>-27</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1559.5239793724254</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1729.5408978284604</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>592.28530000000001</v>
+        <v>534.28530000000001</v>
       </c>
       <c r="N28" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>456.63493246839835</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1195.2555978284604</v>
       </c>
       <c r="C29" s="20" t="b">
-        <f ca="1">AND(B29&lt;$S$64,MOD(A29,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="20" t="str">
@@ -2745,59 +2830,60 @@
       </c>
       <c r="E29" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1559,524 unidades</v>
+        <v>Receção: 1729,541 unidades</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.8821905796888645E-3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.82970699085547739</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1531.2055324683984</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1729.5408978284604</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>537.28530000000001</v>
+        <v>534.28530000000001</v>
       </c>
       <c r="N29" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="28"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>463.85326246036084</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>662.97029782846039</v>
       </c>
       <c r="C30" s="20" t="b">
-        <f ca="1">AND(B30&lt;$S$64,MOD(A30,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="20" t="str">
@@ -2809,56 +2895,57 @@
         <v>-</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.42765538378639123</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.8114558243564427</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" ca="1" si="16"/>
         <v>-29</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1528.4238624603609</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1728.4238624603609</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" ca="1" si="17"/>
         <v>532.28530000000001</v>
       </c>
       <c r="N30" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
       </c>
       <c r="O30" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="28"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>681.27793913466655</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>295.93169782846041</v>
       </c>
       <c r="C31" s="20" t="b">
-        <f ca="1">AND(B31&lt;$S$64,MOD(A31,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="20" t="str">
@@ -2870,117 +2957,119 @@
         <v>-</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J31" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.2252554702177515</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.47380733339348635</v>
       </c>
       <c r="K31" s="20">
         <f ca="1">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1409.3551391346664</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1612.0025176411955</v>
       </c>
       <c r="M31" s="20">
         <f ca="1" xml:space="preserve"> 347.0386 + K31</f>
-        <v>364.03859999999997</v>
+        <v>367.03859999999997</v>
       </c>
       <c r="N31" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
       </c>
       <c r="O31" s="20">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="28"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>306.63882331489469</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C32" s="20" t="b">
-        <f ca="1">AND(B32&lt;$S$64,MOD(A32,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D32" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1413,755 unidades</v>
+        <v>Encomenda:  1605,789 unidades</v>
       </c>
       <c r="E32" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.91436004662745274</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16539635298573696</v>
       </c>
       <c r="K32" s="20">
         <f t="shared" ref="K32:K52" ca="1" si="18">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1413.7546233148946</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1605.7889784641575</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" ref="M32:M52" ca="1" si="19" xml:space="preserve"> 347.0386 + K32</f>
-        <v>369.03859999999997</v>
+        <v>360.03859999999997</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P32" s="28"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>696.61041664192533</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1246.9321778572416</v>
       </c>
       <c r="C33" s="20" t="b">
-        <f ca="1">AND(B33&lt;$S$64,MOD(A33,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="20" t="str">
@@ -2989,59 +3078,60 @@
       </c>
       <c r="E33" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1605,789 unidades</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G33" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J33" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.1820863264739447E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.25303316978854562</v>
       </c>
       <c r="K33" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L33" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1396.6876166419252</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1592.9707778572415</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>350.03859999999997</v>
+        <v>346.03859999999997</v>
       </c>
       <c r="N33" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="O33" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P33" s="28"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>711.40405300981627</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>909.89357785724167</v>
       </c>
       <c r="C34" s="20" t="b">
-        <f ca="1">AND(B34&lt;$S$64,MOD(A34,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="20" t="str">
@@ -3050,59 +3140,60 @@
       </c>
       <c r="E34" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1413,755 unidades</v>
+        <v>-</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G34" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J34" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.35167095036573071</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.23024991873413547</v>
       </c>
       <c r="K34" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="L34" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1383.4812530098161</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1584.4431401830816</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>336.03859999999997</v>
+        <v>337.03859999999997</v>
       </c>
       <c r="N34" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="O34" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P34" s="28"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>323.5686425943419</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>548.85497785724169</v>
       </c>
       <c r="C35" s="20" t="b">
-        <f ca="1">AND(B35&lt;$S$64,MOD(A35,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="20" t="str">
@@ -3114,72 +3205,73 @@
         <v>-</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J35" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.65468107611392301</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.53102504447200527</v>
       </c>
       <c r="K35" s="20">
         <f t="shared" ca="1" si="18"/>
         <v>14</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1406.6844425943418</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1606.6844425943418</v>
       </c>
       <c r="M35" s="20">
         <f t="shared" ca="1" si="19"/>
         <v>361.03859999999997</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P35" s="28"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>670.01344478903582</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>196.81637785724172</v>
       </c>
       <c r="C36" s="20" t="b">
-        <f t="shared" ref="C36:C67" ca="1" si="20">AND(B36&lt;$S$64,MOD(A36,$S$62)=0)</f>
-        <v>0</v>
+        <f t="shared" ref="C36:C52" ca="1" si="20">AND(B36&lt;$S$64,MOD(A36,$S$62)=0)</f>
+        <v>1</v>
       </c>
       <c r="D36" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1598,53 unidades</v>
       </c>
       <c r="E36" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H36" s="20">
@@ -3187,41 +3279,42 @@
         <v>1</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>37</v>
       </c>
       <c r="J36" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.49204911236193938</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.18439528615619005</v>
       </c>
       <c r="K36" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L36" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1418.0906447890357</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1598.5295015377164</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>374.03859999999997</v>
+        <v>352.03859999999997</v>
       </c>
       <c r="N36" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="O36" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P36" s="28"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>671.15125601716397</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1444.4825360888285</v>
       </c>
       <c r="C37" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3233,56 +3326,57 @@
       </c>
       <c r="E37" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1598,53 unidades</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="H37" s="20">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J37" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.29830378895975229</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8.0536215458282268E-2</v>
       </c>
       <c r="K37" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>26</v>
+        <v>-22</v>
       </c>
       <c r="L37" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1417.2284560171638</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1572.7047582315868</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>373.03859999999997</v>
+        <v>325.03859999999997</v>
       </c>
       <c r="N37" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="O37" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P37" s="28"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>660.8222268508506</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1081.4439360888287</v>
       </c>
       <c r="C38" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3297,53 +3391,54 @@
         <v>-</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J38" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.39847158048839038</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.71848708336345535</v>
       </c>
       <c r="K38" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L38" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1424.8994268508504</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1608.4675121059731</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>382.03859999999997</v>
+        <v>363.03859999999997</v>
       </c>
       <c r="N38" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="O38" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P38" s="28"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>37</v>
       </c>
       <c r="B39" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>403.58620181733852</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>713.40533608882868</v>
       </c>
       <c r="C39" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3358,114 +3453,116 @@
         <v>-</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.80334682928051493</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.51686587804218509</v>
       </c>
       <c r="K39" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-25</v>
+        <v>21</v>
       </c>
       <c r="L39" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1369.7020018173384</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1612.8798448385564</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>322.03859999999997</v>
+        <v>368.03859999999997</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P39" s="28"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>701.95740922953917</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>369.3667360888287</v>
       </c>
       <c r="C40" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1591,096 unidades</v>
       </c>
       <c r="E40" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F40" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42</v>
       </c>
       <c r="J40" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.12936018083229528</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.74781346636081447</v>
       </c>
       <c r="K40" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L40" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1392.034609229539</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1591.095632835455</v>
       </c>
       <c r="M40" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>345.03859999999997</v>
+        <v>344.03859999999997</v>
       </c>
       <c r="N40" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
       </c>
       <c r="O40" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P40" s="28"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>39</v>
       </c>
       <c r="B41" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>698.75754037509148</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>29.328136088828728</v>
       </c>
       <c r="C41" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3480,11 +3577,11 @@
         <v>-</v>
       </c>
       <c r="F41" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="20">
@@ -3492,102 +3589,104 @@
         <v>1</v>
       </c>
       <c r="I41" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J41" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.9116765367819939E-2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32735092021412537</v>
       </c>
       <c r="K41" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="L41" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1394.8347403750913</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1587.3114032350481</v>
       </c>
       <c r="M41" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>348.03859999999997</v>
+        <v>340.03859999999997</v>
       </c>
       <c r="N41" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
       </c>
       <c r="O41" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P41" s="28"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>295.97484478903573</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1276.9607559675769</v>
       </c>
       <c r="C42" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1418,091 unidades</v>
+        <v>-</v>
       </c>
       <c r="E42" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1591,096 unidades</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="H42" s="20">
         <f t="shared" ca="1" si="21"/>
         <v>2</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J42" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.62996435996829692</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91797242384490474</v>
       </c>
       <c r="K42" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>27</v>
+        <v>-28</v>
       </c>
       <c r="L42" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1418.0906447890357</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1566.6712198787482</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>374.03859999999997</v>
+        <v>319.03859999999997</v>
       </c>
       <c r="N42" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>4</v>
       </c>
-      <c r="O42" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="28"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>684.60724259434198</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>928.92215596757694</v>
       </c>
       <c r="C43" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3602,114 +3701,116 @@
         <v>-</v>
       </c>
       <c r="F43" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J43" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.55864552481923779</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.62689674678274465</v>
       </c>
       <c r="K43" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L43" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1406.6844425943418</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1594.8347403750913</v>
       </c>
       <c r="M43" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>361.03859999999997</v>
+        <v>348.03859999999997</v>
       </c>
       <c r="N43" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="O43" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>4</v>
       </c>
-      <c r="O43" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" s="28"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>42</v>
       </c>
       <c r="B44" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>413.51913356154012</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>590.88355596757697</v>
       </c>
       <c r="C44" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1585,402 unidades</v>
       </c>
       <c r="E44" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1418,091 unidades</v>
+        <v>-</v>
       </c>
       <c r="F44" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="H44" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45</v>
       </c>
       <c r="J44" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.9614320614813473</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26792650182283806</v>
       </c>
       <c r="K44" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-30</v>
+        <v>-9</v>
       </c>
       <c r="L44" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1364.63493356154</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1585.4021190303479</v>
       </c>
       <c r="M44" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>317.03859999999997</v>
+        <v>338.03859999999997</v>
       </c>
       <c r="N44" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O44" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>4</v>
       </c>
-      <c r="O44" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" s="28"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>672.28656959477064</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1838.4015132104023</v>
       </c>
       <c r="C45" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3721,56 +3822,57 @@
       </c>
       <c r="E45" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1585,402 unidades</v>
       </c>
       <c r="F45" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="H45" s="20">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="I45" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J45" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.44189799809542907</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.23821726974754864</v>
       </c>
       <c r="K45" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>25</v>
+        <v>-33</v>
       </c>
       <c r="L45" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1416.3637695947705</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1561.556557242825</v>
       </c>
       <c r="M45" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>372.03859999999997</v>
+        <v>314.03859999999997</v>
       </c>
       <c r="N45" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O45" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>4</v>
       </c>
-      <c r="O45" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" s="28"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>694.45230153771661</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1506.3629132104024</v>
       </c>
       <c r="C46" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3785,53 +3887,54 @@
         <v>-</v>
       </c>
       <c r="F46" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H46" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J46" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.33718969692928702</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.6388025406301342</v>
       </c>
       <c r="K46" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="L46" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1398.5295015377164</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1579.604359759252</v>
       </c>
       <c r="M46" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>352.03859999999997</v>
+        <v>332.03859999999997</v>
       </c>
       <c r="N46" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O46" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>4</v>
       </c>
-      <c r="O46" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" s="28"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>45</v>
       </c>
       <c r="B47" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>399.5911292934403</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1150.3243132104026</v>
       </c>
       <c r="C47" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3846,114 +3949,116 @@
         <v>-</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J47" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.78316483503898038</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.3400134656077517</v>
       </c>
       <c r="K47" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-23</v>
+        <v>9</v>
       </c>
       <c r="L47" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1371.7069292934402</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1602.1806700341972</v>
       </c>
       <c r="M47" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>324.03859999999997</v>
+        <v>356.03859999999997</v>
       </c>
       <c r="N47" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O47" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>4</v>
       </c>
-      <c r="O47" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" s="28"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>354.85497785724158</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>811.28571321040261</v>
       </c>
       <c r="C48" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1392,971 unidades</v>
+        <v>-</v>
       </c>
       <c r="E48" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F48" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="J48" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.6087595917578531</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.30864355456612935</v>
       </c>
       <c r="K48" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="L48" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1392.9707778572415</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1586.3582024474122</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>346.03859999999997</v>
+        <v>339.03859999999997</v>
       </c>
       <c r="N48" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
       </c>
       <c r="O48" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P48" s="28"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>385.51193412321902</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>433.24711321040263</v>
       </c>
       <c r="C49" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3968,11 +4073,11 @@
         <v>-</v>
       </c>
       <c r="F49" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" s="20">
@@ -3980,102 +4085,104 @@
         <v>2</v>
       </c>
       <c r="I49" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J49" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.71931910208948535</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.83792521693655975</v>
       </c>
       <c r="K49" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-16</v>
+        <v>31</v>
       </c>
       <c r="L49" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1378.6277341232189</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1621.5146225670906</v>
       </c>
       <c r="M49" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>331.03859999999997</v>
+        <v>378.03859999999997</v>
       </c>
       <c r="N49" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
       </c>
       <c r="O49" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P49" s="28"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>48</v>
       </c>
       <c r="B50" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>675.67742331489478</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>50.208513210402657</v>
       </c>
       <c r="C50" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1625,74 unidades</v>
       </c>
       <c r="E50" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1392,971 unidades</v>
+        <v>-</v>
       </c>
       <c r="F50" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G50" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="H50" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
       </c>
       <c r="J50" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.12920815135361952</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91271748711730138</v>
       </c>
       <c r="K50" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L50" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1413.7546233148946</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1625.7395793274704</v>
       </c>
       <c r="M50" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>369.03859999999997</v>
+        <v>383.03859999999997</v>
       </c>
       <c r="N50" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="O50" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P50" s="28"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>49</v>
       </c>
       <c r="B51" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>712.43924451874352</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="C51" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4090,11 +4197,11 @@
         <v>-</v>
       </c>
       <c r="F51" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" s="20">
@@ -4102,41 +4209,42 @@
         <v>1</v>
       </c>
       <c r="I51" s="20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J51" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.56396709346051221</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.58917301887189566</v>
       </c>
       <c r="K51" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="L51" s="22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1382.5164445187434</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1605.7889784641575</v>
       </c>
       <c r="M51" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>335.03859999999997</v>
+        <v>360.03859999999997</v>
       </c>
       <c r="N51" s="20">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="O51" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
-      <c r="O51" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
+      <c r="P51" s="28"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>50</v>
       </c>
-      <c r="B52" s="21">
-        <f t="shared" ca="1" si="13"/>
-        <v>683.50008352128214</v>
+      <c r="B52" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>1246.4077515027702</v>
       </c>
       <c r="C52" s="21" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4148,52 +4256,53 @@
       </c>
       <c r="E52" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1625,74 unidades</v>
       </c>
       <c r="F52" s="21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G52" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="H52" s="21">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="I52" s="21">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J52" s="21">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.22934563591602031</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6.9838014535387516E-2</v>
       </c>
       <c r="K52" s="21">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L52" s="23">
-        <f t="shared" ca="1" si="9"/>
-        <v>1407.577283521282</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1599.4463515027701</v>
       </c>
       <c r="M52" s="21">
         <f t="shared" ca="1" si="19"/>
-        <v>362.03859999999997</v>
+        <v>353.03859999999997</v>
       </c>
       <c r="N52" s="21">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="O52" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
-      <c r="O52" s="21">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
+      <c r="P52" s="28"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
-        <v>37</v>
+      <c r="A53" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>30</v>
@@ -4230,16 +4339,17 @@
       </c>
       <c r="M53" s="18">
         <f ca="1">SUM(M4:M52)</f>
-        <v>20751.923299999995</v>
+        <v>20629.923299999995</v>
       </c>
       <c r="N53" s="18">
         <f ca="1" xml:space="preserve"> N52</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O53" s="18">
         <f ca="1" xml:space="preserve"> O52</f>
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P53" s="29"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
@@ -4257,7 +4367,7 @@
         <v>31</v>
       </c>
       <c r="B55" s="2">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4276,8 +4386,12 @@
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="D56" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -4298,8 +4412,13 @@
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="D57" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="32">
+        <f ca="1">AVERAGE(B3:B52)</f>
+        <v>759.56939597549081</v>
+      </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -4320,8 +4439,13 @@
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="D58" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="32">
+        <f ca="1">N53</f>
+        <v>11</v>
+      </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -4336,8 +4460,13 @@
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="32">
+        <f ca="1">O53</f>
+        <v>5</v>
+      </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -4359,8 +4488,13 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="D60" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="32">
+        <f ca="1">M53</f>
+        <v>20629.923299999995</v>
+      </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -4372,8 +4506,8 @@
         <v>3</v>
       </c>
       <c r="S60" s="4">
-        <f xml:space="preserve"> 20 + 2*X55</f>
-        <v>20</v>
+        <f xml:space="preserve"> 20 + 2*7</f>
+        <v>34</v>
       </c>
       <c r="T60" s="4" t="s">
         <v>6</v>
@@ -4382,8 +4516,13 @@
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="D61" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="32">
+        <f ca="1">E57*S59</f>
+        <v>263.87440816188547</v>
+      </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -4404,8 +4543,13 @@
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="D62" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="32">
+        <f ca="1">E60 * (S57-S56)</f>
+        <v>484803.19754999987</v>
+      </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -4439,7 +4583,7 @@
         <v>28</v>
       </c>
       <c r="S64" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.3">

--- a/Excel/MEIO_TP.xlsx
+++ b/Excel/MEIO_TP.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis macedo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DAB8D8-813D-4170-895B-641C5FCC54DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE73A478-8AB6-8545-B007-EDD1EFE519A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -199,12 +198,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -361,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -444,6 +451,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,24 +769,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10C6BA9-3A24-354E-8794-1436E51CF428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.19921875" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -793,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -806,7 +816,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -817,12 +827,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -834,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -846,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -857,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -866,10 +876,10 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -877,7 +887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -891,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -902,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -913,10 +923,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -924,7 +934,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -932,7 +942,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
@@ -941,10 +951,10 @@
         <v>414.34399999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
@@ -955,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -968,7 +978,7 @@
         <v>421.77666224000001</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
@@ -981,7 +991,7 @@
         <v>561.28528240000003</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
@@ -994,15 +1004,15 @@
         <v>347.03860687999997</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>36.280797614879994</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>36.664347568799997</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1029,90 +1039,90 @@
         <v>37.130086798559994</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
   </sheetData>
@@ -1121,34 +1131,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A298210-0850-4264-BB47-A3D4A27C3146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="5" width="36.09765625" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="5" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" customWidth="1"/>
-    <col min="9" max="9" width="18.8984375" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" customWidth="1"/>
-    <col min="14" max="14" width="26.796875" customWidth="1"/>
-    <col min="15" max="15" width="17.69921875" customWidth="1"/>
-    <col min="16" max="16" width="21.69921875" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="15" max="15" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="21.75" customWidth="1"/>
     <col min="18" max="18" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1220,7 +1230,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="26"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1263,13 +1273,13 @@
       </c>
       <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="20">
-        <f ca="1">IF(F4=1,MAX(L4+B3-M4, 0),MAX(B3-M4, 0))</f>
-        <v>594.22329999999999</v>
+        <f ca="1">IF(F4=1,MAX(INDIRECT(ADDRESS(ROW(B4)-G4,12))+B3-M4, 0),MAX(B3-M4, 0))</f>
+        <v>576.22329999999999</v>
       </c>
       <c r="C4" s="20" t="b">
         <f t="shared" ref="C4:C35" ca="1" si="0">AND(B4&lt;$S$64,MOD(A4,$S$62)=0)</f>
@@ -1277,43 +1287,43 @@
       </c>
       <c r="D4" s="20" t="str">
         <f t="shared" ref="D4:D16" ca="1" si="1" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND(L4,3) &amp; " unidades", "-")</f>
-        <v>Encomenda:  1644,213 unidades</v>
+        <v>Encomenda:  1658,024 unidades</v>
       </c>
       <c r="E4" s="20" t="str">
         <f ca="1">IF(F4=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F4)-G4,12)),3), " unidades"),"-")</f>
         <v>-</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F52" si="2">IFERROR(VLOOKUP(ROW(D4),I1:I3,1,0)/ROW(D4),0)</f>
+        <f>IFERROR(VLOOKUP(ROW(D4),I1:I3,1,0)/ROW(D4),0)</f>
         <v>0</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" ref="G4:G52" si="3">IFERROR(IF(MATCH(ROW(D4),I1:I3,0)=2,2,IF(MATCH(ROW(D4),I1:I3,0)=3,1,0)),0)</f>
+        <f t="shared" ref="G4:G52" si="2">IFERROR(IF(MATCH(ROW(D4),I1:I3,0)=2,2,IF(MATCH(ROW(D4),I1:I3,0)=3,1,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H35" ca="1" si="4">IF(J4&lt;=0.6,1,2)</f>
-        <v>1</v>
+        <f t="shared" ref="H4:H35" ca="1" si="3">IF(J4&lt;=0.6,1,2)</f>
+        <v>2</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I52" ca="1" si="5">IF(C4=TRUE(),(A4+H4+2),0)</f>
-        <v>5</v>
+        <f t="shared" ref="I4:I52" ca="1" si="4">IF(C4=TRUE(),(A4+H4+2),0)</f>
+        <v>6</v>
       </c>
       <c r="J4" s="20">
         <f ca="1">RAND()</f>
-        <v>3.9040940492498288E-2</v>
+        <v>0.70736548208625094</v>
       </c>
       <c r="K4" s="20">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="L4" s="22">
         <f ca="1">SQRT((2*M4*$S$61)/$S$59) + $S$64 - M4*$S$62/2</f>
-        <v>1644.21293726867</v>
+        <v>1658.024297735928</v>
       </c>
       <c r="M4" s="20">
         <f ca="1">421.7767 + K4</f>
-        <v>405.77670000000001</v>
+        <v>423.77670000000001</v>
       </c>
       <c r="N4" s="20">
         <v>0</v>
@@ -1324,13 +1334,13 @@
       </c>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="20">
-        <f t="shared" ref="B5:B52" ca="1" si="6">IF(F5=1,MAX(L5+B4-M5, 0),MAX(B4-M5, 0))</f>
-        <v>1821.5528055529708</v>
+        <f t="shared" ref="B5:B52" ca="1" si="5">IF(F5=1,MAX(INDIRECT(ADDRESS(ROW(B5)-G5,12))+B4-M5, 0),MAX(B4-M5, 0))</f>
+        <v>118.44659999999999</v>
       </c>
       <c r="C5" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1341,40 +1351,40 @@
         <v>-</v>
       </c>
       <c r="E5" s="20" t="str">
-        <f t="shared" ref="E5:E17" ca="1" si="7">IF(F5=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F5)-G5,12)),3), " unidades"),"-")</f>
-        <v>Receção: 1644,213 unidades</v>
+        <f t="shared" ref="E5:E17" ca="1" si="6">IF(F5=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F5)-G5,12)),3), " unidades"),"-")</f>
+        <v>-</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="F4:F52" ca="1" si="7">IFERROR(VLOOKUP(ROW(D5),I2:I4,1,0)/ROW(D5),0)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="H5" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="I5" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" ref="J5:J52" ca="1" si="8">RAND()</f>
-        <v>0.69650433629346975</v>
+        <v>0.54169743254387048</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" ref="K5:K18" ca="1" si="9" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" ref="L5:L52" ca="1" si="10">SQRT((2*M5*$S$61)/$S$59) + $S$64 - M5*$S$62/2</f>
-        <v>1676.1062055529706</v>
+        <v>1682.3206995173164</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" ref="M5:M18" ca="1" si="11">421.7767 + K5</f>
-        <v>448.77670000000001</v>
+        <v>457.77670000000001</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" ref="N5:N52" ca="1" si="12">IF(C5 = TRUE(), 1+ N4, N4)</f>
@@ -1386,13 +1396,13 @@
       </c>
       <c r="P5" s="28"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1401.7761055529709</v>
+      <c r="B6" s="34">
+        <f t="shared" ca="1" si="5"/>
+        <v>1343.6941977359279</v>
       </c>
       <c r="C6" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1403,40 +1413,40 @@
         <v>-</v>
       </c>
       <c r="E6" s="20" t="str">
+        <f ca="1">IF(F6=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F6)-G6,12)),3), " unidades"),"-")</f>
+        <v>Receção: 1658,024 unidades</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.55398080241610237</v>
+        <v>0.55058820665279995</v>
       </c>
       <c r="K6" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1655.0144066622811</v>
+        <v>1664.6765784843487</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>419.77670000000001</v>
+        <v>432.77670000000001</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1448,13 +1458,13 @@
       </c>
       <c r="P6" s="28"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>944.99940555297087</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>914.9174977359279</v>
       </c>
       <c r="C7" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1465,40 +1475,40 @@
         <v>-</v>
       </c>
       <c r="E7" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18815333825277625</v>
+        <v>0.1691348144621545</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1681.6376306826483</v>
+        <v>1661.7403017958491</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>456.77670000000001</v>
+        <v>428.77670000000001</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1510,13 +1520,13 @@
       </c>
       <c r="P7" s="28"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>540.22270555297087</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>479.14079773592789</v>
       </c>
       <c r="C8" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1524,43 +1534,43 @@
       </c>
       <c r="D8" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Encomenda:  1643,425 unidades</v>
+        <v>Encomenda:  1666,858 unidades</v>
       </c>
       <c r="E8" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F8" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.81537733143308966</v>
+        <v>0.35647636984633502</v>
       </c>
       <c r="K8" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1643.425150929721</v>
+        <v>1666.857774080207</v>
       </c>
       <c r="M8" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>404.77670000000001</v>
+        <v>435.77670000000001</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1572,13 +1582,13 @@
       </c>
       <c r="P8" s="28"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>86.44600555297086</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1719.2218718161353</v>
       </c>
       <c r="C9" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1589,40 +1599,40 @@
         <v>-</v>
       </c>
       <c r="E9" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Receção: 1666,858 unidades</v>
+      </c>
+      <c r="F9" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.58785331252548767</v>
+        <v>0.32979022762143617</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1679.5773398091255</v>
+        <v>1660.2600306633581</v>
       </c>
       <c r="M9" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>453.77670000000001</v>
+        <v>426.77670000000001</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1634,13 +1644,13 @@
       </c>
       <c r="P9" s="28"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1317.8020017338467</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1263.4451718161354</v>
       </c>
       <c r="C10" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1651,102 +1661,102 @@
         <v>-</v>
       </c>
       <c r="E10" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>Receção: 1643,425 unidades</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.17868321598453352</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" ca="1" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1680.9527185052498</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>455.77670000000001</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>866.66847181613537</v>
+      </c>
+      <c r="C11" s="20" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="H10" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.89618455082545256</v>
-      </c>
-      <c r="K10" s="20">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="L10" s="22">
-        <f t="shared" ca="1" si="10"/>
-        <v>1666.1326961808759</v>
-      </c>
-      <c r="M10" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>434.77670000000001</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>866.02530173384673</v>
-      </c>
-      <c r="C11" s="20" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E11" s="20" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
       <c r="I11" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.28176176357435145</v>
+        <v>0.83465245626283024</v>
       </c>
       <c r="K11" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1678.1945144672677</v>
+        <v>1637.0426135239172</v>
       </c>
       <c r="M11" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>451.77670000000001</v>
+        <v>396.77670000000001</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1758,13 +1768,13 @@
       </c>
       <c r="P11" s="28"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>430.24860173384673</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>434.89177181613536</v>
       </c>
       <c r="C12" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1772,43 +1782,43 @@
       </c>
       <c r="D12" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Encomenda:  1666,858 unidades</v>
+        <v>Encomenda:  1663,946 unidades</v>
       </c>
       <c r="E12" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F12" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71787734869295783</v>
+        <v>0.41763830739175689</v>
       </c>
       <c r="K12" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L12" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1666.857774080207</v>
+        <v>1663.9455249111847</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>435.77670000000001</v>
+        <v>431.77670000000001</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1820,13 +1830,13 @@
       </c>
       <c r="P12" s="28"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1697.06059672732</v>
       </c>
       <c r="C13" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1837,40 +1847,40 @@
         <v>-</v>
       </c>
       <c r="E13" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Receção: 1663,946 unidades</v>
+      </c>
+      <c r="F13" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.50020351920354056</v>
+        <v>0.30179419960063569</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>-20</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1677.5002938555599</v>
+        <v>1641.0485006343292</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>450.77670000000001</v>
+        <v>401.77670000000001</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1878,17 +1888,17 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="28"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1235.9583443693259</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1250.2838967273201</v>
       </c>
       <c r="C14" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1899,40 +1909,40 @@
         <v>-</v>
       </c>
       <c r="E14" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>Receção: 1666,858 unidades</v>
-      </c>
-      <c r="F14" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H14" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56525437706891279</v>
+        <v>0.24978201578742409</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1652.7350443693258</v>
+        <v>1674.7045458085545</v>
       </c>
       <c r="M14" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>416.77670000000001</v>
+        <v>446.77670000000001</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -1940,17 +1950,17 @@
       </c>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="28"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>801.18164436932591</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>832.50719672732009</v>
       </c>
       <c r="C15" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1961,40 +1971,40 @@
         <v>-</v>
       </c>
       <c r="E15" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F15" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F15" s="20">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.77549432193472112</v>
+        <v>0.85349740980996591</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="L15" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1666.1326961808759</v>
+        <v>1653.4969366800156</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>434.77670000000001</v>
+        <v>417.77670000000001</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2002,17 +2012,17 @@
       </c>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="28"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>402.4049443693259</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>406.73049672732009</v>
       </c>
       <c r="C16" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2020,43 +2030,43 @@
       </c>
       <c r="D16" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Encomenda:  1638,652 unidades</v>
+        <v>Encomenda:  1659,517 unidades</v>
       </c>
       <c r="E16" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20950735976433621</v>
+        <v>0.94647738897242206</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1638.6517393091417</v>
+        <v>1659.516837046368</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>398.77670000000001</v>
+        <v>425.77670000000001</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2064,17 +2074,17 @@
       </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="28"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1627.580962874576</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="C17" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2085,40 +2095,40 @@
         <v>-</v>
       </c>
       <c r="E17" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>Receção: 1638,652 unidades</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="H17" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="I17" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90757197332157591</v>
+        <v>0.53917184229286841</v>
       </c>
       <c r="K17" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>-9</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1680.9527185052498</v>
+        <v>1649.6662487123053</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>455.77670000000001</v>
+        <v>412.77670000000001</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2130,13 +2140,13 @@
       </c>
       <c r="P17" s="28"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1234.8042628745761</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1271.7401370463681</v>
       </c>
       <c r="C18" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2148,39 +2158,39 @@
       </c>
       <c r="E18" s="20" t="str">
         <f t="shared" ref="E18:E52" ca="1" si="15">IF(F18=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(F18)-G18,12)),3), " unidades"),"-")</f>
-        <v>-</v>
+        <v>Receção: 1659,517 unidades</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G18" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.86511593753477944</v>
+        <v>0.84663743997456686</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" ca="1" si="9"/>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1633.7969697532171</v>
+        <v>1629.6878320013711</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>392.77670000000001</v>
+        <v>387.77670000000001</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2192,13 +2202,13 @@
       </c>
       <c r="P18" s="28"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>670.51896287457612</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>674.45483704636808</v>
       </c>
       <c r="C19" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2213,36 +2223,36 @@
         <v>-</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G19" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17711163364884819</v>
+        <v>0.89143126322435806</v>
       </c>
       <c r="K19" s="20">
         <f ca="1">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1745.6147061664665</v>
+        <v>1761.9027192425801</v>
       </c>
       <c r="M19" s="20">
         <f ca="1" xml:space="preserve"> 561.2853 + K19</f>
-        <v>564.28530000000001</v>
+        <v>597.28530000000001</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2254,13 +2264,13 @@
       </c>
       <c r="P19" s="28"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>130.23366287457611</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>78.169537046368077</v>
       </c>
       <c r="C20" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2268,43 +2278,43 @@
       </c>
       <c r="D20" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1732,857 unidades</v>
+        <v>Encomenda:  1761,429 unidades</v>
       </c>
       <c r="E20" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G20" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6547612025566516</v>
+        <v>0.43307303454117241</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" ref="K20:K30" ca="1" si="16">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-21</v>
+        <v>35</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1732.8571623987837</v>
+        <v>1761.4294492970448</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" ref="M20:M30" ca="1" si="17" xml:space="preserve"> 561.2853 + K20</f>
-        <v>540.28530000000001</v>
+        <v>596.28530000000001</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2316,13 +2326,13 @@
       </c>
       <c r="P20" s="28"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1299.3136863434129</v>
       </c>
       <c r="C21" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2334,39 +2344,39 @@
       </c>
       <c r="E21" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1761,429 unidades</v>
       </c>
       <c r="F21" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G21" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43265606294364212</v>
+        <v>0.91035821170455566</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1737.7350981677869</v>
+        <v>1732.8571623987837</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>549.28530000000001</v>
+        <v>540.28530000000001</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2374,17 +2384,17 @@
       </c>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="28"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1193.9202324683984</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>722.02838634341288</v>
       </c>
       <c r="C22" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2396,39 +2406,39 @@
       </c>
       <c r="E22" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1732,857 unidades</v>
+        <v>-</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="G22" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.86508252012426101</v>
+        <v>0.26798304049629507</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-24</v>
+        <v>16</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1731.2055324683984</v>
+        <v>1752.1988843860413</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>537.28530000000001</v>
+        <v>577.28530000000001</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2436,17 +2446,17 @@
       </c>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" s="28"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>667.63493246839835</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>166.74308634341287</v>
       </c>
       <c r="C23" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2461,36 +2471,36 @@
         <v>-</v>
       </c>
       <c r="F23" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G23" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92146402883768641</v>
+        <v>2.1047141213189846E-2</v>
       </c>
       <c r="K23" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-35</v>
+        <v>-6</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1725.0374544542096</v>
+        <v>1740.9239756307375</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>526.28530000000001</v>
+        <v>555.28530000000001</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2498,17 +2508,17 @@
       </c>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="28"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>138.34963246839834</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="C24" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2516,43 +2526,43 @@
       </c>
       <c r="D24" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1726,737 unidades</v>
+        <v>Encomenda:  1758,082 unidades</v>
       </c>
       <c r="E24" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F24" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G24" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>25</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48585849094550915</v>
+        <v>0.46168649466040956</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-32</v>
+        <v>28</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1726.7373087916239</v>
+        <v>1758.0817793066235</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>529.28530000000001</v>
+        <v>589.28530000000001</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2564,13 +2574,13 @@
       </c>
       <c r="P24" s="28"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1316.2520665900893</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1200.7964793066235</v>
       </c>
       <c r="C25" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2582,39 +2592,39 @@
       </c>
       <c r="E25" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1726,737 unidades</v>
+        <v>Receção: 1758,082 unidades</v>
       </c>
       <c r="F25" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="G25" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J25" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68876135631641289</v>
+        <v>0.85957461989485728</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1749.1877341216909</v>
+        <v>1741.9758927058979</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>571.28530000000001</v>
+        <v>557.28530000000001</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2626,13 +2636,13 @@
       </c>
       <c r="P25" s="28"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>777.96676659008926</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>657.51117930662349</v>
       </c>
       <c r="C26" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2647,36 +2657,36 @@
         <v>-</v>
       </c>
       <c r="F26" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G26" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J26" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6162673278348803E-2</v>
+        <v>0.84202174240875927</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-23</v>
+        <v>-18</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1731.7575153737102</v>
+        <v>1734.4958957858639</v>
       </c>
       <c r="M26" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>538.28530000000001</v>
+        <v>543.28530000000001</v>
       </c>
       <c r="N26" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2688,13 +2698,13 @@
       </c>
       <c r="P26" s="28"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>250.68146659008926</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>128.22587930662348</v>
       </c>
       <c r="C27" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2709,36 +2719,36 @@
         <v>-</v>
       </c>
       <c r="F27" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G27" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18118072641282146</v>
+        <v>0.49179667441152486</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1725.6055574157272</v>
+        <v>1726.7373087916239</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>527.28530000000001</v>
+        <v>529.28530000000001</v>
       </c>
       <c r="N27" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2750,12 +2760,12 @@
       </c>
       <c r="P27" s="28"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="C28" s="20" t="b">
@@ -2764,43 +2774,43 @@
       </c>
       <c r="D28" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1729,541 unidades</v>
+        <v>Encomenda:  1744,063 unidades</v>
       </c>
       <c r="E28" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G28" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45503441037056591</v>
+        <v>0.94215270947538454</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1729.5408978284604</v>
+        <v>1744.063341667535</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>534.28530000000001</v>
+        <v>561.28530000000001</v>
       </c>
       <c r="N28" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2812,13 +2822,13 @@
       </c>
       <c r="P28" s="28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1195.2555978284604</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="C29" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2830,39 +2840,39 @@
       </c>
       <c r="E29" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1729,541 unidades</v>
+        <v>-</v>
       </c>
       <c r="F29" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="G29" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="H29" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="I29" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.82970699085547739</v>
+        <v>0.22142940592485905</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-27</v>
+        <v>28</v>
       </c>
       <c r="L29" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1729.5408978284604</v>
+        <v>1758.0817793066235</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>534.28530000000001</v>
+        <v>589.28530000000001</v>
       </c>
       <c r="N29" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2870,17 +2880,17 @@
       </c>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>662.97029782846039</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1152.778041667535</v>
       </c>
       <c r="C30" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2892,39 +2902,39 @@
       </c>
       <c r="E30" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1744,063 unidades</v>
       </c>
       <c r="F30" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G30" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.8114558243564427</v>
+        <v>0.41776554959187151</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-29</v>
+        <v>30</v>
       </c>
       <c r="L30" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1728.4238624603609</v>
+        <v>1759.0444986794023</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>532.28530000000001</v>
+        <v>591.28530000000001</v>
       </c>
       <c r="N30" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2932,17 +2942,17 @@
       </c>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30" s="28"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>295.93169782846041</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>779.73944166753506</v>
       </c>
       <c r="C31" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2957,36 +2967,36 @@
         <v>-</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G31" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47380733339348635</v>
+        <v>0.28244850468491067</v>
       </c>
       <c r="K31" s="20">
         <f ca="1">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L31" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1612.0025176411955</v>
+        <v>1617.2284560171638</v>
       </c>
       <c r="M31" s="20">
         <f ca="1" xml:space="preserve"> 347.0386 + K31</f>
-        <v>367.03859999999997</v>
+        <v>373.03859999999997</v>
       </c>
       <c r="N31" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -2994,17 +3004,17 @@
       </c>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P31" s="28"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>417.70084166753509</v>
       </c>
       <c r="C32" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3012,43 +3022,43 @@
       </c>
       <c r="D32" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1605,789 unidades</v>
+        <v>Encomenda:  1607,577 unidades</v>
       </c>
       <c r="E32" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G32" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16539635298573696</v>
+        <v>0.53865823177566674</v>
       </c>
       <c r="K32" s="20">
         <f t="shared" ref="K32:K52" ca="1" si="18">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1605.7889784641575</v>
+        <v>1607.577283521282</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" ref="M32:M52" ca="1" si="19" xml:space="preserve"> 347.0386 + K32</f>
-        <v>360.03859999999997</v>
+        <v>362.03859999999997</v>
       </c>
       <c r="N32" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3060,13 +3070,13 @@
       </c>
       <c r="P32" s="28"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1246.9321778572416</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1664.239525188817</v>
       </c>
       <c r="C33" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3078,39 +3088,39 @@
       </c>
       <c r="E33" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1605,789 unidades</v>
+        <v>Receção: 1607,577 unidades</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="G33" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="20">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="H33" s="20">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
       <c r="I33" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25303316978854562</v>
+        <v>9.9482480405131968E-2</v>
       </c>
       <c r="K33" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1592.9707778572415</v>
+        <v>1606.6844425943418</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>346.03859999999997</v>
+        <v>361.03859999999997</v>
       </c>
       <c r="N33" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3122,13 +3132,13 @@
       </c>
       <c r="P33" s="28"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>909.89357785724167</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1293.2009251888171</v>
       </c>
       <c r="C34" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3143,36 +3153,36 @@
         <v>-</v>
       </c>
       <c r="F34" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G34" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23024991873413547</v>
+        <v>0.42151440224916725</v>
       </c>
       <c r="K34" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1584.4431401830816</v>
+        <v>1615.496575444934</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>337.03859999999997</v>
+        <v>371.03859999999997</v>
       </c>
       <c r="N34" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3184,13 +3194,13 @@
       </c>
       <c r="P34" s="28"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>548.85497785724169</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>937.16232518881714</v>
       </c>
       <c r="C35" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3205,36 +3215,36 @@
         <v>-</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="20">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53102504447200527</v>
+        <v>0.47847072949334113</v>
       </c>
       <c r="K35" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L35" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1606.6844425943418</v>
+        <v>1602.1806700341972</v>
       </c>
       <c r="M35" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>361.03859999999997</v>
+        <v>356.03859999999997</v>
       </c>
       <c r="N35" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3246,13 +3256,13 @@
       </c>
       <c r="P35" s="28"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>196.81637785724172</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>580.12372518881716</v>
       </c>
       <c r="C36" s="20" t="b">
         <f t="shared" ref="C36:C52" ca="1" si="20">AND(B36&lt;$S$64,MOD(A36,$S$62)=0)</f>
@@ -3260,43 +3270,43 @@
       </c>
       <c r="D36" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1598,53 unidades</v>
+        <v>Encomenda:  1603,087 unidades</v>
       </c>
       <c r="E36" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="20">
         <f t="shared" ref="H36:H52" ca="1" si="21">IF(J36&lt;=0.6,1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18439528615619005</v>
+        <v>0.66042808481658832</v>
       </c>
       <c r="K36" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1598.5295015377164</v>
+        <v>1603.0867371077561</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>352.03859999999997</v>
+        <v>357.03859999999997</v>
       </c>
       <c r="N36" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3308,13 +3318,13 @@
       </c>
       <c r="P36" s="28"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1444.4825360888285</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>199.08512518881719</v>
       </c>
       <c r="C37" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3326,39 +3336,39 @@
       </c>
       <c r="E37" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1598,53 unidades</v>
+        <v>-</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H37" s="20">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>8.0536215458282268E-2</v>
+        <v>0.49701444050914534</v>
       </c>
       <c r="K37" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-22</v>
+        <v>34</v>
       </c>
       <c r="L37" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1572.7047582315868</v>
+        <v>1624.0568644609402</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>325.03859999999997</v>
+        <v>381.03859999999997</v>
       </c>
       <c r="N37" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3370,13 +3380,13 @@
       </c>
       <c r="P37" s="28"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1081.4439360888287</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1455.1332622965733</v>
       </c>
       <c r="C38" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3388,39 +3398,39 @@
       </c>
       <c r="E38" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1603,087 unidades</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71848708336345535</v>
+        <v>0.31981242469147408</v>
       </c>
       <c r="K38" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1608.4675121059731</v>
+        <v>1593.9041508808482</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>363.03859999999997</v>
+        <v>347.03859999999997</v>
       </c>
       <c r="N38" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3432,13 +3442,13 @@
       </c>
       <c r="P38" s="28"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>37</v>
       </c>
       <c r="B39" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>713.40533608882868</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1119.0946622965735</v>
       </c>
       <c r="C39" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3453,11 +3463,11 @@
         <v>-</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="20">
@@ -3465,24 +3475,24 @@
         <v>1</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51686587804218509</v>
+        <v>0.31181783557601361</v>
       </c>
       <c r="K39" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21</v>
+        <v>-11</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1612.8798448385564</v>
+        <v>1583.4812530098161</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>368.03859999999997</v>
+        <v>336.03859999999997</v>
       </c>
       <c r="N39" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3494,32 +3504,32 @@
       </c>
       <c r="P39" s="28"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>369.3667360888287</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>768.05606229657349</v>
       </c>
       <c r="C40" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1591,096 unidades</v>
+        <v>-</v>
       </c>
       <c r="E40" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F40" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="20">
@@ -3527,28 +3537,28 @@
         <v>2</v>
       </c>
       <c r="I40" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74781346636081447</v>
+        <v>0.76137659827610249</v>
       </c>
       <c r="K40" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="L40" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1591.095632835455</v>
+        <v>1597.6099271340836</v>
       </c>
       <c r="M40" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>344.03859999999997</v>
+        <v>351.03859999999997</v>
       </c>
       <c r="N40" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O40" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3556,13 +3566,13 @@
       </c>
       <c r="P40" s="28"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>39</v>
       </c>
       <c r="B41" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>29.328136088828728</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>427.01746229657351</v>
       </c>
       <c r="C41" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3577,40 +3587,40 @@
         <v>-</v>
       </c>
       <c r="F41" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32735092021412537</v>
+        <v>0.95645401616027181</v>
       </c>
       <c r="K41" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="L41" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1587.3114032350481</v>
+        <v>1588.2617340999891</v>
       </c>
       <c r="M41" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>340.03859999999997</v>
+        <v>341.03859999999997</v>
       </c>
       <c r="N41" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O41" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3618,57 +3628,57 @@
       </c>
       <c r="P41" s="28"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1276.9607559675769</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>76.978862296573539</v>
       </c>
       <c r="C42" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1596,688 unidades</v>
       </c>
       <c r="E42" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1591,096 unidades</v>
+        <v>-</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H42" s="20">
         <f t="shared" ca="1" si="21"/>
         <v>2</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
       </c>
       <c r="J42" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91797242384490474</v>
+        <v>0.93479607422022359</v>
       </c>
       <c r="K42" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="L42" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1566.6712198787482</v>
+        <v>1596.6876166419252</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>319.03859999999997</v>
+        <v>350.03859999999997</v>
       </c>
       <c r="N42" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3680,13 +3690,13 @@
       </c>
       <c r="P42" s="28"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>928.92215596757694</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="C43" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3701,11 +3711,11 @@
         <v>-</v>
       </c>
       <c r="F43" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="20">
@@ -3713,24 +3723,24 @@
         <v>2</v>
       </c>
       <c r="I43" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J43" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.62689674678274465</v>
+        <v>0.6998706743931189</v>
       </c>
       <c r="K43" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="L43" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1594.8347403750913</v>
+        <v>1625.7395793274704</v>
       </c>
       <c r="M43" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>348.03859999999997</v>
+        <v>383.03859999999997</v>
       </c>
       <c r="N43" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3738,79 +3748,79 @@
       </c>
       <c r="O43" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P43" s="28"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>42</v>
       </c>
       <c r="B44" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>590.88355596757697</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1222.6490166419253</v>
       </c>
       <c r="C44" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1585,402 unidades</v>
+        <v>-</v>
       </c>
       <c r="E44" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1596,688 unidades</v>
       </c>
       <c r="F44" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H44" s="20">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="I44" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26792650182283806</v>
+        <v>0.27580916248475895</v>
       </c>
       <c r="K44" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="L44" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1585.4021190303479</v>
+        <v>1618.0906447890357</v>
       </c>
       <c r="M44" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>338.03859999999997</v>
+        <v>374.03859999999997</v>
       </c>
       <c r="N44" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O44" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P44" s="28"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1838.4015132104023</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>910.61041664192533</v>
       </c>
       <c r="C45" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3822,76 +3832,76 @@
       </c>
       <c r="E45" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1585,402 unidades</v>
+        <v>-</v>
       </c>
       <c r="F45" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H45" s="20">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="I45" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J45" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23821726974754864</v>
+        <v>0.15073524907296099</v>
       </c>
       <c r="K45" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-33</v>
+        <v>-35</v>
       </c>
       <c r="L45" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1561.556557242825</v>
+        <v>1559.4881637296626</v>
       </c>
       <c r="M45" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>314.03859999999997</v>
+        <v>312.03859999999997</v>
       </c>
       <c r="N45" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O45" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P45" s="28"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1506.3629132104024</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>534.57181664192535</v>
       </c>
       <c r="C46" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1619,808 unidades</v>
       </c>
       <c r="E46" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F46" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="20">
@@ -3899,24 +3909,24 @@
         <v>2</v>
       </c>
       <c r="I46" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
       <c r="J46" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6388025406301342</v>
+        <v>0.86628898453849723</v>
       </c>
       <c r="K46" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-15</v>
+        <v>29</v>
       </c>
       <c r="L46" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1579.604359759252</v>
+        <v>1619.8075693529877</v>
       </c>
       <c r="M46" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>332.03859999999997</v>
+        <v>376.03859999999997</v>
       </c>
       <c r="N46" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3924,17 +3934,17 @@
       </c>
       <c r="O46" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P46" s="28"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>45</v>
       </c>
       <c r="B47" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1150.3243132104026</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>187.53321664192538</v>
       </c>
       <c r="C47" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3949,36 +3959,36 @@
         <v>-</v>
       </c>
       <c r="F47" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3400134656077517</v>
+        <v>0.68567985017762978</v>
       </c>
       <c r="K47" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L47" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1602.1806700341972</v>
+        <v>1593.9041508808482</v>
       </c>
       <c r="M47" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>356.03859999999997</v>
+        <v>347.03859999999997</v>
       </c>
       <c r="N47" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -3986,17 +3996,17 @@
       </c>
       <c r="O47" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P47" s="28"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>811.28571321040261</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1475.3021859949131</v>
       </c>
       <c r="C48" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4008,39 +4018,39 @@
       </c>
       <c r="E48" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>-</v>
+        <v>Receção: 1619,808 unidades</v>
       </c>
       <c r="F48" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J48" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30864355456612935</v>
+        <v>0.95852326962614898</v>
       </c>
       <c r="K48" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="L48" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1586.3582024474122</v>
+        <v>1579.604359759252</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>339.03859999999997</v>
+        <v>332.03859999999997</v>
       </c>
       <c r="N48" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -4048,17 +4058,17 @@
       </c>
       <c r="O48" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P48" s="28"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>433.24711321040263</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1106.2635859949132</v>
       </c>
       <c r="C49" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4073,36 +4083,36 @@
         <v>-</v>
       </c>
       <c r="F49" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.83792521693655975</v>
+        <v>0.55474301770741818</v>
       </c>
       <c r="K49" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L49" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1621.5146225670906</v>
+        <v>1613.7546233148946</v>
       </c>
       <c r="M49" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>378.03859999999997</v>
+        <v>369.03859999999997</v>
       </c>
       <c r="N49" s="20">
         <f t="shared" ca="1" si="12"/>
@@ -4110,36 +4120,36 @@
       </c>
       <c r="O49" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P49" s="28"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>48</v>
       </c>
       <c r="B50" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>50.208513210402657</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>733.22498599491325</v>
       </c>
       <c r="C50" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="20" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Encomenda:  1625,74 unidades</v>
+        <v>-</v>
       </c>
       <c r="E50" s="20" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>-</v>
       </c>
       <c r="F50" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G50" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="20">
@@ -4147,42 +4157,42 @@
         <v>2</v>
       </c>
       <c r="I50" s="20">
-        <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="J50" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91271748711730138</v>
+        <v>0.81638139935579901</v>
       </c>
       <c r="K50" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L50" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1625.7395793274704</v>
+        <v>1617.2284560171638</v>
       </c>
       <c r="M50" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>383.03859999999997</v>
+        <v>373.03859999999997</v>
       </c>
       <c r="N50" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O50" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>49</v>
       </c>
       <c r="B51" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>404.18638599491328</v>
       </c>
       <c r="C51" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4197,40 +4207,40 @@
         <v>-</v>
       </c>
       <c r="F51" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.58917301887189566</v>
+        <v>0.93502381296857184</v>
       </c>
       <c r="K51" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>-18</v>
       </c>
       <c r="L51" s="22">
         <f t="shared" ca="1" si="10"/>
-        <v>1605.7889784641575</v>
+        <v>1576.6655060038192</v>
       </c>
       <c r="M51" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>360.03859999999997</v>
+        <v>329.03859999999997</v>
       </c>
       <c r="N51" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4238,57 +4248,57 @@
       </c>
       <c r="P51" s="28"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>50</v>
       </c>
       <c r="B52" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1246.4077515027702</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>68.147785994913306</v>
       </c>
       <c r="C52" s="21" t="b">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="21" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>-</v>
+        <v>Encomenda:  1583,481 unidades</v>
       </c>
       <c r="E52" s="21" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Receção: 1625,74 unidades</v>
+        <v>-</v>
       </c>
       <c r="F52" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="G52" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H52" s="21">
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
       <c r="I52" s="21">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9838014535387516E-2</v>
+        <v>0.44909728951936412</v>
       </c>
       <c r="K52" s="21">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="L52" s="23">
         <f t="shared" ca="1" si="10"/>
-        <v>1599.4463515027701</v>
+        <v>1583.4812530098161</v>
       </c>
       <c r="M52" s="21">
         <f t="shared" ca="1" si="19"/>
-        <v>353.03859999999997</v>
+        <v>336.03859999999997</v>
       </c>
       <c r="N52" s="21">
         <f t="shared" ca="1" si="12"/>
@@ -4300,7 +4310,7 @@
       </c>
       <c r="P52" s="28"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>36</v>
       </c>
@@ -4339,7 +4349,7 @@
       </c>
       <c r="M53" s="18">
         <f ca="1">SUM(M4:M52)</f>
-        <v>20629.923299999995</v>
+        <v>21027.923299999995</v>
       </c>
       <c r="N53" s="18">
         <f ca="1" xml:space="preserve"> N52</f>
@@ -4351,7 +4361,7 @@
       </c>
       <c r="P53" s="29"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4362,7 +4372,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -4383,7 +4393,7 @@
       </c>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="31" t="s">
@@ -4409,7 +4419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="30" t="s">
@@ -4417,7 +4427,7 @@
       </c>
       <c r="E57" s="32">
         <f ca="1">AVERAGE(B3:B52)</f>
-        <v>759.56939597549081</v>
+        <v>732.300294688853</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -4436,7 +4446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="30" t="s">
@@ -4457,7 +4467,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="30" t="s">
@@ -4485,7 +4495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="30" t="s">
@@ -4493,7 +4503,7 @@
       </c>
       <c r="E60" s="32">
         <f ca="1">M53</f>
-        <v>20629.923299999995</v>
+        <v>21027.923299999995</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -4513,7 +4523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="33" t="s">
@@ -4521,7 +4531,7 @@
       </c>
       <c r="E61" s="32">
         <f ca="1">E57*S59</f>
-        <v>263.87440816188547</v>
+        <v>254.40112237490752</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -4540,7 +4550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="33" t="s">
@@ -4548,7 +4558,7 @@
       </c>
       <c r="E62" s="32">
         <f ca="1">E60 * (S57-S56)</f>
-        <v>484803.19754999987</v>
+        <v>494156.19754999987</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -4565,7 +4575,7 @@
       </c>
       <c r="T62" s="5"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -4578,7 +4588,7 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R64" s="9" t="s">
         <v>28</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -4600,7 +4610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -4610,12 +4620,12 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R68" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4628,7 +4638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -4641,7 +4651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -4651,7 +4661,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -4663,5 +4673,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/MEIO_TP.xlsx
+++ b/Excel/MEIO_TP.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisb\Desktop\MEIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C951C67B-8531-4C75-AA97-F23FE64349DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6330FDC1-E8E9-4E60-991B-CB4630F32442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>b:</t>
   </si>
@@ -166,9 +171,6 @@
     <t>Stock Atual</t>
   </si>
   <si>
-    <t>Custo Total Acumulado</t>
-  </si>
-  <si>
     <t>Estatísticas Sobre a Simulação</t>
   </si>
   <si>
@@ -194,6 +196,15 @@
   </si>
   <si>
     <t>Cálculo Encomendas</t>
+  </si>
+  <si>
+    <t>Unidades Quebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo Total </t>
+  </si>
+  <si>
+    <t>Balanço Total</t>
   </si>
 </sst>
 </file>
@@ -358,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -422,9 +433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,6 +443,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1113,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1133,12 +1151,12 @@
     <col min="12" max="12" width="17.59765625" customWidth="1"/>
     <col min="13" max="13" width="13.8984375" customWidth="1"/>
     <col min="14" max="14" width="26.69921875" customWidth="1"/>
-    <col min="15" max="15" width="17.69921875" customWidth="1"/>
-    <col min="16" max="16" width="21.69921875" customWidth="1"/>
-    <col min="18" max="18" width="32.5" customWidth="1"/>
+    <col min="15" max="16" width="17.69921875" customWidth="1"/>
+    <col min="17" max="17" width="21.69921875" customWidth="1"/>
+    <col min="19" max="19" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1149,7 +1167,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>37</v>
@@ -1184,11 +1202,14 @@
       <c r="O1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1208,15 +1229,16 @@
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="19">
-        <f xml:space="preserve"> B55</f>
-        <v>1000</v>
+        <f xml:space="preserve"> T65</f>
+        <v>1400</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>30</v>
@@ -1251,30 +1273,35 @@
       <c r="O3" s="19">
         <v>0</v>
       </c>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="20">
-        <f ca="1">IF(G4=1,INDIRECT(ADDRESS(ROW(B4)-H4,12))+B3-M4,B3-M4)</f>
-        <v>603.22329999999999</v>
+        <f ca="1">IF(G4=1,INDIRECT(ADDRESS(ROW(B4)-H4,4))+B3-M4,B3-M4)</f>
+        <v>978.22329999999999</v>
       </c>
       <c r="C4" s="20" t="b">
-        <f ca="1">AND(B4&lt;$S$64,MOD(A4,$S$62)=0)</f>
+        <f t="shared" ref="C4:C35" ca="1" si="0">AND(B4&lt;$T$64,MOD(A4,$T$62)=0)</f>
         <v>0</v>
       </c>
       <c r="D4" s="20">
-        <f ca="1">$S$65 - B4</f>
-        <v>796.77670000000001</v>
+        <f t="shared" ref="D4:D35" ca="1" si="1">$T$65 - B4</f>
+        <v>421.77670000000001</v>
       </c>
       <c r="E4" s="20" t="str">
-        <f ca="1" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND($S$65-B4,3) &amp; " unidades", "-")</f>
+        <f t="shared" ref="E4:E35" ca="1" si="2" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B4,3) &amp; " unidades", "-")</f>
         <v>-</v>
       </c>
       <c r="F4" s="20" t="str">
-        <f ca="1">IF(G4=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(G4)-H4,12)),3), " unidades"),"-")</f>
+        <f ca="1">IF(G4=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(G4)-H4,4)),3), " unidades"),"-")</f>
         <v>-</v>
       </c>
       <c r="G4" s="20">
@@ -1282,1420 +1309,1581 @@
         <v>0</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H52" si="0">IFERROR(IF(MATCH(ROW(E4),J1:J3,0)=2,2,IF(MATCH(ROW(E4),J1:J3,0)=3,1,0)),0)</f>
+        <f t="shared" ref="H4:H52" si="3">IFERROR(IF(MATCH(ROW(E4),J1:J3,0)=2,2,IF(MATCH(ROW(E4),J1:J3,0)=3,1,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="20">
-        <f t="shared" ref="I4:I35" ca="1" si="1">IF(K4&lt;=0.6,1,2)</f>
-        <v>1</v>
+        <f t="shared" ref="I4:I35" ca="1" si="4">IF(K4&lt;=0.6,1,2)</f>
+        <v>2</v>
       </c>
       <c r="J4" s="20">
-        <f t="shared" ref="J4:J52" ca="1" si="2">IF(C4=TRUE(),(A4+I4+2),0)</f>
+        <f t="shared" ref="J4:J52" ca="1" si="5">IF(C4=TRUE(),(A4+I4+2),0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="20">
         <f ca="1">RAND()</f>
-        <v>0.15623159438193601</v>
+        <v>0.98399721038675358</v>
       </c>
       <c r="L4" s="20">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="M4" s="20">
-        <f ca="1">421.7767 + L4</f>
-        <v>396.77670000000001</v>
+        <f t="shared" ref="M4:M18" ca="1" si="6">421.7767 + L4</f>
+        <v>421.77670000000001</v>
       </c>
       <c r="N4" s="20">
         <v>0</v>
       </c>
       <c r="O4" s="20">
-        <f ca="1">IF(B4 &lt;= 0, 1 + O3, O3)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O4:O35" ca="1" si="7">IF(B4 &lt;= 0, 1 + O3, O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="30">
+        <f ca="1">IF(B4&lt;0,ROUND(ABS(B4),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="30">
+        <f ca="1">$T$59*B4+$T$60*P4+T61*(1/$T$62)</f>
+        <v>789.83477442000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="20">
-        <f ca="1">IF(G5=1,INDIRECT(ADDRESS(ROW(B5)-H5,12))+B4-M5,B4-M5)</f>
-        <v>210.44659999999999</v>
+        <f t="shared" ref="B5:B52" ca="1" si="8">IF(G5=1,INDIRECT(ADDRESS(ROW(B5)-H5,4))+B4-M5,B4-M5)</f>
+        <v>567.44659999999999</v>
       </c>
       <c r="C5" s="20" t="b">
-        <f ca="1">AND(B5&lt;$S$64,MOD(A5,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="20">
-        <f t="shared" ref="D5:D52" ca="1" si="3">$S$65 - B5</f>
-        <v>1189.5534</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>832.55340000000001</v>
       </c>
       <c r="E5" s="20" t="str">
-        <f t="shared" ref="E5:E52" ca="1" si="4" xml:space="preserve"> IF(C5 = TRUE(), "Encomenda:  " &amp; ROUND($S$65-B5,3) &amp; " unidades", "-")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F5" s="20" t="str">
-        <f t="shared" ref="F5:F17" ca="1" si="5">IF(G5=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(G5)-H5,12)),3), " unidades"),"-")</f>
+        <f t="shared" ref="F5:F52" ca="1" si="9">IF(G5=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(G5)-H5,4)),3), " unidades"),"-")</f>
         <v>-</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" ref="G5:G52" ca="1" si="6">IFERROR(VLOOKUP(ROW(E5),J2:J4,1,0)/ROW(E5),0)</f>
+        <f t="shared" ref="G5:G52" ca="1" si="10">IFERROR(VLOOKUP(ROW(E5),J2:J4,1,0)/ROW(E5),0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K5" s="20">
-        <f t="shared" ref="K5:K52" ca="1" si="7">RAND()</f>
-        <v>0.6572159092901505</v>
+        <f t="shared" ref="K5:K52" ca="1" si="11">RAND()</f>
+        <v>0.99188577548280676</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" ref="L5:L18" ca="1" si="8" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>-29</v>
+        <f t="shared" ref="L5:L18" ca="1" si="12" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
+        <v>-11</v>
       </c>
       <c r="M5" s="20">
-        <f ca="1">421.7767 + L5</f>
-        <v>392.77670000000001</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>410.77670000000001</v>
       </c>
       <c r="N5" s="20">
-        <f ca="1">IF(C5 = TRUE(), 1+ N4, N4)</f>
+        <f t="shared" ref="N5:N52" ca="1" si="13">IF(C5 = TRUE(), 1+ N4, N4)</f>
         <v>0</v>
       </c>
       <c r="O5" s="20">
-        <f ca="1">IF(B5 &lt;= 0, 1 + O4, O4)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="30">
+        <f t="shared" ref="P5:P52" ca="1" si="14">IF(B5&lt;0,ROUND(ABS(B5),0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
+        <f t="shared" ref="Q5:Q52" ca="1" si="15">$T$59*B5+$T$60*P5+T62*(1/$T$62)</f>
+        <v>198.13094884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="20">
-        <f ca="1">IF(G6=1,INDIRECT(ADDRESS(ROW(B6)-H6,12))+B5-M6,B5-M6)</f>
-        <v>-247.33010000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>123.66989999999998</v>
       </c>
       <c r="C6" s="20" t="b">
-        <f ca="1">AND(B6&lt;$S$64,MOD(A6,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1276.3301000000001</v>
+      </c>
+      <c r="E6" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1276.33 unidades</v>
+      </c>
+      <c r="F6" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1647.3301000000001</v>
-      </c>
-      <c r="E6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  1647,33 unidades</v>
-      </c>
-      <c r="F6" s="20" t="str">
-        <f ca="1">IF(G6=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(G6)-H6,12)),3), " unidades"),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G6" s="20">
+        <v>2</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.71478641077900928</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="M6" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K6" s="20">
+        <v>443.77670000000001</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12569794881373719</v>
-      </c>
-      <c r="L6" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="M6" s="20">
-        <f ca="1">421.7767 + L6</f>
-        <v>457.77670000000001</v>
-      </c>
-      <c r="N6" s="20">
-        <f ca="1">IF(C6 = TRUE(), 1+ N5, N5)</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="20">
-        <f ca="1">IF(B6 &lt;= 0, 1 + O5, O5)</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>42.96292325999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="20">
-        <f ca="1">IF(G7=1,INDIRECT(ADDRESS(ROW(B7)-H7,12))+B6-M7,B6-M7)</f>
-        <v>-662.10680000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-281.10680000000002</v>
       </c>
       <c r="C7" s="20" t="b">
-        <f ca="1">AND(B7&lt;$S$64,MOD(A7,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1681.1068</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F7" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2062.1068</v>
-      </c>
-      <c r="E7" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F7" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="J7" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>Receção: 36 unidades</v>
-      </c>
-      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.7381045053434373</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-17</v>
+      </c>
+      <c r="M7" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
+        <v>404.77670000000001</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54895172431780936</v>
-      </c>
-      <c r="L7" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="M7" s="20">
-        <f ca="1">421.7767 + L7</f>
-        <v>450.77670000000001</v>
-      </c>
-      <c r="N7" s="20">
-        <f ca="1">IF(C7 = TRUE(), 1+ N6, N6)</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="20">
-        <f ca="1">IF(B7 &lt;= 0, 1 + O6, O6)</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>281</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>9756.3434976799999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="20">
-        <f ca="1">IF(G8=1,INDIRECT(ADDRESS(ROW(B8)-H8,12))+B7-M8,B7-M8)</f>
-        <v>-1077.8834999999999</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>579.4466000000001</v>
       </c>
       <c r="C8" s="20" t="b">
-        <f ca="1">AND(B8&lt;$S$64,MOD(A8,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>820.5533999999999</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  820.553 unidades</v>
+      </c>
+      <c r="F8" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Receção: 1276.33 unidades</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2477.8834999999999</v>
-      </c>
-      <c r="E8" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="I8" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  2477,884 unidades</v>
-      </c>
-      <c r="F8" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="G8" s="20">
+        <v>9</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.38464732563209991</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-6</v>
+      </c>
+      <c r="M8" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K8" s="20">
+        <v>415.77670000000001</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O8" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22005613966255844</v>
-      </c>
-      <c r="L8" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6</v>
-      </c>
-      <c r="M8" s="20">
-        <f ca="1">421.7767 + L8</f>
-        <v>415.77670000000001</v>
-      </c>
-      <c r="N8" s="20">
-        <f ca="1">IF(C8 = TRUE(), 1+ N7, N7)</f>
-        <v>2</v>
-      </c>
-      <c r="O8" s="20">
-        <f ca="1">IF(B8 &lt;= 0, 1 + O7, O7)</f>
-        <v>3</v>
-      </c>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>901.29974884000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="20">
-        <f ca="1">IF(G9=1,INDIRECT(ADDRESS(ROW(B9)-H9,12))+B8-M9,B8-M9)</f>
-        <v>-1488.6601999999998</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>979.22329999999999</v>
       </c>
       <c r="C9" s="20" t="b">
-        <f ca="1">AND(B9&lt;$S$64,MOD(A9,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>420.77670000000001</v>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Receção: 820.553 unidades</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2888.6601999999998</v>
-      </c>
-      <c r="E9" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F9" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="J9" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>Receção: -6 unidades</v>
-      </c>
-      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.76880313166675063</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="M9" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <v>420.77670000000001</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
-      <c r="J9" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
+      <c r="O9" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74616426838364314</v>
-      </c>
-      <c r="L9" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-17</v>
-      </c>
-      <c r="M9" s="20">
-        <f ca="1">421.7767 + L9</f>
-        <v>404.77670000000001</v>
-      </c>
-      <c r="N9" s="20">
-        <f ca="1">IF(C9 = TRUE(), 1+ N8, N8)</f>
-        <v>2</v>
-      </c>
-      <c r="O9" s="20">
-        <f ca="1">IF(B9 &lt;= 0, 1 + O8, O8)</f>
-        <v>4</v>
-      </c>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>340.18217441999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="20">
-        <f ca="1">IF(G10=1,INDIRECT(ADDRESS(ROW(B10)-H10,12))+B9-M10,B9-M10)</f>
-        <v>-1917.4368999999997</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>542.44659999999999</v>
       </c>
       <c r="C10" s="20" t="b">
-        <f ca="1">AND(B10&lt;$S$64,MOD(A10,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D10" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>857.55340000000001</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  857.553 unidades</v>
+      </c>
+      <c r="F10" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3317.4368999999997</v>
-      </c>
-      <c r="E10" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  3317,437 unidades</v>
-      </c>
-      <c r="F10" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="J10" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="G10" s="20">
+        <v>11</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.50097653071354786</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="M10" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K10" s="20">
+        <v>436.77670000000001</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95415498075407523</v>
-      </c>
-      <c r="L10" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="M10" s="20">
-        <f ca="1">421.7767 + L10</f>
-        <v>428.77670000000001</v>
-      </c>
-      <c r="N10" s="20">
-        <f ca="1">IF(C10 = TRUE(), 1+ N9, N9)</f>
-        <v>3</v>
-      </c>
-      <c r="O10" s="20">
-        <f ca="1">IF(B10 &lt;= 0, 1 + O9, O9)</f>
-        <v>5</v>
-      </c>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>188.44594884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="20">
-        <f ca="1">IF(G11=1,INDIRECT(ADDRESS(ROW(B11)-H11,12))+B10-M11,B10-M11)</f>
-        <v>-2331.2135999999996</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>997.22329999999999</v>
       </c>
       <c r="C11" s="20" t="b">
-        <f ca="1">AND(B11&lt;$S$64,MOD(A11,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>402.77670000000001</v>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F11" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Receção: 857.553 unidades</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>3731.2135999999996</v>
-      </c>
-      <c r="E11" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F11" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="J11" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.76533150267481231</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-19</v>
+      </c>
+      <c r="M11" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
+        <v>402.77670000000001</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O11" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42473639728361712</v>
-      </c>
-      <c r="L11" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="M11" s="20">
-        <f ca="1">421.7767 + L11</f>
-        <v>413.77670000000001</v>
-      </c>
-      <c r="N11" s="20">
-        <f ca="1">IF(C11 = TRUE(), 1+ N10, N10)</f>
-        <v>3</v>
-      </c>
-      <c r="O11" s="20">
-        <f ca="1">IF(B11 &lt;= 0, 1 + O10, O10)</f>
-        <v>6</v>
-      </c>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>346.43537441999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="20">
-        <f ca="1">IF(G12=1,INDIRECT(ADDRESS(ROW(B12)-H12,12))+B11-M12,B11-M12)</f>
-        <v>-2766.9902999999995</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>579.44659999999999</v>
       </c>
       <c r="C12" s="20" t="b">
-        <f ca="1">AND(B12&lt;$S$64,MOD(A12,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D12" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>820.55340000000001</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  820.553 unidades</v>
+      </c>
+      <c r="F12" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4166.9902999999995</v>
-      </c>
-      <c r="E12" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  4166,99 unidades</v>
-      </c>
-      <c r="F12" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="J12" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>Receção: 7 unidades</v>
-      </c>
-      <c r="G12" s="20">
+        <v>13</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.2110632044987595E-2</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="M12" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I12" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K12" s="20">
+        <v>417.77670000000001</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6441377695386229</v>
-      </c>
-      <c r="L12" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="M12" s="20">
-        <f ca="1">421.7767 + L12</f>
-        <v>442.77670000000001</v>
-      </c>
-      <c r="N12" s="20">
-        <f ca="1">IF(C12 = TRUE(), 1+ N11, N11)</f>
-        <v>4</v>
-      </c>
-      <c r="O12" s="20">
-        <f ca="1">IF(B12 &lt;= 0, 1 + O11, O11)</f>
-        <v>7</v>
-      </c>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>201.29974883999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="20">
-        <f ca="1">IF(G13=1,INDIRECT(ADDRESS(ROW(B13)-H13,12))+B12-M13,B12-M13)</f>
-        <v>-3162.7669999999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>990.22329999999999</v>
       </c>
       <c r="C13" s="20" t="b">
-        <f ca="1">AND(B13&lt;$S$64,MOD(A13,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>409.77670000000001</v>
+      </c>
+      <c r="E13" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F13" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Receção: 820.553 unidades</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4562.7669999999998</v>
-      </c>
-      <c r="E13" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F13" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.40087964654532282</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-12</v>
+      </c>
+      <c r="M13" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
+        <v>409.77670000000001</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="O13" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.836450682298941E-2</v>
-      </c>
-      <c r="L13" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-26</v>
-      </c>
-      <c r="M13" s="20">
-        <f ca="1">421.7767 + L13</f>
-        <v>395.77670000000001</v>
-      </c>
-      <c r="N13" s="20">
-        <f ca="1">IF(C13 = TRUE(), 1+ N12, N12)</f>
-        <v>4</v>
-      </c>
-      <c r="O13" s="20">
-        <f ca="1">IF(B13 &lt;= 0, 1 + O12, O12)</f>
-        <v>8</v>
-      </c>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>344.00357442000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="20">
-        <f ca="1">IF(G14=1,INDIRECT(ADDRESS(ROW(B14)-H14,12))+B13-M14,B13-M14)</f>
-        <v>-3534.5436999999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>537.44659999999999</v>
       </c>
       <c r="C14" s="20" t="b">
-        <f ca="1">AND(B14&lt;$S$64,MOD(A14,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D14" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>862.55340000000001</v>
+      </c>
+      <c r="E14" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  862.553 unidades</v>
+      </c>
+      <c r="F14" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>4934.5436999999993</v>
-      </c>
-      <c r="E14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  4934,544 unidades</v>
-      </c>
-      <c r="F14" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="J14" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>Receção: 21 unidades</v>
-      </c>
-      <c r="G14" s="20">
+        <v>16</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.97217577979603509</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="M14" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I14" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K14" s="20">
+        <v>452.77670000000001</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="O14" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1097191705358638E-2</v>
-      </c>
-      <c r="L14" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-29</v>
-      </c>
-      <c r="M14" s="20">
-        <f ca="1">421.7767 + L14</f>
-        <v>392.77670000000001</v>
-      </c>
-      <c r="N14" s="20">
-        <f ca="1">IF(C14 = TRUE(), 1+ N13, N13)</f>
-        <v>5</v>
-      </c>
-      <c r="O14" s="20">
-        <f ca="1">IF(B14 &lt;= 0, 1 + O13, O13)</f>
-        <v>9</v>
-      </c>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>186.70894883999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="20">
-        <f ca="1">IF(G15=1,INDIRECT(ADDRESS(ROW(B15)-H15,12))+B14-M15,B14-M15)</f>
-        <v>-3979.3203999999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>131.66989999999998</v>
       </c>
       <c r="C15" s="20" t="b">
-        <f ca="1">AND(B15&lt;$S$64,MOD(A15,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1268.3301000000001</v>
+      </c>
+      <c r="E15" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F15" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5379.3203999999987</v>
-      </c>
-      <c r="E15" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F15" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>Receção: -29 unidades</v>
-      </c>
-      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.61265673549137789</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-16</v>
+      </c>
+      <c r="M15" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
+        <v>405.77670000000001</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="O15" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44381408376081422</v>
-      </c>
-      <c r="L15" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6</v>
-      </c>
-      <c r="M15" s="20">
-        <f ca="1">421.7767 + L15</f>
-        <v>415.77670000000001</v>
-      </c>
-      <c r="N15" s="20">
-        <f ca="1">IF(C15 = TRUE(), 1+ N14, N14)</f>
-        <v>5</v>
-      </c>
-      <c r="O15" s="20">
-        <f ca="1">IF(B15 &lt;= 0, 1 + O14, O14)</f>
-        <v>10</v>
-      </c>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>45.742123259999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="20">
-        <f ca="1">IF(G16=1,INDIRECT(ADDRESS(ROW(B16)-H16,12))+B15-M16,B15-M16)</f>
-        <v>-4432.097099999999</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>547.44659999999999</v>
       </c>
       <c r="C16" s="20" t="b">
-        <f ca="1">AND(B16&lt;$S$64,MOD(A16,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D16" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>852.55340000000001</v>
+      </c>
+      <c r="E16" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  852.553 unidades</v>
+      </c>
+      <c r="F16" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Receção: 862.553 unidades</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>5832.097099999999</v>
-      </c>
-      <c r="E16" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  5832,097 unidades</v>
-      </c>
-      <c r="F16" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="G16" s="20">
+        <v>17</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.28436775196480224</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="M16" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K16" s="20">
+        <v>446.77670000000001</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O16" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3398867191808392E-3</v>
-      </c>
-      <c r="L16" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="M16" s="20">
-        <f ca="1">421.7767 + L16</f>
-        <v>452.77670000000001</v>
-      </c>
-      <c r="N16" s="20">
-        <f ca="1">IF(C16 = TRUE(), 1+ N15, N15)</f>
-        <v>6</v>
-      </c>
-      <c r="O16" s="20">
-        <f ca="1">IF(B16 &lt;= 0, 1 + O15, O15)</f>
-        <v>11</v>
-      </c>
-      <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>190.18294883999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="20">
-        <f ca="1">IF(G17=1,INDIRECT(ADDRESS(ROW(B17)-H17,12))+B16-M17,B16-M17)</f>
-        <v>-4858.8737999999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1007.2233</v>
       </c>
       <c r="C17" s="20" t="b">
-        <f ca="1">AND(B17&lt;$S$64,MOD(A17,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>392.77670000000001</v>
+      </c>
+      <c r="E17" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Receção: 852.553 unidades</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6258.8737999999994</v>
-      </c>
-      <c r="E17" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F17" s="20" t="str">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>Receção: 31 unidades</v>
-      </c>
-      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.97498584734235005</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>-29</v>
+      </c>
+      <c r="M17" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="20">
+        <v>392.77670000000001</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="O17" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94021324125971906</v>
-      </c>
-      <c r="L17" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="M17" s="20">
-        <f ca="1">421.7767 + L17</f>
-        <v>457.77670000000001</v>
-      </c>
-      <c r="N17" s="20">
-        <f ca="1">IF(C17 = TRUE(), 1+ N16, N16)</f>
-        <v>6</v>
-      </c>
-      <c r="O17" s="20">
-        <f ca="1">IF(B17 &lt;= 0, 1 + O16, O16)</f>
-        <v>12</v>
-      </c>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>349.90937442000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="20">
-        <f ca="1">IF(G18=1,INDIRECT(ADDRESS(ROW(B18)-H18,12))+B17-M18,B17-M18)</f>
-        <v>-5264.6504999999997</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>568.44659999999999</v>
       </c>
       <c r="C18" s="20" t="b">
-        <f ca="1">AND(B18&lt;$S$64,MOD(A18,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D18" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>831.55340000000001</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  831.553 unidades</v>
+      </c>
+      <c r="F18" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>6664.6504999999997</v>
-      </c>
-      <c r="E18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  6664,651 unidades</v>
-      </c>
-      <c r="F18" s="20" t="str">
-        <f t="shared" ref="F18:F52" ca="1" si="9">IF(G18=1,CONCATENATE("Receção: ",ROUND(INDIRECT(ADDRESS(ROW(G18)-H18,12)),3), " unidades"),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G18" s="20">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.88480253068901593</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="M18" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K18" s="20">
+        <v>438.77670000000001</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="O18" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3444137667817464</v>
-      </c>
-      <c r="L18" s="20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="M18" s="20">
-        <f ca="1">421.7767 + L18</f>
-        <v>405.77670000000001</v>
-      </c>
-      <c r="N18" s="20">
-        <f ca="1">IF(C18 = TRUE(), 1+ N17, N17)</f>
-        <v>7</v>
-      </c>
-      <c r="O18" s="20">
-        <f ca="1">IF(B18 &lt;= 0, 1 + O17, O17)</f>
-        <v>13</v>
-      </c>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>197.47834884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="20">
-        <f ca="1">IF(G19=1,INDIRECT(ADDRESS(ROW(B19)-H19,12))+B18-M19,B18-M19)</f>
-        <v>-5817.9357999999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>20.161299999999983</v>
       </c>
       <c r="C19" s="20" t="b">
-        <f ca="1">AND(B19&lt;$S$64,MOD(A19,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7217.9357999999993</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1379.8387</v>
       </c>
       <c r="E19" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F19" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -16 unidades</v>
+        <v>-</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="J19" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K19" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.44869361005526287</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.84877805069769385</v>
       </c>
       <c r="L19" s="20">
         <f ca="1">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-24</v>
+        <v>-13</v>
       </c>
       <c r="M19" s="20">
         <f ca="1" xml:space="preserve"> 561.2853 + L19</f>
-        <v>537.28530000000001</v>
+        <v>548.28530000000001</v>
       </c>
       <c r="N19" s="20">
-        <f ca="1">IF(C19 = TRUE(), 1+ N18, N18)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>7</v>
       </c>
       <c r="O19" s="20">
-        <f ca="1">IF(B19 &lt;= 0, 1 + O18, O18)</f>
-        <v>14</v>
-      </c>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.0040356199999936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="20">
-        <f ca="1">IF(G20=1,INDIRECT(ADDRESS(ROW(B20)-H20,12))+B19-M20,B19-M20)</f>
-        <v>-6393.2210999999988</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>292.42939999999999</v>
       </c>
       <c r="C20" s="20" t="b">
-        <f ca="1">AND(B20&lt;$S$64,MOD(A20,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7793.2210999999988</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1107.5706</v>
       </c>
       <c r="E20" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  7793,221 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1107.571 unidades</v>
       </c>
       <c r="F20" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 831.553 unidades</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J20" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
       <c r="K20" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.32423658143653888</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" ref="L20:L30" ca="1" si="16">RANDBETWEEN(-36.6643,36.6643)</f>
+        <v>-2</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" ref="M20:M30" ca="1" si="17" xml:space="preserve"> 561.2853 + L20</f>
+        <v>559.28530000000001</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O20" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6873798894330179E-2</v>
-      </c>
-      <c r="L20" s="20">
-        <f t="shared" ref="L20:L30" ca="1" si="10">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>14</v>
-      </c>
-      <c r="M20" s="20">
-        <f t="shared" ref="M20:M30" ca="1" si="11" xml:space="preserve"> 561.2853 + L20</f>
-        <v>575.28530000000001</v>
-      </c>
-      <c r="N20" s="20">
-        <f ca="1">IF(C20 = TRUE(), 1+ N19, N19)</f>
-        <v>8</v>
-      </c>
-      <c r="O20" s="20">
-        <f ca="1">IF(B20 &lt;= 0, 1 + O19, O19)</f>
-        <v>15</v>
-      </c>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>101.58997355999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="20">
-        <f ca="1">IF(G21=1,INDIRECT(ADDRESS(ROW(B21)-H21,12))+B20-M21,B20-M21)</f>
-        <v>-6975.5063999999984</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>850.71469999999999</v>
       </c>
       <c r="C21" s="20" t="b">
-        <f ca="1">AND(B21&lt;$S$64,MOD(A21,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8375.5063999999984</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>549.28530000000001</v>
       </c>
       <c r="E21" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F21" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 14 unidades</v>
+        <v>Receção: 1107.571 unidades</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I21" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J21" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K21" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.33151658503934589</v>
+      </c>
+      <c r="L21" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>-12</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>549.28530000000001</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O21" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83000581815893626</v>
-      </c>
-      <c r="L21" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="M21" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>596.28530000000001</v>
-      </c>
-      <c r="N21" s="20">
-        <f ca="1">IF(C21 = TRUE(), 1+ N20, N20)</f>
-        <v>8</v>
-      </c>
-      <c r="O21" s="20">
-        <f ca="1">IF(B21 &lt;= 0, 1 + O20, O20)</f>
-        <v>16</v>
-      </c>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>295.53828677999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="20">
-        <f ca="1">IF(G22=1,INDIRECT(ADDRESS(ROW(B22)-H22,12))+B21-M22,B21-M22)</f>
-        <v>-7526.7916999999979</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>275.42939999999999</v>
       </c>
       <c r="C22" s="20" t="b">
-        <f ca="1">AND(B22&lt;$S$64,MOD(A22,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8926.7916999999979</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1124.5706</v>
       </c>
       <c r="E22" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  8926,792 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1124.571 unidades</v>
       </c>
       <c r="F22" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J22" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>23</v>
       </c>
       <c r="K22" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.39327498013561835</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>575.28530000000001</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48746183349857208</v>
-      </c>
-      <c r="L22" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>-10</v>
-      </c>
-      <c r="M22" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>551.28530000000001</v>
-      </c>
-      <c r="N22" s="20">
-        <f ca="1">IF(C22 = TRUE(), 1+ N21, N21)</f>
-        <v>9</v>
-      </c>
-      <c r="O22" s="20">
-        <f ca="1">IF(B22 &lt;= 0, 1 + O21, O21)</f>
-        <v>17</v>
-      </c>
-      <c r="P22" s="26"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>95.684173559999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="20">
-        <f ca="1">IF(G23=1,INDIRECT(ADDRESS(ROW(B23)-H23,12))+B22-M23,B22-M23)</f>
-        <v>-8082.0769999999975</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>831.71469999999999</v>
       </c>
       <c r="C23" s="20" t="b">
-        <f ca="1">AND(B23&lt;$S$64,MOD(A23,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9482.0769999999975</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>568.28530000000001</v>
       </c>
       <c r="E23" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F23" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -10 unidades</v>
+        <v>Receção: 1124.571 unidades</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I23" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J23" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K23" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.58616144465016351</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>568.28530000000001</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="O23" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54439620680157697</v>
-      </c>
-      <c r="L23" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>-16</v>
-      </c>
-      <c r="M23" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>545.28530000000001</v>
-      </c>
-      <c r="N23" s="20">
-        <f ca="1">IF(C23 = TRUE(), 1+ N22, N22)</f>
-        <v>9</v>
-      </c>
-      <c r="O23" s="20">
-        <f ca="1">IF(B23 &lt;= 0, 1 + O22, O22)</f>
-        <v>18</v>
-      </c>
-      <c r="P23" s="26"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>288.93768677999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="20">
-        <f ca="1">IF(G24=1,INDIRECT(ADDRESS(ROW(B24)-H24,12))+B23-M24,B23-M24)</f>
-        <v>-8648.362299999997</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>267.42939999999999</v>
       </c>
       <c r="C24" s="20" t="b">
-        <f ca="1">AND(B24&lt;$S$64,MOD(A24,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>10048.362299999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1132.5706</v>
       </c>
       <c r="E24" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  10048,362 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1132.571 unidades</v>
       </c>
       <c r="F24" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>26</v>
       </c>
       <c r="K24" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.95139458329440507</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>564.28530000000001</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="O24" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11857971438054526</v>
-      </c>
-      <c r="L24" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="M24" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>566.28530000000001</v>
-      </c>
-      <c r="N24" s="20">
-        <f ca="1">IF(C24 = TRUE(), 1+ N23, N23)</f>
-        <v>10</v>
-      </c>
-      <c r="O24" s="20">
-        <f ca="1">IF(B24 &lt;= 0, 1 + O23, O23)</f>
-        <v>19</v>
-      </c>
-      <c r="P24" s="26"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>92.904973559999988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="20">
-        <f ca="1">IF(G25=1,INDIRECT(ADDRESS(ROW(B25)-H25,12))+B24-M25,B24-M25)</f>
-        <v>-9233.6475999999966</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-326.85590000000002</v>
       </c>
       <c r="C25" s="20" t="b">
-        <f ca="1">AND(B25&lt;$S$64,MOD(A25,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>10633.647599999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1726.8559</v>
       </c>
       <c r="E25" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F25" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 5 unidades</v>
+        <v>-</v>
       </c>
       <c r="G25" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.37968593208802071</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>594.28530000000001</v>
+      </c>
+      <c r="N25" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-      <c r="J25" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.79076441467137148</v>
-      </c>
-      <c r="L25" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="M25" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>590.28530000000001</v>
-      </c>
-      <c r="N25" s="20">
-        <f ca="1">IF(C25 = TRUE(), 1+ N24, N24)</f>
-        <v>10</v>
-      </c>
-      <c r="O25" s="20">
-        <f ca="1">IF(B25 &lt;= 0, 1 + O24, O24)</f>
-        <v>20</v>
-      </c>
-      <c r="P25" s="26"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P25" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>327</v>
+      </c>
+      <c r="Q25" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>11004.45026034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="20">
-        <f ca="1">IF(G26=1,INDIRECT(ADDRESS(ROW(B26)-H26,12))+B25-M26,B25-M26)</f>
-        <v>-9761.9328999999962</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>266.42939999999999</v>
       </c>
       <c r="C26" s="20" t="b">
-        <f ca="1">AND(B26&lt;$S$64,MOD(A26,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D26" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>11161.932899999996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1133.5706</v>
       </c>
       <c r="E26" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  11161,933 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1133.571 unidades</v>
       </c>
       <c r="F26" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1132.571 unidades</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J26" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>28</v>
       </c>
       <c r="K26" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.97804311962882684</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>-22</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>539.28530000000001</v>
+      </c>
+      <c r="N26" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="O26" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9786491715918777</v>
-      </c>
-      <c r="L26" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>-33</v>
-      </c>
-      <c r="M26" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>528.28530000000001</v>
-      </c>
-      <c r="N26" s="20">
-        <f ca="1">IF(C26 = TRUE(), 1+ N25, N25)</f>
-        <v>11</v>
-      </c>
-      <c r="O26" s="20">
-        <f ca="1">IF(B26 &lt;= 0, 1 + O25, O25)</f>
-        <v>21</v>
-      </c>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="P26" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>92.557573559999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="20">
-        <f ca="1">IF(G27=1,INDIRECT(ADDRESS(ROW(B27)-H27,12))+B26-M27,B26-M27)</f>
-        <v>-10343.218199999996</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-328.85590000000002</v>
       </c>
       <c r="C27" s="20" t="b">
-        <f ca="1">AND(B27&lt;$S$64,MOD(A27,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>11743.218199999996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1728.8559</v>
       </c>
       <c r="E27" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F27" s="20" t="str">
@@ -2703,371 +2891,413 @@
         <v>-</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J27" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K27" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.20868894102134761</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>34</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>595.28530000000001</v>
+      </c>
+      <c r="N27" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="O27" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61113540139873324</v>
-      </c>
-      <c r="L27" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="M27" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>581.28530000000001</v>
-      </c>
-      <c r="N27" s="20">
-        <f ca="1">IF(C27 = TRUE(), 1+ N26, N26)</f>
-        <v>11</v>
-      </c>
-      <c r="O27" s="20">
-        <f ca="1">IF(B27 &lt;= 0, 1 + O26, O26)</f>
-        <v>22</v>
-      </c>
-      <c r="P27" s="26"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P27" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>329</v>
+      </c>
+      <c r="Q27" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>11071.75546034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="20">
-        <f ca="1">IF(G28=1,INDIRECT(ADDRESS(ROW(B28)-H28,12))+B27-M28,B27-M28)</f>
-        <v>-10950.503499999995</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>256.42939999999999</v>
       </c>
       <c r="C28" s="20" t="b">
-        <f ca="1">AND(B28&lt;$S$64,MOD(A28,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D28" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>12350.503499999995</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1143.5706</v>
       </c>
       <c r="E28" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  12350,504 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1143.571 unidades</v>
       </c>
       <c r="F28" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -33 unidades</v>
+        <v>Receção: 1133.571 unidades</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J28" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
       </c>
       <c r="K28" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.42570545871111032</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>-13</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>548.28530000000001</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="O28" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72326744106766527</v>
-      </c>
-      <c r="L28" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="M28" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>574.28530000000001</v>
-      </c>
-      <c r="N28" s="20">
-        <f ca="1">IF(C28 = TRUE(), 1+ N27, N27)</f>
-        <v>12</v>
-      </c>
-      <c r="O28" s="20">
-        <f ca="1">IF(B28 &lt;= 0, 1 + O27, O27)</f>
-        <v>23</v>
-      </c>
-      <c r="P28" s="26"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P28" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>89.083573559999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="20">
-        <f ca="1">IF(G29=1,INDIRECT(ADDRESS(ROW(B29)-H29,12))+B28-M29,B28-M29)</f>
-        <v>-11504.788799999995</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>806.71469999999999</v>
       </c>
       <c r="C29" s="20" t="b">
-        <f ca="1">AND(B29&lt;$S$64,MOD(A29,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>12904.788799999995</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>593.28530000000001</v>
       </c>
       <c r="E29" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F29" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1143.571 unidades</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K29" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.25526500058175672</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="M29" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>593.28530000000001</v>
+      </c>
+      <c r="N29" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="O29" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97407054415278516</v>
-      </c>
-      <c r="L29" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>-7</v>
-      </c>
-      <c r="M29" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>554.28530000000001</v>
-      </c>
-      <c r="N29" s="20">
-        <f ca="1">IF(C29 = TRUE(), 1+ N28, N28)</f>
-        <v>12</v>
-      </c>
-      <c r="O29" s="20">
-        <f ca="1">IF(B29 &lt;= 0, 1 + O28, O28)</f>
-        <v>24</v>
-      </c>
-      <c r="P29" s="26"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P29" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>280.25268677999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="20">
-        <f ca="1">IF(G30=1,INDIRECT(ADDRESS(ROW(B30)-H30,12))+B29-M30,B29-M30)</f>
-        <v>-12050.074099999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>224.42939999999999</v>
       </c>
       <c r="C30" s="20" t="b">
-        <f ca="1">AND(B30&lt;$S$64,MOD(A30,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D30" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>13450.074099999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1175.5706</v>
       </c>
       <c r="E30" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  13450,074 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1175.571 unidades</v>
       </c>
       <c r="F30" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 13 unidades</v>
+        <v>-</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>31</v>
       </c>
       <c r="K30" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.32879945207419603</v>
+      </c>
+      <c r="L30" s="20">
+        <f t="shared" ca="1" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="M30" s="20">
+        <f t="shared" ca="1" si="17"/>
+        <v>582.28530000000001</v>
+      </c>
+      <c r="N30" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="O30" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45520548722540644</v>
-      </c>
-      <c r="L30" s="20">
-        <f t="shared" ca="1" si="10"/>
-        <v>-3</v>
-      </c>
-      <c r="M30" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>558.28530000000001</v>
-      </c>
-      <c r="N30" s="20">
-        <f ca="1">IF(C30 = TRUE(), 1+ N29, N29)</f>
-        <v>13</v>
-      </c>
-      <c r="O30" s="20">
-        <f ca="1">IF(B30 &lt;= 0, 1 + O29, O29)</f>
-        <v>25</v>
-      </c>
-      <c r="P30" s="26"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P30" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>77.966773559999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="20">
-        <f ca="1">IF(G31=1,INDIRECT(ADDRESS(ROW(B31)-H31,12))+B30-M31,B30-M31)</f>
-        <v>-12394.112699999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1066.9614000000001</v>
       </c>
       <c r="C31" s="20" t="b">
-        <f ca="1">AND(B31&lt;$S$64,MOD(A31,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>13794.112699999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>333.03859999999986</v>
       </c>
       <c r="E31" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F31" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -3 unidades</v>
+        <v>Receção: 1175.571 unidades</v>
       </c>
       <c r="G31" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J31" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K31" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.77822691540538613</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.75954156079185409</v>
       </c>
       <c r="L31" s="20">
         <f ca="1">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="M31" s="20">
         <f ca="1" xml:space="preserve"> 347.0386 + L31</f>
-        <v>341.03859999999997</v>
+        <v>333.03859999999997</v>
       </c>
       <c r="N31" s="20">
-        <f ca="1">IF(C31 = TRUE(), 1+ N30, N30)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>13</v>
       </c>
       <c r="O31" s="20">
-        <f ca="1">IF(B31 &lt;= 0, 1 + O30, O30)</f>
-        <v>26</v>
-      </c>
-      <c r="P31" s="26"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P31" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>370.66239036000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="20">
-        <f ca="1">IF(G32=1,INDIRECT(ADDRESS(ROW(B32)-H32,12))+B31-M32,B31-M32)</f>
-        <v>-12708.151299999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>709.92280000000017</v>
       </c>
       <c r="C32" s="20" t="b">
-        <f ca="1">AND(B32&lt;$S$64,MOD(A32,$S$62)=0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>14108.151299999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>690.07719999999983</v>
       </c>
       <c r="E32" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  14108,151 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
       </c>
       <c r="F32" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="K32" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.79035651303557197</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" ref="L32:L52" ca="1" si="18">RANDBETWEEN(-37.1301,37.1301)</f>
+        <v>10</v>
+      </c>
+      <c r="M32" s="20">
+        <f t="shared" ref="M32:M52" ca="1" si="19" xml:space="preserve"> 347.0386 + L32</f>
+        <v>357.03859999999997</v>
+      </c>
+      <c r="N32" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="O32" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75973292534321379</v>
-      </c>
-      <c r="L32" s="20">
-        <f t="shared" ref="L32:L52" ca="1" si="12">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>-33</v>
-      </c>
-      <c r="M32" s="20">
-        <f t="shared" ref="M32:M52" ca="1" si="13" xml:space="preserve"> 347.0386 + L32</f>
-        <v>314.03859999999997</v>
-      </c>
-      <c r="N32" s="20">
-        <f ca="1">IF(C32 = TRUE(), 1+ N31, N31)</f>
-        <v>14</v>
-      </c>
-      <c r="O32" s="20">
-        <f ca="1">IF(B32 &lt;= 0, 1 + O31, O31)</f>
-        <v>27</v>
-      </c>
-      <c r="P32" s="26"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P32" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>246.62718072000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="20">
-        <f ca="1">IF(G33=1,INDIRECT(ADDRESS(ROW(B33)-H33,12))+B32-M33,B32-M33)</f>
-        <v>-13084.189899999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>372.88420000000019</v>
       </c>
       <c r="C33" s="20" t="b">
-        <f ca="1">AND(B33&lt;$S$64,MOD(A33,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>14484.189899999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1027.1157999999998</v>
       </c>
       <c r="E33" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F33" s="20" t="str">
@@ -3075,1222 +3305,1362 @@
         <v>-</v>
       </c>
       <c r="G33" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="J33" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K33" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.28121374003148814</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-10</v>
+      </c>
+      <c r="M33" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>337.03859999999997</v>
+      </c>
+      <c r="N33" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="O33" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6161398569153913</v>
-      </c>
-      <c r="L33" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>29</v>
-      </c>
-      <c r="M33" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>376.03859999999997</v>
-      </c>
-      <c r="N33" s="20">
-        <f ca="1">IF(C33 = TRUE(), 1+ N32, N32)</f>
-        <v>14</v>
-      </c>
-      <c r="O33" s="20">
-        <f ca="1">IF(B33 &lt;= 0, 1 + O32, O32)</f>
-        <v>28</v>
-      </c>
-      <c r="P33" s="26"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P33" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>129.53997108000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="20">
-        <f ca="1">IF(G34=1,INDIRECT(ADDRESS(ROW(B34)-H34,12))+B33-M34,B33-M34)</f>
-        <v>-13429.228499999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.8456000000002177</v>
       </c>
       <c r="C34" s="20" t="b">
-        <f ca="1">AND(B34&lt;$S$64,MOD(A34,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="D34" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>14829.228499999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1397.1543999999999</v>
       </c>
       <c r="E34" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  14829,229 unidades</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>Encomenda:  1397.154 unidades</v>
       </c>
       <c r="F34" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -33 unidades</v>
+        <v>-</v>
       </c>
       <c r="G34" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="J34" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>35</v>
       </c>
       <c r="K34" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.8240051696819979E-2</v>
+      </c>
+      <c r="L34" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="M34" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>370.03859999999997</v>
+      </c>
+      <c r="N34" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="O34" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.41513975201429287</v>
-      </c>
-      <c r="L34" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-35</v>
-      </c>
-      <c r="M34" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>312.03859999999997</v>
-      </c>
-      <c r="N34" s="20">
-        <f ca="1">IF(C34 = TRUE(), 1+ N33, N33)</f>
-        <v>15</v>
-      </c>
-      <c r="O34" s="20">
-        <f ca="1">IF(B34 &lt;= 0, 1 + O33, O33)</f>
-        <v>29</v>
-      </c>
-      <c r="P34" s="26"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P34" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.98856144000007562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="20">
-        <f ca="1">IF(G35=1,INDIRECT(ADDRESS(ROW(B35)-H35,12))+B34-M35,B34-M35)</f>
-        <v>-13803.267099999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1056.9614000000001</v>
       </c>
       <c r="C35" s="20" t="b">
-        <f ca="1">AND(B35&lt;$S$64,MOD(A35,$S$62)=0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>15203.267099999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>343.03859999999986</v>
       </c>
       <c r="E35" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
       <c r="F35" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -35 unidades</v>
+        <v>Receção: 1397.154 unidades</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="J35" s="20">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K35" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.62005579629575336</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-4</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>343.03859999999997</v>
+      </c>
+      <c r="N35" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="O35" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.90018178288829087</v>
-      </c>
-      <c r="L35" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="M35" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>339.03859999999997</v>
-      </c>
-      <c r="N35" s="20">
-        <f ca="1">IF(C35 = TRUE(), 1+ N34, N34)</f>
-        <v>15</v>
-      </c>
-      <c r="O35" s="20">
-        <f ca="1">IF(B35 &lt;= 0, 1 + O34, O34)</f>
-        <v>30</v>
-      </c>
-      <c r="P35" s="26"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="P35" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>367.18839036000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="20">
-        <f ca="1">IF(G36=1,INDIRECT(ADDRESS(ROW(B36)-H36,12))+B35-M36,B35-M36)</f>
-        <v>-14116.305699999994</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>742.92280000000017</v>
       </c>
       <c r="C36" s="20" t="b">
-        <f t="shared" ref="C36:C52" ca="1" si="14">AND(B36&lt;$S$64,MOD(A36,$S$62)=0)</f>
-        <v>1</v>
+        <f t="shared" ref="C36:C52" ca="1" si="20">AND(B36&lt;$T$64,MOD(A36,$T$62)=0)</f>
+        <v>0</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>15516.305699999994</v>
+        <f t="shared" ref="D36:D52" ca="1" si="21">$T$65 - B36</f>
+        <v>657.07719999999983</v>
       </c>
       <c r="E36" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  15516,306 unidades</v>
+        <f t="shared" ref="E36:E52" ca="1" si="22" xml:space="preserve"> IF(C36 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B36,3) &amp; " unidades", "-")</f>
+        <v>-</v>
       </c>
       <c r="F36" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" ref="I36:I52" ca="1" si="15">IF(K36&lt;=0.6,1,2)</f>
+        <f t="shared" ref="I36:I52" ca="1" si="23">IF(K36&lt;=0.6,1,2)</f>
         <v>1</v>
       </c>
       <c r="J36" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
       <c r="K36" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.49975679209654467</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12241064513888522</v>
       </c>
       <c r="L36" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-34</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>-33</v>
       </c>
       <c r="M36" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>314.03859999999997</v>
+      </c>
+      <c r="N36" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>313.03859999999997</v>
-      </c>
-      <c r="N36" s="20">
-        <f ca="1">IF(C36 = TRUE(), 1+ N35, N35)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O36" s="20">
-        <f ca="1">IF(B36 &lt;= 0, 1 + O35, O35)</f>
-        <v>31</v>
-      </c>
-      <c r="P36" s="26"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O36:O52" ca="1" si="24">IF(B36 &lt;= 0, 1 + O35, O35)</f>
+        <v>3</v>
+      </c>
+      <c r="P36" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="30">
+        <f t="shared" ca="1" si="15"/>
+        <v>258.09138072000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="20">
-        <f ca="1">IF(G37=1,INDIRECT(ADDRESS(ROW(B37)-H37,12))+B36-M37,B36-M37)</f>
-        <v>-14498.344299999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>399.88420000000019</v>
       </c>
       <c r="C37" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D37" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>15898.344299999993</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1000.1157999999998</v>
       </c>
       <c r="E37" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F37" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -34 unidades</v>
+        <v>-</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I37" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.50927347401263445</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-4</v>
+      </c>
+      <c r="M37" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>343.03859999999997</v>
+      </c>
+      <c r="N37" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="O37" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="P37" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="J37" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.92207546251396522</v>
-      </c>
-      <c r="L37" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M37" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>348.03859999999997</v>
-      </c>
-      <c r="N37" s="20">
-        <f ca="1">IF(C37 = TRUE(), 1+ N36, N36)</f>
-        <v>16</v>
-      </c>
-      <c r="O37" s="20">
-        <f ca="1">IF(B37 &lt;= 0, 1 + O36, O36)</f>
-        <v>32</v>
-      </c>
-      <c r="P37" s="26"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>138.91977108000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="20">
-        <f ca="1">IF(G38=1,INDIRECT(ADDRESS(ROW(B38)-H38,12))+B37-M38,B37-M38)</f>
-        <v>-14830.382899999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>40.845600000000218</v>
       </c>
       <c r="C38" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="D38" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>16230.382899999993</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1359.1543999999999</v>
       </c>
       <c r="E38" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  16230,383 unidades</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>Encomenda:  1359.154 unidades</v>
       </c>
       <c r="F38" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="J38" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="K38" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.97335088818005644</v>
+      </c>
+      <c r="L38" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>359.03859999999997</v>
+      </c>
+      <c r="N38" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O38" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="P38" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="K38" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.14032401442352727</v>
-      </c>
-      <c r="L38" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-15</v>
-      </c>
-      <c r="M38" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>332.03859999999997</v>
-      </c>
-      <c r="N38" s="20">
-        <f ca="1">IF(C38 = TRUE(), 1+ N37, N37)</f>
-        <v>17</v>
-      </c>
-      <c r="O38" s="20">
-        <f ca="1">IF(B38 &lt;= 0, 1 + O37, O37)</f>
-        <v>33</v>
-      </c>
-      <c r="P38" s="26"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+        <v>14.189761440000074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>37</v>
       </c>
       <c r="B39" s="20">
-        <f ca="1">IF(G39=1,INDIRECT(ADDRESS(ROW(B39)-H39,12))+B38-M39,B38-M39)</f>
-        <v>-15216.421499999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-327.19299999999976</v>
       </c>
       <c r="C39" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D39" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>16616.421499999993</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1727.1929999999998</v>
       </c>
       <c r="E39" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F39" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -15 unidades</v>
+        <v>-</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I39" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.14490577315214193</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="M39" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>368.03859999999997</v>
+      </c>
+      <c r="N39" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O39" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="P39" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>327</v>
+      </c>
+      <c r="Q39" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J39" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.52082447013645428</v>
-      </c>
-      <c r="L39" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="M39" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>371.03859999999997</v>
-      </c>
-      <c r="N39" s="20">
-        <f ca="1">IF(C39 = TRUE(), 1+ N38, N38)</f>
-        <v>17</v>
-      </c>
-      <c r="O39" s="20">
-        <f ca="1">IF(B39 &lt;= 0, 1 + O38, O38)</f>
-        <v>34</v>
-      </c>
-      <c r="P39" s="26"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>11004.3331518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="20">
-        <f ca="1">IF(G40=1,INDIRECT(ADDRESS(ROW(B40)-H40,12))+B39-M40,B39-M40)</f>
-        <v>-15562.460099999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>661.92280000000017</v>
       </c>
       <c r="C40" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
       <c r="D40" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>16962.460099999993</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>738.07719999999983</v>
       </c>
       <c r="E40" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  16962,46 unidades</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>-</v>
       </c>
       <c r="F40" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1359.154 unidades</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="H40" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="I40" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.40786160514930725</v>
+      </c>
+      <c r="L40" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>370.03859999999997</v>
+      </c>
+      <c r="N40" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O40" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="P40" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="K40" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.28855873876965665</v>
-      </c>
-      <c r="L40" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="M40" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>346.03859999999997</v>
-      </c>
-      <c r="N40" s="20">
-        <f ca="1">IF(C40 = TRUE(), 1+ N39, N39)</f>
-        <v>18</v>
-      </c>
-      <c r="O40" s="20">
-        <f ca="1">IF(B40 &lt;= 0, 1 + O39, O39)</f>
-        <v>35</v>
-      </c>
-      <c r="P40" s="26"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>229.95198072000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>39</v>
       </c>
       <c r="B41" s="20">
-        <f ca="1">IF(G41=1,INDIRECT(ADDRESS(ROW(B41)-H41,12))+B40-M41,B40-M41)</f>
-        <v>-15928.498699999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>318.88420000000019</v>
       </c>
       <c r="C41" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D41" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>17328.498699999993</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1081.1157999999998</v>
       </c>
       <c r="E41" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F41" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -1 unidades</v>
+        <v>-</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I41" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1506342206509248</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-4</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>343.03859999999997</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="P41" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.52710219766281141</v>
-      </c>
-      <c r="L41" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="M41" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>365.03859999999997</v>
-      </c>
-      <c r="N41" s="20">
-        <f ca="1">IF(C41 = TRUE(), 1+ N40, N40)</f>
-        <v>18</v>
-      </c>
-      <c r="O41" s="20">
-        <f ca="1">IF(B41 &lt;= 0, 1 + O40, O40)</f>
-        <v>36</v>
-      </c>
-      <c r="P41" s="26"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>110.78037108000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="20">
-        <f ca="1">IF(G42=1,INDIRECT(ADDRESS(ROW(B42)-H42,12))+B41-M42,B41-M42)</f>
-        <v>-16278.537299999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-32.154399999999782</v>
       </c>
       <c r="C42" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="D42" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>17678.537299999993</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1432.1543999999999</v>
       </c>
       <c r="E42" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  17678,537 unidades</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>Encomenda:  1432.154 unidades</v>
       </c>
       <c r="F42" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="K42" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.45568589455818476</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="M42" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>351.03859999999997</v>
+      </c>
+      <c r="N42" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P42" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="Q42" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="K42" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.22841075863176075</v>
-      </c>
-      <c r="L42" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="M42" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>350.03859999999997</v>
-      </c>
-      <c r="N42" s="20">
-        <f ca="1">IF(C42 = TRUE(), 1+ N41, N41)</f>
-        <v>19</v>
-      </c>
-      <c r="O42" s="20">
-        <f ca="1">IF(B42 &lt;= 0, 1 + O41, O41)</f>
-        <v>37</v>
-      </c>
-      <c r="P42" s="26"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1076.8295614400001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="20">
-        <f ca="1">IF(G43=1,INDIRECT(ADDRESS(ROW(B43)-H43,12))+B42-M43,B42-M43)</f>
-        <v>-16659.575899999993</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1089.9614000000001</v>
       </c>
       <c r="C43" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D43" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>18059.575899999993</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>310.03859999999986</v>
       </c>
       <c r="E43" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F43" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 3 unidades</v>
+        <v>Receção: 1432.154 unidades</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="H43" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I43" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.46203397943716551</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-37</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>310.03859999999997</v>
+      </c>
+      <c r="N43" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="O43" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P43" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J43" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.13702276311027706</v>
-      </c>
-      <c r="L43" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>37</v>
-      </c>
-      <c r="M43" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>384.03859999999997</v>
-      </c>
-      <c r="N43" s="20">
-        <f ca="1">IF(C43 = TRUE(), 1+ N42, N42)</f>
-        <v>19</v>
-      </c>
-      <c r="O43" s="20">
-        <f ca="1">IF(B43 &lt;= 0, 1 + O42, O42)</f>
-        <v>38</v>
-      </c>
-      <c r="P43" s="26"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>378.65259036000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>42</v>
       </c>
       <c r="B44" s="20">
-        <f ca="1">IF(G44=1,INDIRECT(ADDRESS(ROW(B44)-H44,12))+B43-M44,B43-M44)</f>
-        <v>-17037.614499999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>751.92280000000017</v>
       </c>
       <c r="C44" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
       <c r="D44" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>18437.614499999992</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>648.07719999999983</v>
       </c>
       <c r="E44" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  18437,615 unidades</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>-</v>
       </c>
       <c r="F44" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H44" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.41704912258422711</v>
+      </c>
+      <c r="L44" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-9</v>
+      </c>
+      <c r="M44" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>338.03859999999997</v>
+      </c>
+      <c r="N44" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="O44" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P44" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J44" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="K44" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.41766134502966423</v>
-      </c>
-      <c r="L44" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="M44" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>378.03859999999997</v>
-      </c>
-      <c r="N44" s="20">
-        <f ca="1">IF(C44 = TRUE(), 1+ N43, N43)</f>
-        <v>20</v>
-      </c>
-      <c r="O44" s="20">
-        <f ca="1">IF(B44 &lt;= 0, 1 + O43, O43)</f>
-        <v>39</v>
-      </c>
-      <c r="P44" s="26"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+        <v>261.21798072000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="20">
-        <f ca="1">IF(G45=1,INDIRECT(ADDRESS(ROW(B45)-H45,12))+B44-M45,B44-M45)</f>
-        <v>-17354.653099999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>421.88420000000019</v>
       </c>
       <c r="C45" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D45" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>18754.653099999992</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>978.11579999999981</v>
       </c>
       <c r="E45" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F45" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 31 unidades</v>
+        <v>-</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H45" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I45" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.93753864708541179</v>
+      </c>
+      <c r="L45" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-17</v>
+      </c>
+      <c r="M45" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>330.03859999999997</v>
+      </c>
+      <c r="N45" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="O45" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P45" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="J45" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.64162422056483559</v>
-      </c>
-      <c r="L45" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M45" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>348.03859999999997</v>
-      </c>
-      <c r="N45" s="20">
-        <f ca="1">IF(C45 = TRUE(), 1+ N44, N44)</f>
-        <v>20</v>
-      </c>
-      <c r="O45" s="20">
-        <f ca="1">IF(B45 &lt;= 0, 1 + O44, O44)</f>
-        <v>40</v>
-      </c>
-      <c r="P45" s="26"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+        <v>146.56257108000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="20">
-        <f ca="1">IF(G46=1,INDIRECT(ADDRESS(ROW(B46)-H46,12))+B45-M46,B45-M46)</f>
-        <v>-17726.691699999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>104.84560000000022</v>
       </c>
       <c r="C46" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="D46" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>19126.691699999992</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1295.1543999999999</v>
       </c>
       <c r="E46" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  19126,692 unidades</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>Encomenda:  1295.154 unidades</v>
       </c>
       <c r="F46" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H46" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="J46" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="K46" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.72064823486895591</v>
+      </c>
+      <c r="L46" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>-30</v>
+      </c>
+      <c r="M46" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>317.03859999999997</v>
+      </c>
+      <c r="N46" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="O46" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P46" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J46" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="K46" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.47275470921081753</v>
-      </c>
-      <c r="L46" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="M46" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>372.03859999999997</v>
-      </c>
-      <c r="N46" s="20">
-        <f ca="1">IF(C46 = TRUE(), 1+ N45, N45)</f>
-        <v>21</v>
-      </c>
-      <c r="O46" s="20">
-        <f ca="1">IF(B46 &lt;= 0, 1 + O45, O45)</f>
-        <v>41</v>
-      </c>
-      <c r="P46" s="26"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+        <v>36.423361440000072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>45</v>
       </c>
       <c r="B47" s="20">
-        <f ca="1">IF(G47=1,INDIRECT(ADDRESS(ROW(B47)-H47,12))+B46-M47,B46-M47)</f>
-        <v>-18025.730299999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-251.19299999999976</v>
       </c>
       <c r="C47" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D47" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>19425.730299999992</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1651.1929999999998</v>
       </c>
       <c r="E47" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F47" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 25 unidades</v>
+        <v>-</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I47" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="J47" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.90741521202468545</v>
+      </c>
+      <c r="L47" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="M47" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>356.03859999999997</v>
+      </c>
+      <c r="N47" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="O47" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="P47" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>251</v>
+      </c>
+      <c r="Q47" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J47" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.5286570111809874</v>
-      </c>
-      <c r="L47" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-23</v>
-      </c>
-      <c r="M47" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>324.03859999999997</v>
-      </c>
-      <c r="N47" s="20">
-        <f ca="1">IF(C47 = TRUE(), 1+ N46, N46)</f>
-        <v>21</v>
-      </c>
-      <c r="O47" s="20">
-        <f ca="1">IF(B47 &lt;= 0, 1 + O46, O46)</f>
-        <v>42</v>
-      </c>
-      <c r="P47" s="26"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8446.7355518000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="20">
-        <f ca="1">IF(G48=1,INDIRECT(ADDRESS(ROW(B48)-H48,12))+B47-M48,B47-M48)</f>
-        <v>-18379.768899999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>674.92280000000017</v>
       </c>
       <c r="C48" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
       <c r="D48" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>19779.768899999992</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>725.07719999999983</v>
       </c>
       <c r="E48" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  19779,769 unidades</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>-</v>
       </c>
       <c r="F48" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1295.154 unidades</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="H48" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="I48" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="J48" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.85203043479537044</v>
+      </c>
+      <c r="L48" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="M48" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>369.03859999999997</v>
+      </c>
+      <c r="N48" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="O48" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="P48" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J48" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="K48" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.3747776682799988E-2</v>
-      </c>
-      <c r="L48" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="M48" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>354.03859999999997</v>
-      </c>
-      <c r="N48" s="20">
-        <f ca="1">IF(C48 = TRUE(), 1+ N47, N47)</f>
-        <v>22</v>
-      </c>
-      <c r="O48" s="20">
-        <f ca="1">IF(B48 &lt;= 0, 1 + O47, O47)</f>
-        <v>43</v>
-      </c>
-      <c r="P48" s="26"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>234.46818072000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="20">
-        <f ca="1">IF(G49=1,INDIRECT(ADDRESS(ROW(B49)-H49,12))+B48-M49,B48-M49)</f>
-        <v>-18741.807499999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>296.88420000000019</v>
       </c>
       <c r="C49" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D49" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>20141.807499999992</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1103.1157999999998</v>
       </c>
       <c r="E49" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F49" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 7 unidades</v>
+        <v>-</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="H49" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="I49" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J49" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47221757778746132</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>31</v>
+      </c>
+      <c r="M49" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>378.03859999999997</v>
+      </c>
+      <c r="N49" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="O49" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="P49" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J49" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.49186306287820392</v>
-      </c>
-      <c r="L49" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>22</v>
-      </c>
-      <c r="M49" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>369.03859999999997</v>
-      </c>
-      <c r="N49" s="20">
-        <f ca="1">IF(C49 = TRUE(), 1+ N48, N48)</f>
-        <v>22</v>
-      </c>
-      <c r="O49" s="20">
-        <f ca="1">IF(B49 &lt;= 0, 1 + O48, O48)</f>
-        <v>44</v>
-      </c>
-      <c r="P49" s="26"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>103.13757108000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>48</v>
       </c>
       <c r="B50" s="20">
-        <f ca="1">IF(G50=1,INDIRECT(ADDRESS(ROW(B50)-H50,12))+B49-M50,B49-M50)</f>
-        <v>-19085.846099999992</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-85.154399999999782</v>
       </c>
       <c r="C50" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="D50" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>20485.846099999992</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1485.1543999999999</v>
       </c>
       <c r="E50" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  20485,846 unidades</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>Encomenda:  1485.154 unidades</v>
       </c>
       <c r="F50" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>-</v>
       </c>
       <c r="G50" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H50" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I50" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.12199445775131146</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>35</v>
+      </c>
+      <c r="M50" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>382.03859999999997</v>
+      </c>
+      <c r="N50" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="O50" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="P50" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="Q50" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J50" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="K50" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.21935165399848022</v>
-      </c>
-      <c r="L50" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="M50" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>344.03859999999997</v>
-      </c>
-      <c r="N50" s="20">
-        <f ca="1">IF(C50 = TRUE(), 1+ N49, N49)</f>
-        <v>23</v>
-      </c>
-      <c r="O50" s="20">
-        <f ca="1">IF(B50 &lt;= 0, 1 + O49, O49)</f>
-        <v>45</v>
-      </c>
-      <c r="P50" s="26"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2860.4173614400001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>49</v>
       </c>
       <c r="B51" s="20">
-        <f ca="1">IF(G51=1,INDIRECT(ADDRESS(ROW(B51)-H51,12))+B50-M51,B50-M51)</f>
-        <v>-19399.884699999991</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1045.9614000000001</v>
       </c>
       <c r="C51" s="20" t="b">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="D51" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>20799.884699999991</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>354.03859999999986</v>
       </c>
       <c r="E51" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="22"/>
         <v>-</v>
       </c>
       <c r="F51" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: -3 unidades</v>
+        <v>Receção: 1485.154 unidades</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="H51" s="20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I51" s="20">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="J51" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.23132409129048426</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" ca="1" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="M51" s="20">
+        <f t="shared" ca="1" si="19"/>
+        <v>354.03859999999997</v>
+      </c>
+      <c r="N51" s="20">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="O51" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="P51" s="30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J51" s="20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.37000271594410217</v>
-      </c>
-      <c r="L51" s="20">
-        <f t="shared" ca="1" si="12"/>
-        <v>-36</v>
-      </c>
-      <c r="M51" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>311.03859999999997</v>
-      </c>
-      <c r="N51" s="20">
-        <f ca="1">IF(C51 = TRUE(), 1+ N50, N50)</f>
-        <v>23</v>
-      </c>
-      <c r="O51" s="20">
-        <f ca="1">IF(B51 &lt;= 0, 1 + O50, O50)</f>
-        <v>46</v>
-      </c>
-      <c r="P51" s="26"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>363.36699036000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>50</v>
       </c>
       <c r="B52" s="20">
-        <f ca="1">IF(G52=1,INDIRECT(ADDRESS(ROW(B52)-H52,12))+B51-M52,B51-M52)</f>
-        <v>-19736.923299999991</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>726.92280000000017</v>
       </c>
       <c r="C52" s="21" t="b">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="20">
+        <f t="shared" ca="1" si="21"/>
+        <v>673.07719999999983</v>
+      </c>
+      <c r="E52" s="20" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="F52" s="20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="21">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="J52" s="21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="21">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.7895321715293333</v>
+      </c>
+      <c r="L52" s="21">
+        <f t="shared" ca="1" si="18"/>
+        <v>-28</v>
+      </c>
+      <c r="M52" s="21">
+        <f t="shared" ca="1" si="19"/>
+        <v>319.03859999999997</v>
+      </c>
+      <c r="N52" s="21">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="O52" s="20">
+        <f t="shared" ca="1" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="P52" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="D52" s="20">
-        <f t="shared" ca="1" si="3"/>
-        <v>21136.923299999991</v>
-      </c>
-      <c r="E52" s="20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Encomenda:  21136,923 unidades</v>
-      </c>
-      <c r="F52" s="21" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="G52" s="21">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J52" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="K52" s="21">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.3671706021373321</v>
-      </c>
-      <c r="L52" s="21">
-        <f t="shared" ca="1" si="12"/>
-        <v>-10</v>
-      </c>
-      <c r="M52" s="21">
-        <f t="shared" ca="1" si="13"/>
-        <v>337.03859999999997</v>
-      </c>
-      <c r="N52" s="21">
-        <f ca="1">IF(C52 = TRUE(), 1+ N51, N51)</f>
-        <v>24</v>
-      </c>
-      <c r="O52" s="20">
-        <f ca="1">IF(B52 &lt;= 0, 1 + O51, O51)</f>
-        <v>47</v>
-      </c>
-      <c r="P52" s="26"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>252.53298072000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>35</v>
       </c>
@@ -4327,19 +4697,26 @@
       </c>
       <c r="M53" s="18">
         <f ca="1">SUM(M4:M52)</f>
-        <v>20711.923299999995</v>
+        <v>20780.923299999995</v>
       </c>
       <c r="N53" s="18">
         <f ca="1" xml:space="preserve"> N52</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O53" s="18">
         <f ca="1" xml:space="preserve"> O52</f>
-        <v>47</v>
-      </c>
-      <c r="P53" s="27"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="P53" s="18">
+        <f ca="1">SUM(P4:P52)</f>
+        <v>1632</v>
+      </c>
+      <c r="Q53" s="18">
+        <f ca="1">SUM(Q4:Q52)</f>
+        <v>64608.303528139993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4351,7 +4728,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -4364,24 +4741,24 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="R55" s="4" t="s">
+      <c r="S55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <f xml:space="preserve"> 0.18/50</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="T55" s="5"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="29" t="s">
-        <v>47</v>
+      <c r="E56" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -4389,26 +4766,26 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="12"/>
-      <c r="R56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S56" s="4">
+      <c r="S56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T56" s="4">
         <v>96.5</v>
       </c>
-      <c r="T56" s="4" t="s">
+      <c r="U56" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="30">
+      <c r="E57" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="27">
         <f ca="1">AVERAGE(B3:B52)</f>
-        <v>-9903.9331879999936</v>
+        <v>469.52582200000018</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -4416,26 +4793,26 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
-      <c r="R57" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S57" s="4">
+      <c r="S57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" s="4">
         <v>120</v>
       </c>
-      <c r="T57" s="4" t="s">
+      <c r="U57" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="30">
+      <c r="E58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="27">
         <f ca="1">N53</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -4443,20 +4820,20 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="6"/>
       <c r="T58" s="5"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58" s="5"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="30">
+      <c r="E59" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="27">
         <f ca="1">O53</f>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -4464,27 +4841,27 @@
       <c r="J59" s="13"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
-      <c r="R59" s="4" t="s">
+      <c r="S59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="4">
-        <f xml:space="preserve"> S55 * S56</f>
+      <c r="T59" s="4">
+        <f xml:space="preserve"> T55 * T56</f>
         <v>0.34739999999999999</v>
       </c>
-      <c r="T59" s="4" t="s">
+      <c r="U59" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="30">
+      <c r="E60" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="27">
         <f ca="1">M53</f>
-        <v>20711.923299999995</v>
+        <v>20780.923299999995</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -4492,27 +4869,27 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
-      <c r="R60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <f xml:space="preserve"> 20 + 2*7</f>
         <v>34</v>
       </c>
-      <c r="T60" s="4" t="s">
+      <c r="U60" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="30">
-        <f ca="1">F57*S59</f>
-        <v>-3440.6263895111974</v>
+      <c r="E61" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="27">
+        <f ca="1">F57*T59</f>
+        <v>163.11327056280007</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -4520,26 +4897,26 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
-      <c r="R61" s="4" t="s">
+      <c r="S61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <v>900</v>
       </c>
-      <c r="T61" s="4" t="s">
+      <c r="U61" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="30">
-        <f ca="1">F60 * (S57-S56)</f>
-        <v>486730.19754999987</v>
+      <c r="E62" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="27">
+        <f ca="1">F60 * (T57-T56)</f>
+        <v>488351.69754999987</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -4547,20 +4924,25 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
-      <c r="R62" s="4" t="s">
+      <c r="S62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <v>2</v>
       </c>
-      <c r="T62" s="5"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62" s="5"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
+      <c r="E63" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="32">
+        <f ca="1">F62-Q53</f>
+        <v>423743.39402185986</v>
+      </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -4568,15 +4950,15 @@
       <c r="K63" s="11"/>
       <c r="L63" s="12"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R64" s="9" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S64" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S64" s="2">
+      <c r="T64" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -4587,14 +4969,14 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="2"/>
-      <c r="R65" s="9" t="s">
+      <c r="S65" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S65" s="9">
+      <c r="T65" s="9">
         <v>1400</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -4605,12 +4987,12 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="R68" s="10" t="s">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S68" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4620,11 +5002,11 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
-      <c r="R69" s="10" t="s">
+      <c r="S69" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -4634,11 +5016,11 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
-      <c r="R70" s="10" t="s">
+      <c r="S70" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -4649,7 +5031,7 @@
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>

--- a/Excel/MEIO_TP.xlsx
+++ b/Excel/MEIO_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisb\Desktop\MEIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6330FDC1-E8E9-4E60-991B-CB4630F32442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ECB269-CF2A-429F-816E-11D5090987DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>b:</t>
   </si>
@@ -205,6 +205,66 @@
   </si>
   <si>
     <t>Balanço Total</t>
+  </si>
+  <si>
+    <t>(s,S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Balanço</t>
+  </si>
+  <si>
+    <t>(600 , 1400)</t>
+  </si>
+  <si>
+    <t>(650 , 1450)</t>
+  </si>
+  <si>
+    <t>(700 , 1500)</t>
+  </si>
+  <si>
+    <t>(750 , 1550)</t>
+  </si>
+  <si>
+    <t>(800 , 1600)</t>
+  </si>
+  <si>
+    <t>(850 , 1650)</t>
+  </si>
+  <si>
+    <t>(900 , 1700)</t>
+  </si>
+  <si>
+    <t>(950 , 1750)</t>
+  </si>
+  <si>
+    <t>(1000 , 1800)</t>
+  </si>
+  <si>
+    <t>(1050 , 1850)</t>
+  </si>
+  <si>
+    <t>(1100 , 1900)</t>
+  </si>
+  <si>
+    <t>(1150 , 1950)</t>
+  </si>
+  <si>
+    <t>(1200 , 2000)</t>
+  </si>
+  <si>
+    <t>(1250 , 2050)</t>
+  </si>
+  <si>
+    <t>(1300 , 2100)</t>
+  </si>
+  <si>
+    <t>(1350 , 2150)</t>
+  </si>
+  <si>
+    <t>(1400 , 2200)</t>
+  </si>
+  <si>
+    <t>(1450 , 2250)</t>
   </si>
 </sst>
 </file>
@@ -369,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -455,6 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,6 +531,1139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7651651939933565E-2"/>
+          <c:y val="0.10305349250941384"/>
+          <c:w val="0.93185804495483759"/>
+          <c:h val="0.82549386509927425"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Balanço</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$4:$T$21</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>(600 , 1400)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(650 , 1450)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(700 , 1500)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(750 , 1550)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(800 , 1600)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(850 , 1650)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(900 , 1700)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(950 , 1750)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(1000 , 1800)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(1050 , 1850)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(1100 , 1900)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(1150 , 1950)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(1200 , 2000)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(1250 , 2050)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(1300 , 2100)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(1350 , 2150)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>(1400 , 2200)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>(1450 , 2250)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$4:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>400023.84840000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423600.4203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444797.37800000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433044.79790000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>464168.56099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>460457.05849999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>463810.9216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470317.58439999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>465034.71340000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>462675.34169999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>461914.00439999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>465145.51939999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>465571.90539999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>466715.65779999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>466729.6936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>462431.47960000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>458278.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>460247.05180000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B756-4B5F-B315-DEC7FF8D27AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="524942560"/>
+        <c:axId val="524938952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="524942560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>(s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> ,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t> S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50093385052109696"/>
+              <c:y val="0.97117818230386022"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524938952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="524938952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Balanço</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0722319692363295E-3"/>
+              <c:y val="0.39571478280430067"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524942560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" descr="(s,S)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939776C6-6D5D-4514-9FD9-2D036A1996A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH39" sqref="AH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1154,9 +2348,11 @@
     <col min="15" max="16" width="17.69921875" customWidth="1"/>
     <col min="17" max="17" width="21.69921875" customWidth="1"/>
     <col min="19" max="19" width="32.5" customWidth="1"/>
+    <col min="20" max="20" width="11.796875" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
@@ -1209,7 +2405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1232,13 +2428,13 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="19">
         <f xml:space="preserve"> T65</f>
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>30</v>
@@ -1279,14 +2475,20 @@
       <c r="Q3" s="19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="20">
         <f ca="1">IF(G4=1,INDIRECT(ADDRESS(ROW(B4)-H4,4))+B3-M4,B3-M4)</f>
-        <v>978.22329999999999</v>
+        <v>1890.2233000000001</v>
       </c>
       <c r="C4" s="20" t="b">
         <f t="shared" ref="C4:C35" ca="1" si="0">AND(B4&lt;$T$64,MOD(A4,$T$62)=0)</f>
@@ -1294,7 +2496,7 @@
       </c>
       <c r="D4" s="20">
         <f t="shared" ref="D4:D35" ca="1" si="1">$T$65 - B4</f>
-        <v>421.77670000000001</v>
+        <v>409.77669999999989</v>
       </c>
       <c r="E4" s="20" t="str">
         <f t="shared" ref="E4:E35" ca="1" si="2" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B4,3) &amp; " unidades", "-")</f>
@@ -1322,15 +2524,15 @@
       </c>
       <c r="K4" s="20">
         <f ca="1">RAND()</f>
-        <v>0.98399721038675358</v>
+        <v>0.85619682760032789</v>
       </c>
       <c r="L4" s="20">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="M4" s="20">
         <f t="shared" ref="M4:M18" ca="1" si="6">421.7767 + L4</f>
-        <v>421.77670000000001</v>
+        <v>409.77670000000001</v>
       </c>
       <c r="N4" s="20">
         <v>0</v>
@@ -1345,16 +2547,22 @@
       </c>
       <c r="Q4" s="30">
         <f ca="1">$T$59*B4+$T$60*P4+T61*(1/$T$62)</f>
-        <v>789.83477442000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1106.66357442</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4">
+        <v>400023.84840000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="20">
         <f t="shared" ref="B5:B52" ca="1" si="8">IF(G5=1,INDIRECT(ADDRESS(ROW(B5)-H5,4))+B4-M5,B4-M5)</f>
-        <v>567.44659999999999</v>
+        <v>1466.4466000000002</v>
       </c>
       <c r="C5" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1362,7 +2570,7 @@
       </c>
       <c r="D5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>832.55340000000001</v>
+        <v>833.55339999999978</v>
       </c>
       <c r="E5" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1390,15 +2598,15 @@
       </c>
       <c r="K5" s="20">
         <f t="shared" ref="K5:K52" ca="1" si="11">RAND()</f>
-        <v>0.99188577548280676</v>
+        <v>0.97930549973989733</v>
       </c>
       <c r="L5" s="20">
         <f t="shared" ref="L5:L18" ca="1" si="12" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>410.77670000000001</v>
+        <v>423.77670000000001</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" ref="N5:N52" ca="1" si="13">IF(C5 = TRUE(), 1+ N4, N4)</f>
@@ -1414,16 +2622,22 @@
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5:Q52" ca="1" si="15">$T$59*B5+$T$60*P5+T62*(1/$T$62)</f>
-        <v>198.13094884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>510.44354884000006</v>
+      </c>
+      <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5">
+        <v>423600.4203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>123.66989999999998</v>
+        <v>1051.6699000000003</v>
       </c>
       <c r="C6" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1431,11 +2645,11 @@
       </c>
       <c r="D6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1276.3301000000001</v>
+        <v>1248.3300999999997</v>
       </c>
       <c r="E6" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1276.33 unidades</v>
+        <v>Encomenda:  1248.33 unidades</v>
       </c>
       <c r="F6" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1459,15 +2673,15 @@
       </c>
       <c r="K6" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71478641077900928</v>
+        <v>0.65760540991671512</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>-7</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>443.77670000000001</v>
+        <v>414.77670000000001</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1483,16 +2697,22 @@
       </c>
       <c r="Q6" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>42.96292325999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>365.35012326000009</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6">
+        <v>444797.37800000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-281.10680000000002</v>
+        <v>624.89320000000032</v>
       </c>
       <c r="C7" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1500,7 +2720,7 @@
       </c>
       <c r="D7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1681.1068</v>
+        <v>1675.1067999999996</v>
       </c>
       <c r="E7" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1528,15 +2748,15 @@
       </c>
       <c r="K7" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7381045053434373</v>
+        <v>0.75163252885439369</v>
       </c>
       <c r="L7" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>404.77670000000001</v>
+        <v>426.77670000000001</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1544,24 +2764,30 @@
       </c>
       <c r="O7" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>9756.3434976799999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>967.08789768000008</v>
+      </c>
+      <c r="T7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7">
+        <v>433044.79790000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>579.4466000000001</v>
+        <v>1442.4466000000002</v>
       </c>
       <c r="C8" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1569,15 +2795,15 @@
       </c>
       <c r="D8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>820.5533999999999</v>
+        <v>857.55339999999978</v>
       </c>
       <c r="E8" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  820.553 unidades</v>
+        <v>Encomenda:  857.553 unidades</v>
       </c>
       <c r="F8" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1276.33 unidades</v>
+        <v>Receção: 1248.33 unidades</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -1597,15 +2823,15 @@
       </c>
       <c r="K8" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38464732563209991</v>
+        <v>0.35398615323218874</v>
       </c>
       <c r="L8" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="M8" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>415.77670000000001</v>
+        <v>430.77670000000001</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1613,7 +2839,7 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -1621,16 +2847,22 @@
       </c>
       <c r="Q8" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>901.29974884000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1651.1059488400001</v>
+      </c>
+      <c r="T8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8">
+        <v>464168.56099999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>979.22329999999999</v>
+        <v>1866.2233000000001</v>
       </c>
       <c r="C9" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1638,7 +2870,7 @@
       </c>
       <c r="D9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>420.77670000000001</v>
+        <v>433.77669999999989</v>
       </c>
       <c r="E9" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1646,7 +2878,7 @@
       </c>
       <c r="F9" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 820.553 unidades</v>
+        <v>Receção: 857.553 unidades</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -1666,15 +2898,15 @@
       </c>
       <c r="K9" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.76880313166675063</v>
+        <v>0.73444159015854493</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="M9" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>420.77670000000001</v>
+        <v>433.77670000000001</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1682,7 +2914,7 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -1690,16 +2922,22 @@
       </c>
       <c r="Q9" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>340.18217441999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>648.32597441999997</v>
+      </c>
+      <c r="T9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9">
+        <v>460457.05849999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>542.44659999999999</v>
+        <v>1413.4466000000002</v>
       </c>
       <c r="C10" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1707,11 +2945,11 @@
       </c>
       <c r="D10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>857.55340000000001</v>
+        <v>886.55339999999978</v>
       </c>
       <c r="E10" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  857.553 unidades</v>
+        <v>Encomenda:  886.553 unidades</v>
       </c>
       <c r="F10" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -1727,23 +2965,23 @@
       </c>
       <c r="I10" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.50097653071354786</v>
+        <v>0.67074084678192281</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M10" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>436.77670000000001</v>
+        <v>452.77670000000001</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1751,7 +2989,7 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -1759,16 +2997,22 @@
       </c>
       <c r="Q10" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>188.44594884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>491.03134884000008</v>
+      </c>
+      <c r="T10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10">
+        <v>463810.9216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>997.22329999999999</v>
+        <v>973.66990000000021</v>
       </c>
       <c r="C11" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1776,7 +3020,7 @@
       </c>
       <c r="D11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>402.77670000000001</v>
+        <v>1326.3300999999997</v>
       </c>
       <c r="E11" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1784,19 +3028,19 @@
       </c>
       <c r="F11" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 857.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -1804,15 +3048,15 @@
       </c>
       <c r="K11" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.76533150267481231</v>
+        <v>1.1402447487880996E-2</v>
       </c>
       <c r="L11" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>402.77670000000001</v>
+        <v>439.77670000000001</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1820,7 +3064,7 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -1828,16 +3072,22 @@
       </c>
       <c r="Q11" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>346.43537441999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>338.25292326000005</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11">
+        <v>470317.58439999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>579.44659999999999</v>
+        <v>1428.4466000000002</v>
       </c>
       <c r="C12" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1845,43 +3095,43 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>820.55340000000001</v>
+        <v>871.55339999999978</v>
       </c>
       <c r="E12" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  820.553 unidades</v>
+        <v>Encomenda:  871.553 unidades</v>
       </c>
       <c r="F12" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 886.553 unidades</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>9.2110632044987595E-2</v>
+        <v>0.99439359356037038</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>417.77670000000001</v>
+        <v>431.77670000000001</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1889,7 +3139,7 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -1897,16 +3147,22 @@
       </c>
       <c r="Q12" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>201.29974883999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>496.24234884000003</v>
+      </c>
+      <c r="T12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U12">
+        <v>465034.71340000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>990.22329999999999</v>
+        <v>1002.6699000000002</v>
       </c>
       <c r="C13" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1914,7 +3170,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>409.77670000000001</v>
+        <v>1297.3300999999997</v>
       </c>
       <c r="E13" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1922,19 +3178,19 @@
       </c>
       <c r="F13" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 820.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -1942,15 +3198,15 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.40087964654532282</v>
+        <v>0.85868601806106448</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-12</v>
+        <v>4</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>409.77670000000001</v>
+        <v>425.77670000000001</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -1958,7 +3214,7 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -1966,16 +3222,22 @@
       </c>
       <c r="Q13" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>344.00357442000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>348.32752326000008</v>
+      </c>
+      <c r="T13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13">
+        <v>462675.34169999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>537.44659999999999</v>
+        <v>1478.4466000000002</v>
       </c>
       <c r="C14" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -1983,23 +3245,23 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>862.55340000000001</v>
+        <v>821.55339999999978</v>
       </c>
       <c r="E14" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  862.553 unidades</v>
+        <v>Encomenda:  821.553 unidades</v>
       </c>
       <c r="F14" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 871.553 unidades</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -2011,15 +3273,15 @@
       </c>
       <c r="K14" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97217577979603509</v>
+        <v>0.78651110524317536</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>-26</v>
       </c>
       <c r="M14" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>452.77670000000001</v>
+        <v>395.77670000000001</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2027,7 +3289,7 @@
       </c>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2035,16 +3297,22 @@
       </c>
       <c r="Q14" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>186.70894883999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>513.6123488400001</v>
+      </c>
+      <c r="T14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14">
+        <v>461914.00439999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>131.66989999999998</v>
+        <v>1021.6699000000002</v>
       </c>
       <c r="C15" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2052,7 +3320,7 @@
       </c>
       <c r="D15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1268.3301000000001</v>
+        <v>1278.3300999999997</v>
       </c>
       <c r="E15" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2080,15 +3348,15 @@
       </c>
       <c r="K15" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61265673549137789</v>
+        <v>0.90198003071390287</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-16</v>
+        <v>35</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>405.77670000000001</v>
+        <v>456.77670000000001</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2096,7 +3364,7 @@
       </c>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2104,16 +3372,22 @@
       </c>
       <c r="Q15" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>45.742123259999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>354.92812326000006</v>
+      </c>
+      <c r="T15" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15">
+        <v>465145.51939999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>547.44659999999999</v>
+        <v>1440.4466000000002</v>
       </c>
       <c r="C16" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2121,15 +3395,15 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>852.55340000000001</v>
+        <v>859.55339999999978</v>
       </c>
       <c r="E16" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  852.553 unidades</v>
+        <v>Encomenda:  859.553 unidades</v>
       </c>
       <c r="F16" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 862.553 unidades</v>
+        <v>Receção: 821.553 unidades</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -2149,15 +3423,15 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28436775196480224</v>
+        <v>2.2335421100361574E-2</v>
       </c>
       <c r="L16" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>-19</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>446.77670000000001</v>
+        <v>402.77670000000001</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2165,7 +3439,7 @@
       </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2173,16 +3447,22 @@
       </c>
       <c r="Q16" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>190.18294883999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>500.41114884000007</v>
+      </c>
+      <c r="T16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16">
+        <v>465571.90539999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1007.2233</v>
+        <v>1845.2233000000001</v>
       </c>
       <c r="C17" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2190,7 +3470,7 @@
       </c>
       <c r="D17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>392.77670000000001</v>
+        <v>454.77669999999989</v>
       </c>
       <c r="E17" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2198,7 +3478,7 @@
       </c>
       <c r="F17" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 852.553 unidades</v>
+        <v>Receção: 859.553 unidades</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -2218,15 +3498,15 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97498584734235005</v>
+        <v>0.93935857571986336</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-29</v>
+        <v>33</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>392.77670000000001</v>
+        <v>454.77670000000001</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2234,7 +3514,7 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2242,16 +3522,22 @@
       </c>
       <c r="Q17" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>349.90937442000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>641.03057441999999</v>
+      </c>
+      <c r="T17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17">
+        <v>466715.65779999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>568.44659999999999</v>
+        <v>1401.4466000000002</v>
       </c>
       <c r="C18" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2259,11 +3545,11 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>831.55340000000001</v>
+        <v>898.55339999999978</v>
       </c>
       <c r="E18" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  831.553 unidades</v>
+        <v>Encomenda:  898.553 unidades</v>
       </c>
       <c r="F18" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2279,23 +3565,23 @@
       </c>
       <c r="I18" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.88480253068901593</v>
+        <v>0.36096169218701279</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>438.77670000000001</v>
+        <v>443.77670000000001</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2303,7 +3589,7 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2311,16 +3597,22 @@
       </c>
       <c r="Q18" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>197.47834884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>486.86254884000004</v>
+      </c>
+      <c r="T18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18">
+        <v>466729.6936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>20.161299999999983</v>
+        <v>1759.7147</v>
       </c>
       <c r="C19" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2328,7 +3620,7 @@
       </c>
       <c r="D19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1379.8387</v>
+        <v>540.28530000000001</v>
       </c>
       <c r="E19" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2336,19 +3628,19 @@
       </c>
       <c r="F19" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 898.553 unidades</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -2356,15 +3648,15 @@
       </c>
       <c r="K19" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84877805069769385</v>
+        <v>0.42958729494654102</v>
       </c>
       <c r="L19" s="20">
         <f ca="1">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-13</v>
+        <v>-21</v>
       </c>
       <c r="M19" s="20">
         <f ca="1" xml:space="preserve"> 561.2853 + L19</f>
-        <v>548.28530000000001</v>
+        <v>540.28530000000001</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2372,7 +3664,7 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2380,16 +3672,22 @@
       </c>
       <c r="Q19" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>7.0040356199999936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>611.32488677999993</v>
+      </c>
+      <c r="T19" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19">
+        <v>462431.47960000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>292.42939999999999</v>
+        <v>1180.4294</v>
       </c>
       <c r="C20" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2397,43 +3695,43 @@
       </c>
       <c r="D20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1107.5706</v>
+        <v>1119.5706</v>
       </c>
       <c r="E20" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1107.571 unidades</v>
+        <v>Encomenda:  1119.571 unidades</v>
       </c>
       <c r="F20" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 831.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32423658143653888</v>
+        <v>0.9992980894915453</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" ref="L20:L30" ca="1" si="16">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" ref="M20:M30" ca="1" si="17" xml:space="preserve"> 561.2853 + L20</f>
-        <v>559.28530000000001</v>
+        <v>579.28530000000001</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2441,7 +3739,7 @@
       </c>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2449,16 +3747,22 @@
       </c>
       <c r="Q20" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>101.58997355999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>410.08117355999997</v>
+      </c>
+      <c r="T20" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20">
+        <v>458278.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>850.71469999999999</v>
+        <v>585.14409999999998</v>
       </c>
       <c r="C21" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2466,7 +3770,7 @@
       </c>
       <c r="D21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>549.28530000000001</v>
+        <v>1714.8559</v>
       </c>
       <c r="E21" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2474,19 +3778,19 @@
       </c>
       <c r="F21" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1107.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -2494,15 +3798,15 @@
       </c>
       <c r="K21" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33151658503934589</v>
+        <v>0.79135841411157903</v>
       </c>
       <c r="L21" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-12</v>
+        <v>34</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>549.28530000000001</v>
+        <v>595.28530000000001</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2510,7 +3814,7 @@
       </c>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2518,16 +3822,22 @@
       </c>
       <c r="Q21" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>295.53828677999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>203.27906033999997</v>
+      </c>
+      <c r="T21" t="s">
+        <v>77</v>
+      </c>
+      <c r="U21">
+        <v>460247.05180000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>275.42939999999999</v>
+        <v>1137.4294</v>
       </c>
       <c r="C22" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2535,43 +3845,43 @@
       </c>
       <c r="D22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1124.5706</v>
+        <v>1162.5706</v>
       </c>
       <c r="E22" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1124.571 unidades</v>
+        <v>Encomenda:  1162.571 unidades</v>
       </c>
       <c r="F22" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1119.571 unidades</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39327498013561835</v>
+        <v>0.68352392563930453</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>575.28530000000001</v>
+        <v>567.28530000000001</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2579,7 +3889,7 @@
       </c>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2587,16 +3897,16 @@
       </c>
       <c r="Q22" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>95.684173559999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>395.14297355999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>831.71469999999999</v>
+        <v>563.14409999999998</v>
       </c>
       <c r="C23" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2604,7 +3914,7 @@
       </c>
       <c r="D23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>568.28530000000001</v>
+        <v>1736.8559</v>
       </c>
       <c r="E23" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2612,15 +3922,15 @@
       </c>
       <c r="F23" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1124.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G23" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -2632,15 +3942,15 @@
       </c>
       <c r="K23" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.58616144465016351</v>
+        <v>3.5718795051361885E-2</v>
       </c>
       <c r="L23" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>568.28530000000001</v>
+        <v>574.28530000000001</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2648,7 +3958,7 @@
       </c>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2656,16 +3966,16 @@
       </c>
       <c r="Q23" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>288.93768677999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>195.63626033999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>267.42939999999999</v>
+        <v>1196.4294</v>
       </c>
       <c r="C24" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2673,43 +3983,43 @@
       </c>
       <c r="D24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1132.5706</v>
+        <v>1103.5706</v>
       </c>
       <c r="E24" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1132.571 unidades</v>
+        <v>Encomenda:  1103.571 unidades</v>
       </c>
       <c r="F24" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1162.571 unidades</v>
       </c>
       <c r="G24" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.95139458329440507</v>
+        <v>0.55773600933198386</v>
       </c>
       <c r="L24" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>-32</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>564.28530000000001</v>
+        <v>529.28530000000001</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2717,7 +4027,7 @@
       </c>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2725,16 +4035,16 @@
       </c>
       <c r="Q24" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>92.904973559999988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>415.63957355999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-326.85590000000002</v>
+        <v>1762.7147</v>
       </c>
       <c r="C25" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2742,7 +4052,7 @@
       </c>
       <c r="D25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1726.8559</v>
+        <v>537.28530000000001</v>
       </c>
       <c r="E25" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2750,15 +4060,15 @@
       </c>
       <c r="F25" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1103.571 unidades</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -2770,15 +4080,15 @@
       </c>
       <c r="K25" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37968593208802071</v>
+        <v>0.54557108588417857</v>
       </c>
       <c r="L25" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>-24</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>594.28530000000001</v>
+        <v>537.28530000000001</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2786,24 +4096,24 @@
       </c>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>11004.45026034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>612.36708678000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>266.42939999999999</v>
+        <v>1192.4294</v>
       </c>
       <c r="C26" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2811,23 +4121,23 @@
       </c>
       <c r="D26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1133.5706</v>
+        <v>1107.5706</v>
       </c>
       <c r="E26" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1133.571 unidades</v>
+        <v>Encomenda:  1107.571 unidades</v>
       </c>
       <c r="F26" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1132.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -2839,15 +4149,15 @@
       </c>
       <c r="K26" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97804311962882684</v>
+        <v>0.97373401283378702</v>
       </c>
       <c r="L26" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-22</v>
+        <v>9</v>
       </c>
       <c r="M26" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>539.28530000000001</v>
+        <v>570.28530000000001</v>
       </c>
       <c r="N26" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2855,7 +4165,7 @@
       </c>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -2863,16 +4173,16 @@
       </c>
       <c r="Q26" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>92.557573559999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>414.24997356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-328.85590000000002</v>
+        <v>652.14409999999998</v>
       </c>
       <c r="C27" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2880,7 +4190,7 @@
       </c>
       <c r="D27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1728.8559</v>
+        <v>1647.8559</v>
       </c>
       <c r="E27" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2908,15 +4218,15 @@
       </c>
       <c r="K27" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20868894102134761</v>
+        <v>3.5406156821122803E-3</v>
       </c>
       <c r="L27" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>-21</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>595.28530000000001</v>
+        <v>540.28530000000001</v>
       </c>
       <c r="N27" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2924,24 +4234,24 @@
       </c>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P27" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>11071.75546034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>226.55486033999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>256.42939999999999</v>
+        <v>1205.4294</v>
       </c>
       <c r="C28" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2949,15 +4259,15 @@
       </c>
       <c r="D28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1143.5706</v>
+        <v>1094.5706</v>
       </c>
       <c r="E28" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1143.571 unidades</v>
+        <v>Encomenda:  1094.571 unidades</v>
       </c>
       <c r="F28" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1133.571 unidades</v>
+        <v>Receção: 1107.571 unidades</v>
       </c>
       <c r="G28" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -2969,23 +4279,23 @@
       </c>
       <c r="I28" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42570545871111032</v>
+        <v>0.99438768702731328</v>
       </c>
       <c r="L28" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>548.28530000000001</v>
+        <v>554.28530000000001</v>
       </c>
       <c r="N28" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2993,7 +4303,7 @@
       </c>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3001,16 +4311,16 @@
       </c>
       <c r="Q28" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>89.083573559999991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>418.76617355999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>806.71469999999999</v>
+        <v>618.14409999999998</v>
       </c>
       <c r="C29" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3018,7 +4328,7 @@
       </c>
       <c r="D29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>593.28530000000001</v>
+        <v>1681.8559</v>
       </c>
       <c r="E29" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3026,19 +4336,19 @@
       </c>
       <c r="F29" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1143.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G29" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3046,15 +4356,15 @@
       </c>
       <c r="K29" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25526500058175672</v>
+        <v>0.89365078724105285</v>
       </c>
       <c r="L29" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>593.28530000000001</v>
+        <v>587.28530000000001</v>
       </c>
       <c r="N29" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3062,7 +4372,7 @@
       </c>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P29" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3070,16 +4380,16 @@
       </c>
       <c r="Q29" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>280.25268677999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>214.74326033999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>224.42939999999999</v>
+        <v>1127.4294</v>
       </c>
       <c r="C30" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3087,23 +4397,23 @@
       </c>
       <c r="D30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1175.5706</v>
+        <v>1172.5706</v>
       </c>
       <c r="E30" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1175.571 unidades</v>
+        <v>Encomenda:  1172.571 unidades</v>
       </c>
       <c r="F30" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1094.571 unidades</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -3115,15 +4425,15 @@
       </c>
       <c r="K30" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32879945207419603</v>
+        <v>0.4735762510735303</v>
       </c>
       <c r="L30" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>582.28530000000001</v>
+        <v>585.28530000000001</v>
       </c>
       <c r="N30" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3131,7 +4441,7 @@
       </c>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3139,16 +4449,16 @@
       </c>
       <c r="Q30" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>77.966773559999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>391.66897355999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1066.9614000000001</v>
+        <v>1959.9614000000001</v>
       </c>
       <c r="C31" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3156,7 +4466,7 @@
       </c>
       <c r="D31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>333.03859999999986</v>
+        <v>340.03859999999986</v>
       </c>
       <c r="E31" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3164,7 +4474,7 @@
       </c>
       <c r="F31" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1175.571 unidades</v>
+        <v>Receção: 1172.571 unidades</v>
       </c>
       <c r="G31" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -3176,7 +4486,7 @@
       </c>
       <c r="I31" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3184,15 +4494,15 @@
       </c>
       <c r="K31" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.75954156079185409</v>
+        <v>0.26445680171389829</v>
       </c>
       <c r="L31" s="20">
         <f ca="1">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="M31" s="20">
         <f ca="1" xml:space="preserve"> 347.0386 + L31</f>
-        <v>333.03859999999997</v>
+        <v>340.03859999999997</v>
       </c>
       <c r="N31" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3200,7 +4510,7 @@
       </c>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3208,16 +4518,16 @@
       </c>
       <c r="Q31" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>370.66239036000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>680.89059036000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>709.92280000000017</v>
+        <v>1616.9228000000003</v>
       </c>
       <c r="C32" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3225,7 +4535,7 @@
       </c>
       <c r="D32" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>690.07719999999983</v>
+        <v>683.07719999999972</v>
       </c>
       <c r="E32" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3253,15 +4563,15 @@
       </c>
       <c r="K32" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.79035651303557197</v>
+        <v>0.95036938487813349</v>
       </c>
       <c r="L32" s="20">
         <f t="shared" ref="L32:L52" ca="1" si="18">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" ref="M32:M52" ca="1" si="19" xml:space="preserve"> 347.0386 + L32</f>
-        <v>357.03859999999997</v>
+        <v>343.03859999999997</v>
       </c>
       <c r="N32" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3269,7 +4579,7 @@
       </c>
       <c r="O32" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3277,7 +4587,7 @@
       </c>
       <c r="Q32" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>246.62718072000004</v>
+        <v>561.7189807200001</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,7 +4596,7 @@
       </c>
       <c r="B33" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>372.88420000000019</v>
+        <v>1264.8842000000004</v>
       </c>
       <c r="C33" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3294,7 +4604,7 @@
       </c>
       <c r="D33" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1027.1157999999998</v>
+        <v>1035.1157999999996</v>
       </c>
       <c r="E33" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3314,7 +4624,7 @@
       </c>
       <c r="I33" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3322,15 +4632,15 @@
       </c>
       <c r="K33" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28121374003148814</v>
+        <v>0.8981621153616266</v>
       </c>
       <c r="L33" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>337.03859999999997</v>
+        <v>352.03859999999997</v>
       </c>
       <c r="N33" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3338,7 +4648,7 @@
       </c>
       <c r="O33" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P33" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3346,7 +4656,7 @@
       </c>
       <c r="Q33" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>129.53997108000007</v>
+        <v>439.42077108000012</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +4665,7 @@
       </c>
       <c r="B34" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8456000000002177</v>
+        <v>945.84560000000045</v>
       </c>
       <c r="C34" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3363,11 +4673,11 @@
       </c>
       <c r="D34" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1397.1543999999999</v>
+        <v>1354.1543999999994</v>
       </c>
       <c r="E34" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1397.154 unidades</v>
+        <v>Encomenda:  1354.154 unidades</v>
       </c>
       <c r="F34" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3383,23 +4693,23 @@
       </c>
       <c r="I34" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K34" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8240051696819979E-2</v>
+        <v>0.7898547530653276</v>
       </c>
       <c r="L34" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23</v>
+        <v>-28</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>370.03859999999997</v>
+        <v>319.03859999999997</v>
       </c>
       <c r="N34" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3407,7 +4717,7 @@
       </c>
       <c r="O34" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3415,7 +4725,7 @@
       </c>
       <c r="Q34" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>0.98856144000007562</v>
+        <v>328.58676144000015</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +4734,7 @@
       </c>
       <c r="B35" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1056.9614000000001</v>
+        <v>600.80700000000047</v>
       </c>
       <c r="C35" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3432,7 +4742,7 @@
       </c>
       <c r="D35" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>343.03859999999986</v>
+        <v>1699.1929999999995</v>
       </c>
       <c r="E35" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3440,19 +4750,19 @@
       </c>
       <c r="F35" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1397.154 unidades</v>
+        <v>-</v>
       </c>
       <c r="G35" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3460,15 +4770,15 @@
       </c>
       <c r="K35" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62005579629575336</v>
+        <v>1.6447482561315785E-2</v>
       </c>
       <c r="L35" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M35" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>343.03859999999997</v>
+        <v>345.03859999999997</v>
       </c>
       <c r="N35" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3476,7 +4786,7 @@
       </c>
       <c r="O35" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P35" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3484,7 +4794,7 @@
       </c>
       <c r="Q35" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>367.18839036000003</v>
+        <v>208.72035180000015</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,7 +4803,7 @@
       </c>
       <c r="B36" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>742.92280000000017</v>
+        <v>1609.9227999999998</v>
       </c>
       <c r="C36" s="20" t="b">
         <f t="shared" ref="C36:C52" ca="1" si="20">AND(B36&lt;$T$64,MOD(A36,$T$62)=0)</f>
@@ -3501,7 +4811,7 @@
       </c>
       <c r="D36" s="20">
         <f t="shared" ref="D36:D52" ca="1" si="21">$T$65 - B36</f>
-        <v>657.07719999999983</v>
+        <v>690.07720000000018</v>
       </c>
       <c r="E36" s="20" t="str">
         <f t="shared" ref="E36:E52" ca="1" si="22" xml:space="preserve"> IF(C36 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B36,3) &amp; " unidades", "-")</f>
@@ -3509,15 +4819,15 @@
       </c>
       <c r="F36" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1354.154 unidades</v>
       </c>
       <c r="G36" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" ref="I36:I52" ca="1" si="23">IF(K36&lt;=0.6,1,2)</f>
@@ -3529,15 +4839,15 @@
       </c>
       <c r="K36" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12241064513888522</v>
+        <v>0.46795933962778413</v>
       </c>
       <c r="L36" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-33</v>
+        <v>-2</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>314.03859999999997</v>
+        <v>345.03859999999997</v>
       </c>
       <c r="N36" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3545,7 +4855,7 @@
       </c>
       <c r="O36" s="20">
         <f t="shared" ref="O36:O52" ca="1" si="24">IF(B36 &lt;= 0, 1 + O35, O35)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P36" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3553,7 +4863,7 @@
       </c>
       <c r="Q36" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>258.09138072000007</v>
+        <v>559.28718071999992</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +4872,7 @@
       </c>
       <c r="B37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>399.88420000000019</v>
+        <v>1296.8842</v>
       </c>
       <c r="C37" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3570,7 +4880,7 @@
       </c>
       <c r="D37" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1000.1157999999998</v>
+        <v>1003.1158</v>
       </c>
       <c r="E37" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -3590,7 +4900,7 @@
       </c>
       <c r="I37" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3598,15 +4908,15 @@
       </c>
       <c r="K37" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.50927347401263445</v>
+        <v>0.94210257933782482</v>
       </c>
       <c r="L37" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-4</v>
+        <v>-34</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>343.03859999999997</v>
+        <v>313.03859999999997</v>
       </c>
       <c r="N37" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3614,7 +4924,7 @@
       </c>
       <c r="O37" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P37" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3622,7 +4932,7 @@
       </c>
       <c r="Q37" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>138.91977108000006</v>
+        <v>450.53757107999996</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,7 +4941,7 @@
       </c>
       <c r="B38" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>40.845600000000218</v>
+        <v>977.84559999999999</v>
       </c>
       <c r="C38" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3639,11 +4949,11 @@
       </c>
       <c r="D38" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1359.1543999999999</v>
+        <v>1322.1543999999999</v>
       </c>
       <c r="E38" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1359.154 unidades</v>
+        <v>Encomenda:  1322.154 unidades</v>
       </c>
       <c r="F38" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3659,23 +4969,23 @@
       </c>
       <c r="I38" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97335088818005644</v>
+        <v>0.14726912387721713</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>-28</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>359.03859999999997</v>
+        <v>319.03859999999997</v>
       </c>
       <c r="N38" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3683,7 +4993,7 @@
       </c>
       <c r="O38" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P38" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3691,7 +5001,7 @@
       </c>
       <c r="Q38" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>14.189761440000074</v>
+        <v>339.70356143999999</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +5010,7 @@
       </c>
       <c r="B39" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-327.19299999999976</v>
+        <v>1952.9614000000001</v>
       </c>
       <c r="C39" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3708,7 +5018,7 @@
       </c>
       <c r="D39" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1727.1929999999998</v>
+        <v>347.03859999999986</v>
       </c>
       <c r="E39" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -3716,15 +5026,15 @@
       </c>
       <c r="F39" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1322.154 unidades</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" ca="1" si="23"/>
@@ -3736,15 +5046,15 @@
       </c>
       <c r="K39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14490577315214193</v>
+        <v>0.27995047760184089</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>368.03859999999997</v>
+        <v>347.03859999999997</v>
       </c>
       <c r="N39" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3752,15 +5062,15 @@
       </c>
       <c r="O39" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P39" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>11004.3331518</v>
+        <v>678.45879035999997</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,7 +5079,7 @@
       </c>
       <c r="B40" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>661.92280000000017</v>
+        <v>1586.9228000000003</v>
       </c>
       <c r="C40" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3777,7 +5087,7 @@
       </c>
       <c r="D40" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>738.07719999999983</v>
+        <v>713.07719999999972</v>
       </c>
       <c r="E40" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -3785,19 +5095,19 @@
       </c>
       <c r="F40" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1359.154 unidades</v>
+        <v>-</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3805,15 +5115,15 @@
       </c>
       <c r="K40" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.40786160514930725</v>
+        <v>0.74477281064659628</v>
       </c>
       <c r="L40" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M40" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>370.03859999999997</v>
+        <v>366.03859999999997</v>
       </c>
       <c r="N40" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3821,7 +5131,7 @@
       </c>
       <c r="O40" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P40" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3829,7 +5139,7 @@
       </c>
       <c r="Q40" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>229.95198072000005</v>
+        <v>551.29698072000008</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +5148,7 @@
       </c>
       <c r="B41" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>318.88420000000019</v>
+        <v>1273.8842000000004</v>
       </c>
       <c r="C41" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3846,7 +5156,7 @@
       </c>
       <c r="D41" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1081.1157999999998</v>
+        <v>1026.1157999999996</v>
       </c>
       <c r="E41" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -3874,15 +5184,15 @@
       </c>
       <c r="K41" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1506342206509248</v>
+        <v>7.1574754916051808E-2</v>
       </c>
       <c r="L41" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-4</v>
+        <v>-34</v>
       </c>
       <c r="M41" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>343.03859999999997</v>
+        <v>313.03859999999997</v>
       </c>
       <c r="N41" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3890,7 +5200,7 @@
       </c>
       <c r="O41" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P41" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3898,7 +5208,7 @@
       </c>
       <c r="Q41" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>110.78037108000007</v>
+        <v>442.54737108000012</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,7 +5217,7 @@
       </c>
       <c r="B42" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-32.154399999999782</v>
+        <v>931.84560000000045</v>
       </c>
       <c r="C42" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3915,11 +5225,11 @@
       </c>
       <c r="D42" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1432.1543999999999</v>
+        <v>1368.1543999999994</v>
       </c>
       <c r="E42" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1432.154 unidades</v>
+        <v>Encomenda:  1368.154 unidades</v>
       </c>
       <c r="F42" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3943,15 +5253,15 @@
       </c>
       <c r="K42" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45568589455818476</v>
+        <v>4.0563354941608454E-2</v>
       </c>
       <c r="L42" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>351.03859999999997</v>
+        <v>342.03859999999997</v>
       </c>
       <c r="N42" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -3959,15 +5269,15 @@
       </c>
       <c r="O42" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P42" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1076.8295614400001</v>
+        <v>323.72316144000013</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,7 +5286,7 @@
       </c>
       <c r="B43" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1089.9614000000001</v>
+        <v>1975.9614000000001</v>
       </c>
       <c r="C43" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -3984,7 +5294,7 @@
       </c>
       <c r="D43" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>310.03859999999986</v>
+        <v>324.03859999999986</v>
       </c>
       <c r="E43" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -3992,7 +5302,7 @@
       </c>
       <c r="F43" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1432.154 unidades</v>
+        <v>Receção: 1368.154 unidades</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4012,15 +5322,15 @@
       </c>
       <c r="K43" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46203397943716551</v>
+        <v>5.2765825116482201E-2</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-37</v>
+        <v>-23</v>
       </c>
       <c r="M43" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>310.03859999999997</v>
+        <v>324.03859999999997</v>
       </c>
       <c r="N43" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4028,7 +5338,7 @@
       </c>
       <c r="O43" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P43" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4036,7 +5346,7 @@
       </c>
       <c r="Q43" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>378.65259036000003</v>
+        <v>686.44899036000004</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,7 +5355,7 @@
       </c>
       <c r="B44" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>751.92280000000017</v>
+        <v>1616.9228000000003</v>
       </c>
       <c r="C44" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4053,7 +5363,7 @@
       </c>
       <c r="D44" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>648.07719999999983</v>
+        <v>683.07719999999972</v>
       </c>
       <c r="E44" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4073,7 +5383,7 @@
       </c>
       <c r="I44" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4081,15 +5391,15 @@
       </c>
       <c r="K44" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.41704912258422711</v>
+        <v>0.78586904861881002</v>
       </c>
       <c r="L44" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="M44" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>338.03859999999997</v>
+        <v>359.03859999999997</v>
       </c>
       <c r="N44" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4097,7 +5407,7 @@
       </c>
       <c r="O44" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P44" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4105,7 +5415,7 @@
       </c>
       <c r="Q44" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>261.21798072000007</v>
+        <v>561.7189807200001</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,7 +5424,7 @@
       </c>
       <c r="B45" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>421.88420000000019</v>
+        <v>1263.8842000000004</v>
       </c>
       <c r="C45" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4122,7 +5432,7 @@
       </c>
       <c r="D45" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>978.11579999999981</v>
+        <v>1036.1157999999996</v>
       </c>
       <c r="E45" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4150,15 +5460,15 @@
       </c>
       <c r="K45" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.93753864708541179</v>
+        <v>0.79256463507459807</v>
       </c>
       <c r="L45" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="M45" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>330.03859999999997</v>
+        <v>353.03859999999997</v>
       </c>
       <c r="N45" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4166,7 +5476,7 @@
       </c>
       <c r="O45" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P45" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4174,7 +5484,7 @@
       </c>
       <c r="Q45" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>146.56257108000005</v>
+        <v>439.07337108000013</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,7 +5493,7 @@
       </c>
       <c r="B46" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>104.84560000000022</v>
+        <v>908.84560000000045</v>
       </c>
       <c r="C46" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4191,11 +5501,11 @@
       </c>
       <c r="D46" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1295.1543999999999</v>
+        <v>1391.1543999999994</v>
       </c>
       <c r="E46" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1295.154 unidades</v>
+        <v>Encomenda:  1391.154 unidades</v>
       </c>
       <c r="F46" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4219,15 +5529,15 @@
       </c>
       <c r="K46" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.72064823486895591</v>
+        <v>0.85540140256879249</v>
       </c>
       <c r="L46" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="M46" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>317.03859999999997</v>
+        <v>355.03859999999997</v>
       </c>
       <c r="N46" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4235,7 +5545,7 @@
       </c>
       <c r="O46" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P46" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4243,7 +5553,7 @@
       </c>
       <c r="Q46" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>36.423361440000072</v>
+        <v>315.73296144000017</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +5562,7 @@
       </c>
       <c r="B47" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-251.19299999999976</v>
+        <v>538.80700000000047</v>
       </c>
       <c r="C47" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4260,7 +5570,7 @@
       </c>
       <c r="D47" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1651.1929999999998</v>
+        <v>1761.1929999999995</v>
       </c>
       <c r="E47" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4288,15 +5598,15 @@
       </c>
       <c r="K47" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.90741521202468545</v>
+        <v>0.89459155194312467</v>
       </c>
       <c r="L47" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="M47" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>356.03859999999997</v>
+        <v>370.03859999999997</v>
       </c>
       <c r="N47" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4304,15 +5614,15 @@
       </c>
       <c r="O47" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P47" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>8446.7355518000004</v>
+        <v>187.18155180000016</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +5631,7 @@
       </c>
       <c r="B48" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>674.92280000000017</v>
+        <v>1586.9227999999998</v>
       </c>
       <c r="C48" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4329,7 +5639,7 @@
       </c>
       <c r="D48" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>725.07719999999983</v>
+        <v>713.07720000000018</v>
       </c>
       <c r="E48" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4337,7 +5647,7 @@
       </c>
       <c r="F48" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1295.154 unidades</v>
+        <v>Receção: 1391.154 unidades</v>
       </c>
       <c r="G48" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4357,15 +5667,15 @@
       </c>
       <c r="K48" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85203043479537044</v>
+        <v>0.69662484870961305</v>
       </c>
       <c r="L48" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>369.03859999999997</v>
+        <v>343.03859999999997</v>
       </c>
       <c r="N48" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4373,7 +5683,7 @@
       </c>
       <c r="O48" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P48" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4381,7 +5691,7 @@
       </c>
       <c r="Q48" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>234.46818072000005</v>
+        <v>551.29698071999997</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -4390,7 +5700,7 @@
       </c>
       <c r="B49" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>296.88420000000019</v>
+        <v>1220.8842</v>
       </c>
       <c r="C49" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4398,7 +5708,7 @@
       </c>
       <c r="D49" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1103.1157999999998</v>
+        <v>1079.1158</v>
       </c>
       <c r="E49" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4426,15 +5736,15 @@
       </c>
       <c r="K49" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47221757778746132</v>
+        <v>0.36765044953076542</v>
       </c>
       <c r="L49" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M49" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>378.03859999999997</v>
+        <v>366.03859999999997</v>
       </c>
       <c r="N49" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4442,7 +5752,7 @@
       </c>
       <c r="O49" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P49" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4450,7 +5760,7 @@
       </c>
       <c r="Q49" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>103.13757108000006</v>
+        <v>424.13517107999996</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -4459,7 +5769,7 @@
       </c>
       <c r="B50" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-85.154399999999782</v>
+        <v>870.84559999999999</v>
       </c>
       <c r="C50" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4467,11 +5777,11 @@
       </c>
       <c r="D50" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1485.1543999999999</v>
+        <v>1429.1543999999999</v>
       </c>
       <c r="E50" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1485.154 unidades</v>
+        <v>Encomenda:  1429.154 unidades</v>
       </c>
       <c r="F50" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4495,15 +5805,15 @@
       </c>
       <c r="K50" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12199445775131146</v>
+        <v>0.27456129362902604</v>
       </c>
       <c r="L50" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="M50" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>382.03859999999997</v>
+        <v>350.03859999999997</v>
       </c>
       <c r="N50" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4511,15 +5821,15 @@
       </c>
       <c r="O50" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P50" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>2860.4173614400001</v>
+        <v>302.53176143999997</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -4528,7 +5838,7 @@
       </c>
       <c r="B51" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1045.9614000000001</v>
+        <v>1980.9614000000001</v>
       </c>
       <c r="C51" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4536,7 +5846,7 @@
       </c>
       <c r="D51" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>354.03859999999986</v>
+        <v>319.03859999999986</v>
       </c>
       <c r="E51" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4544,7 +5854,7 @@
       </c>
       <c r="F51" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1485.154 unidades</v>
+        <v>Receção: 1429.154 unidades</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4556,7 +5866,7 @@
       </c>
       <c r="I51" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4564,15 +5874,15 @@
       </c>
       <c r="K51" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.23132409129048426</v>
+        <v>0.63995740568694182</v>
       </c>
       <c r="L51" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>-28</v>
       </c>
       <c r="M51" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>354.03859999999997</v>
+        <v>319.03859999999997</v>
       </c>
       <c r="N51" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -4580,7 +5890,7 @@
       </c>
       <c r="O51" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P51" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4588,7 +5898,7 @@
       </c>
       <c r="Q51" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>363.36699036000005</v>
+        <v>688.18599036000001</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -4597,7 +5907,7 @@
       </c>
       <c r="B52" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>726.92280000000017</v>
+        <v>1603.9228000000003</v>
       </c>
       <c r="C52" s="21" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4605,7 +5915,7 @@
       </c>
       <c r="D52" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>673.07719999999983</v>
+        <v>696.07719999999972</v>
       </c>
       <c r="E52" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4625,7 +5935,7 @@
       </c>
       <c r="I52" s="21">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" ca="1" si="5"/>
@@ -4633,15 +5943,15 @@
       </c>
       <c r="K52" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7895321715293333</v>
+        <v>0.10198059732269416</v>
       </c>
       <c r="L52" s="21">
         <f t="shared" ca="1" si="18"/>
-        <v>-28</v>
+        <v>30</v>
       </c>
       <c r="M52" s="21">
         <f t="shared" ca="1" si="19"/>
-        <v>319.03859999999997</v>
+        <v>377.03859999999997</v>
       </c>
       <c r="N52" s="21">
         <f t="shared" ca="1" si="13"/>
@@ -4649,7 +5959,7 @@
       </c>
       <c r="O52" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P52" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4657,7 +5967,7 @@
       </c>
       <c r="Q52" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>252.53298072000004</v>
+        <v>557.20278072000008</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -4697,7 +6007,7 @@
       </c>
       <c r="M53" s="18">
         <f ca="1">SUM(M4:M52)</f>
-        <v>20780.923299999995</v>
+        <v>20764.923299999995</v>
       </c>
       <c r="N53" s="18">
         <f ca="1" xml:space="preserve"> N52</f>
@@ -4705,15 +6015,15 @@
       </c>
       <c r="O53" s="18">
         <f ca="1" xml:space="preserve"> O52</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P53" s="18">
         <f ca="1">SUM(P4:P52)</f>
-        <v>1632</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="18">
         <f ca="1">SUM(Q4:Q52)</f>
-        <v>64608.303528139993</v>
+        <v>24207.530824100002</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -4785,7 +6095,7 @@
       </c>
       <c r="F57" s="27">
         <f ca="1">AVERAGE(B3:B52)</f>
-        <v>469.52582200000018</v>
+        <v>1304.2919300000003</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -4833,7 +6143,7 @@
       </c>
       <c r="F59" s="27">
         <f ca="1">O53</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -4861,7 +6171,7 @@
       </c>
       <c r="F60" s="27">
         <f ca="1">M53</f>
-        <v>20780.923299999995</v>
+        <v>20764.923299999995</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -4889,7 +6199,7 @@
       </c>
       <c r="F61" s="27">
         <f ca="1">F57*T59</f>
-        <v>163.11327056280007</v>
+        <v>453.11101648200008</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -4916,7 +6226,7 @@
       </c>
       <c r="F62" s="27">
         <f ca="1">F60 * (T57-T56)</f>
-        <v>488351.69754999987</v>
+        <v>487975.69754999987</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -4941,7 +6251,7 @@
       </c>
       <c r="F63" s="32">
         <f ca="1">F62-Q53</f>
-        <v>423743.39402185986</v>
+        <v>463768.16672589985</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -4955,7 +6265,7 @@
         <v>28</v>
       </c>
       <c r="T64" s="2">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.3">
@@ -4973,7 +6283,7 @@
         <v>29</v>
       </c>
       <c r="T65" s="9">
-        <v>1400</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.3">
@@ -5045,5 +6355,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/MEIO_TP.xlsx
+++ b/Excel/MEIO_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisb\Desktop\MEIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ECB269-CF2A-429F-816E-11D5090987DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5612521-CAA3-48A7-A2AE-19B9F7739548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -515,7 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +687,7 @@
                   <c:v>444797.37800000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433044.79790000001</c:v>
+                  <c:v>451705.07410000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>464168.56099999999</c:v>
@@ -2327,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH39" sqref="AH39"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2434,7 +2441,7 @@
       </c>
       <c r="B3" s="19">
         <f xml:space="preserve"> T65</f>
-        <v>2300</v>
+        <v>1550</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>30</v>
@@ -2475,10 +2482,10 @@
       <c r="Q3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2488,7 +2495,7 @@
       </c>
       <c r="B4" s="20">
         <f ca="1">IF(G4=1,INDIRECT(ADDRESS(ROW(B4)-H4,4))+B3-M4,B3-M4)</f>
-        <v>1890.2233000000001</v>
+        <v>1159.2233000000001</v>
       </c>
       <c r="C4" s="20" t="b">
         <f t="shared" ref="C4:C35" ca="1" si="0">AND(B4&lt;$T$64,MOD(A4,$T$62)=0)</f>
@@ -2496,7 +2503,7 @@
       </c>
       <c r="D4" s="20">
         <f t="shared" ref="D4:D35" ca="1" si="1">$T$65 - B4</f>
-        <v>409.77669999999989</v>
+        <v>390.77669999999989</v>
       </c>
       <c r="E4" s="20" t="str">
         <f t="shared" ref="E4:E35" ca="1" si="2" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B4,3) &amp; " unidades", "-")</f>
@@ -2516,7 +2523,7 @@
       </c>
       <c r="I4" s="20">
         <f t="shared" ref="I4:I35" ca="1" si="4">IF(K4&lt;=0.6,1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="20">
         <f t="shared" ref="J4:J52" ca="1" si="5">IF(C4=TRUE(),(A4+I4+2),0)</f>
@@ -2524,15 +2531,15 @@
       </c>
       <c r="K4" s="20">
         <f ca="1">RAND()</f>
-        <v>0.85619682760032789</v>
+        <v>0.45796079663879918</v>
       </c>
       <c r="L4" s="20">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>-12</v>
+        <v>-31</v>
       </c>
       <c r="M4" s="20">
         <f t="shared" ref="M4:M18" ca="1" si="6">421.7767 + L4</f>
-        <v>409.77670000000001</v>
+        <v>390.77670000000001</v>
       </c>
       <c r="N4" s="20">
         <v>0</v>
@@ -2547,12 +2554,12 @@
       </c>
       <c r="Q4" s="30">
         <f ca="1">$T$59*B4+$T$60*P4+T61*(1/$T$62)</f>
-        <v>1106.66357442</v>
-      </c>
-      <c r="T4" s="33" t="s">
+        <v>852.71417442000006</v>
+      </c>
+      <c r="T4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="33">
         <v>400023.84840000002</v>
       </c>
     </row>
@@ -2562,7 +2569,7 @@
       </c>
       <c r="B5" s="20">
         <f t="shared" ref="B5:B52" ca="1" si="8">IF(G5=1,INDIRECT(ADDRESS(ROW(B5)-H5,4))+B4-M5,B4-M5)</f>
-        <v>1466.4466000000002</v>
+        <v>734.4466000000001</v>
       </c>
       <c r="C5" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2570,7 +2577,7 @@
       </c>
       <c r="D5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>833.55339999999978</v>
+        <v>815.5533999999999</v>
       </c>
       <c r="E5" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2590,7 +2597,7 @@
       </c>
       <c r="I5" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -2598,15 +2605,15 @@
       </c>
       <c r="K5" s="20">
         <f t="shared" ref="K5:K52" ca="1" si="11">RAND()</f>
-        <v>0.97930549973989733</v>
+        <v>0.27913452002390571</v>
       </c>
       <c r="L5" s="20">
         <f t="shared" ref="L5:L18" ca="1" si="12" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>423.77670000000001</v>
+        <v>424.77670000000001</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" ref="N5:N52" ca="1" si="13">IF(C5 = TRUE(), 1+ N4, N4)</f>
@@ -2622,12 +2629,12 @@
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5:Q52" ca="1" si="15">$T$59*B5+$T$60*P5+T62*(1/$T$62)</f>
-        <v>510.44354884000006</v>
-      </c>
-      <c r="T5" t="s">
+        <v>256.14674883999999</v>
+      </c>
+      <c r="T5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="33">
         <v>423600.4203</v>
       </c>
     </row>
@@ -2637,7 +2644,7 @@
       </c>
       <c r="B6" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1051.6699000000003</v>
+        <v>331.6699000000001</v>
       </c>
       <c r="C6" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2645,11 +2652,11 @@
       </c>
       <c r="D6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1248.3300999999997</v>
+        <v>1218.3300999999999</v>
       </c>
       <c r="E6" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1248.33 unidades</v>
+        <v>Encomenda:  1218.33 unidades</v>
       </c>
       <c r="F6" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2665,23 +2672,23 @@
       </c>
       <c r="I6" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.65760540991671512</v>
+        <v>0.10757868150214622</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-7</v>
+        <v>-19</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>414.77670000000001</v>
+        <v>402.77670000000001</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2697,12 +2704,12 @@
       </c>
       <c r="Q6" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>365.35012326000009</v>
-      </c>
-      <c r="T6" t="s">
+        <v>115.22212326000003</v>
+      </c>
+      <c r="T6" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="33">
         <v>444797.37800000003</v>
       </c>
     </row>
@@ -2712,7 +2719,7 @@
       </c>
       <c r="B7" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>624.89320000000032</v>
+        <v>1111.2233000000001</v>
       </c>
       <c r="C7" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2720,7 +2727,7 @@
       </c>
       <c r="D7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1675.1067999999996</v>
+        <v>438.77669999999989</v>
       </c>
       <c r="E7" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2728,15 +2735,15 @@
       </c>
       <c r="F7" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1218.33 unidades</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -2748,15 +2755,15 @@
       </c>
       <c r="K7" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.75163252885439369</v>
+        <v>0.71062062089068168</v>
       </c>
       <c r="L7" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>426.77670000000001</v>
+        <v>438.77670000000001</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2772,13 +2779,13 @@
       </c>
       <c r="Q7" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>967.08789768000008</v>
-      </c>
-      <c r="T7" t="s">
+        <v>761.03897442000005</v>
+      </c>
+      <c r="T7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="U7">
-        <v>433044.79790000001</v>
+      <c r="U7" s="33">
+        <v>451705.07410000003</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2787,7 +2794,7 @@
       </c>
       <c r="B8" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1442.4466000000002</v>
+        <v>675.4466000000001</v>
       </c>
       <c r="C8" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2795,23 +2802,23 @@
       </c>
       <c r="D8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>857.55339999999978</v>
+        <v>874.5533999999999</v>
       </c>
       <c r="E8" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  857.553 unidades</v>
+        <v>Encomenda:  874.553 unidades</v>
       </c>
       <c r="F8" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1248.33 unidades</v>
+        <v>-</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -2823,15 +2830,15 @@
       </c>
       <c r="K8" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35398615323218874</v>
+        <v>0.28217606916922711</v>
       </c>
       <c r="L8" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M8" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>430.77670000000001</v>
+        <v>435.77670000000001</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2847,12 +2854,12 @@
       </c>
       <c r="Q8" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1651.1059488400001</v>
-      </c>
-      <c r="T8" t="s">
+        <v>1009.65014884</v>
+      </c>
+      <c r="T8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="33">
         <v>464168.56099999999</v>
       </c>
     </row>
@@ -2862,7 +2869,7 @@
       </c>
       <c r="B9" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1866.2233000000001</v>
+        <v>1154.2233000000001</v>
       </c>
       <c r="C9" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2870,7 +2877,7 @@
       </c>
       <c r="D9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>433.77669999999989</v>
+        <v>395.77669999999989</v>
       </c>
       <c r="E9" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2878,7 +2885,7 @@
       </c>
       <c r="F9" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 857.553 unidades</v>
+        <v>Receção: 874.553 unidades</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -2890,7 +2897,7 @@
       </c>
       <c r="I9" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -2898,15 +2905,15 @@
       </c>
       <c r="K9" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.73444159015854493</v>
+        <v>0.25189664026488401</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>-26</v>
       </c>
       <c r="M9" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>433.77670000000001</v>
+        <v>395.77670000000001</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2922,12 +2929,12 @@
       </c>
       <c r="Q9" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>648.32597441999997</v>
-      </c>
-      <c r="T9" t="s">
+        <v>400.97717442000004</v>
+      </c>
+      <c r="T9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="33">
         <v>460457.05849999998</v>
       </c>
     </row>
@@ -2937,19 +2944,19 @@
       </c>
       <c r="B10" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1413.4466000000002</v>
+        <v>764.4466000000001</v>
       </c>
       <c r="C10" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>886.55339999999978</v>
+        <v>785.5533999999999</v>
       </c>
       <c r="E10" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  886.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="F10" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2965,27 +2972,27 @@
       </c>
       <c r="I10" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K10" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.67074084678192281</v>
+        <v>0.16776666308302612</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>-32</v>
       </c>
       <c r="M10" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>452.77670000000001</v>
+        <v>389.77670000000001</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="7"/>
@@ -2997,12 +3004,12 @@
       </c>
       <c r="Q10" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>491.03134884000008</v>
-      </c>
-      <c r="T10" t="s">
+        <v>265.56874884000001</v>
+      </c>
+      <c r="T10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="33">
         <v>463810.9216</v>
       </c>
     </row>
@@ -3012,7 +3019,7 @@
       </c>
       <c r="B11" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>973.66990000000021</v>
+        <v>311.6699000000001</v>
       </c>
       <c r="C11" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3020,7 +3027,7 @@
       </c>
       <c r="D11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1326.3300999999997</v>
+        <v>1238.3300999999999</v>
       </c>
       <c r="E11" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3040,7 +3047,7 @@
       </c>
       <c r="I11" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3048,19 +3055,19 @@
       </c>
       <c r="K11" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1402447487880996E-2</v>
+        <v>0.90057675841442131</v>
       </c>
       <c r="L11" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M11" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>439.77670000000001</v>
+        <v>452.77670000000001</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="7"/>
@@ -3072,12 +3079,12 @@
       </c>
       <c r="Q11" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>338.25292326000005</v>
-      </c>
-      <c r="T11" t="s">
+        <v>108.27412326000002</v>
+      </c>
+      <c r="T11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="33">
         <v>470317.58439999999</v>
       </c>
     </row>
@@ -3087,7 +3094,7 @@
       </c>
       <c r="B12" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1428.4466000000002</v>
+        <v>-106.10679999999991</v>
       </c>
       <c r="C12" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3095,23 +3102,23 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>871.55339999999978</v>
+        <v>1656.1068</v>
       </c>
       <c r="E12" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  871.553 unidades</v>
+        <v>Encomenda:  1656.107 unidades</v>
       </c>
       <c r="F12" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 886.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -3123,36 +3130,36 @@
       </c>
       <c r="K12" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.99439359356037038</v>
+        <v>0.93251003586032244</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>431.77670000000001</v>
+        <v>417.77670000000001</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>496.24234884000003</v>
-      </c>
-      <c r="T12" t="s">
+        <v>3567.13849768</v>
+      </c>
+      <c r="T12" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="33">
         <v>465034.71340000001</v>
       </c>
     </row>
@@ -3162,7 +3169,7 @@
       </c>
       <c r="B13" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1002.6699000000002</v>
+        <v>-548.88349999999991</v>
       </c>
       <c r="C13" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3170,7 +3177,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1297.3300999999997</v>
+        <v>2098.8834999999999</v>
       </c>
       <c r="E13" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3190,7 +3197,7 @@
       </c>
       <c r="I13" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3198,36 +3205,36 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85868601806106448</v>
+        <v>0.33127303143014952</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>425.77670000000001</v>
+        <v>442.77670000000001</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>348.32752326000008</v>
-      </c>
-      <c r="T13" t="s">
+        <v>18475.3178721</v>
+      </c>
+      <c r="T13" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="33">
         <v>462675.34169999999</v>
       </c>
     </row>
@@ -3237,7 +3244,7 @@
       </c>
       <c r="B14" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1478.4466000000002</v>
+        <v>664.4466000000001</v>
       </c>
       <c r="C14" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3245,15 +3252,15 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>821.55339999999978</v>
+        <v>885.5533999999999</v>
       </c>
       <c r="E14" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  821.553 unidades</v>
+        <v>Encomenda:  885.553 unidades</v>
       </c>
       <c r="F14" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 871.553 unidades</v>
+        <v>Receção: 1656.107 unidades</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -3265,31 +3272,31 @@
       </c>
       <c r="I14" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.78651110524317536</v>
+        <v>0.55518137429109948</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="M14" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>395.77670000000001</v>
+        <v>442.77670000000001</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3297,12 +3304,12 @@
       </c>
       <c r="Q14" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>513.6123488400001</v>
-      </c>
-      <c r="T14" t="s">
+        <v>230.82874884000003</v>
+      </c>
+      <c r="T14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="33">
         <v>461914.00439999998</v>
       </c>
     </row>
@@ -3312,7 +3319,7 @@
       </c>
       <c r="B15" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1021.6699000000002</v>
+        <v>1133.2233000000001</v>
       </c>
       <c r="C15" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3320,7 +3327,7 @@
       </c>
       <c r="D15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1278.3300999999997</v>
+        <v>416.77669999999989</v>
       </c>
       <c r="E15" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3328,15 +3335,15 @@
       </c>
       <c r="F15" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 885.553 unidades</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -3348,23 +3355,23 @@
       </c>
       <c r="K15" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.90198003071390287</v>
+        <v>0.77109627195350761</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>-5</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>456.77670000000001</v>
+        <v>416.77670000000001</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3372,12 +3379,12 @@
       </c>
       <c r="Q15" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>354.92812326000006</v>
-      </c>
-      <c r="T15" t="s">
+        <v>393.68177442000001</v>
+      </c>
+      <c r="T15" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="33">
         <v>465145.51939999999</v>
       </c>
     </row>
@@ -3387,7 +3394,7 @@
       </c>
       <c r="B16" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1440.4466000000002</v>
+        <v>721.4466000000001</v>
       </c>
       <c r="C16" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3395,51 +3402,51 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>859.55339999999978</v>
+        <v>828.5533999999999</v>
       </c>
       <c r="E16" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  859.553 unidades</v>
+        <v>Encomenda:  828.553 unidades</v>
       </c>
       <c r="F16" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 821.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K16" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2335421100361574E-2</v>
+        <v>0.90193618035626899</v>
       </c>
       <c r="L16" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-19</v>
+        <v>-10</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>402.77670000000001</v>
+        <v>411.77670000000001</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3447,12 +3454,12 @@
       </c>
       <c r="Q16" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>500.41114884000007</v>
-      </c>
-      <c r="T16" t="s">
+        <v>250.63054884000002</v>
+      </c>
+      <c r="T16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="33">
         <v>465571.90539999999</v>
       </c>
     </row>
@@ -3462,7 +3469,7 @@
       </c>
       <c r="B17" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1845.2233000000001</v>
+        <v>281.6699000000001</v>
       </c>
       <c r="C17" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3470,7 +3477,7 @@
       </c>
       <c r="D17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>454.77669999999989</v>
+        <v>1268.3300999999999</v>
       </c>
       <c r="E17" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3478,19 +3485,19 @@
       </c>
       <c r="F17" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 859.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3498,23 +3505,23 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.93935857571986336</v>
+        <v>0.12870336624417289</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>454.77670000000001</v>
+        <v>439.77670000000001</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3522,12 +3529,12 @@
       </c>
       <c r="Q17" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>641.03057441999999</v>
-      </c>
-      <c r="T17" t="s">
+        <v>97.852123260000027</v>
+      </c>
+      <c r="T17" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="33">
         <v>466715.65779999999</v>
       </c>
     </row>
@@ -3537,7 +3544,7 @@
       </c>
       <c r="B18" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1401.4466000000002</v>
+        <v>708.4466000000001</v>
       </c>
       <c r="C18" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3545,51 +3552,51 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>898.55339999999978</v>
+        <v>841.5533999999999</v>
       </c>
       <c r="E18" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  898.553 unidades</v>
+        <v>Encomenda:  841.553 unidades</v>
       </c>
       <c r="F18" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 828.553 unidades</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36096169218701279</v>
+        <v>0.82863887978112261</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>-20</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>443.77670000000001</v>
+        <v>401.77670000000001</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3597,12 +3604,12 @@
       </c>
       <c r="Q18" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>486.86254884000004</v>
-      </c>
-      <c r="T18" t="s">
+        <v>246.11434884000002</v>
+      </c>
+      <c r="T18" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="33">
         <v>466729.6936</v>
       </c>
     </row>
@@ -3612,7 +3619,7 @@
       </c>
       <c r="B19" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1759.7147</v>
+        <v>173.1613000000001</v>
       </c>
       <c r="C19" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3620,7 +3627,7 @@
       </c>
       <c r="D19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>540.28530000000001</v>
+        <v>1376.8386999999998</v>
       </c>
       <c r="E19" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3628,15 +3635,15 @@
       </c>
       <c r="F19" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 898.553 unidades</v>
+        <v>-</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -3648,23 +3655,23 @@
       </c>
       <c r="K19" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42958729494654102</v>
+        <v>8.7051550346931572E-2</v>
       </c>
       <c r="L19" s="20">
         <f ca="1">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="M19" s="20">
         <f ca="1" xml:space="preserve"> 561.2853 + L19</f>
-        <v>540.28530000000001</v>
+        <v>535.28530000000001</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3672,12 +3679,12 @@
       </c>
       <c r="Q19" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>611.32488677999993</v>
-      </c>
-      <c r="T19" t="s">
+        <v>60.156235620000032</v>
+      </c>
+      <c r="T19" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="33">
         <v>462431.47960000002</v>
       </c>
     </row>
@@ -3687,7 +3694,7 @@
       </c>
       <c r="B20" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1180.4294</v>
+        <v>486.42939999999999</v>
       </c>
       <c r="C20" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3695,51 +3702,51 @@
       </c>
       <c r="D20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1119.5706</v>
+        <v>1063.5706</v>
       </c>
       <c r="E20" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1119.571 unidades</v>
+        <v>Encomenda:  1063.571 unidades</v>
       </c>
       <c r="F20" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 841.553 unidades</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.9992980894915453</v>
+        <v>0.4074080285212629</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" ref="L20:L30" ca="1" si="16">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>18</v>
+        <v>-33</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" ref="M20:M30" ca="1" si="17" xml:space="preserve"> 561.2853 + L20</f>
-        <v>579.28530000000001</v>
+        <v>528.28530000000001</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3747,12 +3754,12 @@
       </c>
       <c r="Q20" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>410.08117355999997</v>
-      </c>
-      <c r="T20" t="s">
+        <v>168.98557355999998</v>
+      </c>
+      <c r="T20" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="33">
         <v>458278.02</v>
       </c>
     </row>
@@ -3762,7 +3769,7 @@
       </c>
       <c r="B21" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>585.14409999999998</v>
+        <v>958.71469999999999</v>
       </c>
       <c r="C21" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3770,7 +3777,7 @@
       </c>
       <c r="D21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1714.8559</v>
+        <v>591.28530000000001</v>
       </c>
       <c r="E21" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3778,19 +3785,19 @@
       </c>
       <c r="F21" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1063.571 unidades</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3798,23 +3805,23 @@
       </c>
       <c r="K21" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.79135841411157903</v>
+        <v>0.30637534368835939</v>
       </c>
       <c r="L21" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>595.28530000000001</v>
+        <v>591.28530000000001</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3822,12 +3829,12 @@
       </c>
       <c r="Q21" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>203.27906033999997</v>
-      </c>
-      <c r="T21" t="s">
+        <v>333.05748677999998</v>
+      </c>
+      <c r="T21" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="33">
         <v>460247.05180000002</v>
       </c>
     </row>
@@ -3837,7 +3844,7 @@
       </c>
       <c r="B22" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1137.4294</v>
+        <v>412.42939999999999</v>
       </c>
       <c r="C22" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3845,23 +3852,23 @@
       </c>
       <c r="D22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1162.5706</v>
+        <v>1137.5706</v>
       </c>
       <c r="E22" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1162.571 unidades</v>
+        <v>Encomenda:  1137.571 unidades</v>
       </c>
       <c r="F22" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1119.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -3873,23 +3880,23 @@
       </c>
       <c r="K22" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.68352392563930453</v>
+        <v>0.96202644476523702</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>567.28530000000001</v>
+        <v>546.28530000000001</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3897,7 +3904,7 @@
       </c>
       <c r="Q22" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>395.14297355999997</v>
+        <v>143.27797355999999</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3906,7 +3913,7 @@
       </c>
       <c r="B23" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>563.14409999999998</v>
+        <v>-178.85590000000002</v>
       </c>
       <c r="C23" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3914,7 +3921,7 @@
       </c>
       <c r="D23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1736.8559</v>
+        <v>1728.8559</v>
       </c>
       <c r="E23" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3942,31 +3949,31 @@
       </c>
       <c r="K23" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5718795051361885E-2</v>
+        <v>0.36901984114394504</v>
       </c>
       <c r="L23" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>574.28530000000001</v>
+        <v>591.28530000000001</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>195.63626033999998</v>
+        <v>6023.86546034</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -3975,7 +3982,7 @@
       </c>
       <c r="B24" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1196.4294</v>
+        <v>379.42939999999999</v>
       </c>
       <c r="C24" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3983,15 +3990,15 @@
       </c>
       <c r="D24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1103.5706</v>
+        <v>1170.5706</v>
       </c>
       <c r="E24" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1103.571 unidades</v>
+        <v>Encomenda:  1170.571 unidades</v>
       </c>
       <c r="F24" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1162.571 unidades</v>
+        <v>Receção: 1137.571 unidades</v>
       </c>
       <c r="G24" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4011,23 +4018,23 @@
       </c>
       <c r="K24" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.55773600933198386</v>
+        <v>0.25443171598051639</v>
       </c>
       <c r="L24" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-32</v>
+        <v>18</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>529.28530000000001</v>
+        <v>579.28530000000001</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4035,7 +4042,7 @@
       </c>
       <c r="Q24" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>415.63957355999997</v>
+        <v>131.81377355999999</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -4044,7 +4051,7 @@
       </c>
       <c r="B25" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1762.7147</v>
+        <v>976.71469999999999</v>
       </c>
       <c r="C25" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4052,7 +4059,7 @@
       </c>
       <c r="D25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>537.28530000000001</v>
+        <v>573.28530000000001</v>
       </c>
       <c r="E25" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4060,7 +4067,7 @@
       </c>
       <c r="F25" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1103.571 unidades</v>
+        <v>Receção: 1170.571 unidades</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4072,7 +4079,7 @@
       </c>
       <c r="I25" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4080,23 +4087,23 @@
       </c>
       <c r="K25" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.54557108588417857</v>
+        <v>0.8363024653538863</v>
       </c>
       <c r="L25" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-24</v>
+        <v>12</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>537.28530000000001</v>
+        <v>573.28530000000001</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P25" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4104,7 +4111,7 @@
       </c>
       <c r="Q25" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>612.36708678000002</v>
+        <v>339.31068677999997</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -4113,7 +4120,7 @@
       </c>
       <c r="B26" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1192.4294</v>
+        <v>397.42939999999999</v>
       </c>
       <c r="C26" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4121,11 +4128,11 @@
       </c>
       <c r="D26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1107.5706</v>
+        <v>1152.5706</v>
       </c>
       <c r="E26" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1107.571 unidades</v>
+        <v>Encomenda:  1152.571 unidades</v>
       </c>
       <c r="F26" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4149,23 +4156,23 @@
       </c>
       <c r="K26" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97373401283378702</v>
+        <v>0.98521325703940266</v>
       </c>
       <c r="L26" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M26" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>570.28530000000001</v>
+        <v>579.28530000000001</v>
       </c>
       <c r="N26" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4173,7 +4180,7 @@
       </c>
       <c r="Q26" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>414.24997356</v>
+        <v>138.06697355999998</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -4182,7 +4189,7 @@
       </c>
       <c r="B27" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>652.14409999999998</v>
+        <v>-148.85590000000002</v>
       </c>
       <c r="C27" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4190,7 +4197,7 @@
       </c>
       <c r="D27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1647.8559</v>
+        <v>1698.8559</v>
       </c>
       <c r="E27" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4218,31 +4225,31 @@
       </c>
       <c r="K27" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5406156821122803E-3</v>
+        <v>0.13509945849117988</v>
       </c>
       <c r="L27" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>540.28530000000001</v>
+        <v>546.28530000000001</v>
       </c>
       <c r="N27" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="Q27" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>226.55486033999998</v>
+        <v>5014.2874603399996</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -4251,7 +4258,7 @@
       </c>
       <c r="B28" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1205.4294</v>
+        <v>472.42939999999999</v>
       </c>
       <c r="C28" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4259,15 +4266,15 @@
       </c>
       <c r="D28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1094.5706</v>
+        <v>1077.5706</v>
       </c>
       <c r="E28" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1094.571 unidades</v>
+        <v>Encomenda:  1077.571 unidades</v>
       </c>
       <c r="F28" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1107.571 unidades</v>
+        <v>Receção: 1152.571 unidades</v>
       </c>
       <c r="G28" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4287,23 +4294,23 @@
       </c>
       <c r="K28" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.99438768702731328</v>
+        <v>0.61951051446398886</v>
       </c>
       <c r="L28" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-7</v>
+        <v>-30</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>554.28530000000001</v>
+        <v>531.28530000000001</v>
       </c>
       <c r="N28" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4311,7 +4318,7 @@
       </c>
       <c r="Q28" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>418.76617355999997</v>
+        <v>164.12197355999999</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -4320,7 +4327,7 @@
       </c>
       <c r="B29" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>618.14409999999998</v>
+        <v>-65.85590000000002</v>
       </c>
       <c r="C29" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4328,7 +4335,7 @@
       </c>
       <c r="D29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1681.8559</v>
+        <v>1615.8559</v>
       </c>
       <c r="E29" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4356,31 +4363,31 @@
       </c>
       <c r="K29" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89365078724105285</v>
+        <v>0.60204342091954222</v>
       </c>
       <c r="L29" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>-23</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>587.28530000000001</v>
+        <v>538.28530000000001</v>
       </c>
       <c r="N29" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P29" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>214.74326033999998</v>
+        <v>2221.1216603399998</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -4389,7 +4396,7 @@
       </c>
       <c r="B30" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1127.4294</v>
+        <v>448.42939999999999</v>
       </c>
       <c r="C30" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4397,15 +4404,15 @@
       </c>
       <c r="D30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1172.5706</v>
+        <v>1101.5706</v>
       </c>
       <c r="E30" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1172.571 unidades</v>
+        <v>Encomenda:  1101.571 unidades</v>
       </c>
       <c r="F30" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1094.571 unidades</v>
+        <v>Receção: 1077.571 unidades</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4417,31 +4424,31 @@
       </c>
       <c r="I30" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4735762510735303</v>
+        <v>0.70444844503125037</v>
       </c>
       <c r="L30" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>585.28530000000001</v>
+        <v>563.28530000000001</v>
       </c>
       <c r="N30" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P30" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4449,7 +4456,7 @@
       </c>
       <c r="Q30" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>391.66897355999998</v>
+        <v>155.78437355999998</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -4458,7 +4465,7 @@
       </c>
       <c r="B31" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1959.9614000000001</v>
+        <v>70.390800000000013</v>
       </c>
       <c r="C31" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4466,7 +4473,7 @@
       </c>
       <c r="D31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>340.03859999999986</v>
+        <v>1479.6091999999999</v>
       </c>
       <c r="E31" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4474,15 +4481,15 @@
       </c>
       <c r="F31" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1172.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G31" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -4494,23 +4501,23 @@
       </c>
       <c r="K31" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26445680171389829</v>
+        <v>0.339729720825658</v>
       </c>
       <c r="L31" s="20">
         <f ca="1">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="M31" s="20">
         <f ca="1" xml:space="preserve"> 347.0386 + L31</f>
-        <v>340.03859999999997</v>
+        <v>378.03859999999997</v>
       </c>
       <c r="N31" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P31" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4518,7 +4525,7 @@
       </c>
       <c r="Q31" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>680.89059036000003</v>
+        <v>24.453763920000004</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -4527,7 +4534,7 @@
       </c>
       <c r="B32" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1616.9228000000003</v>
+        <v>807.92280000000017</v>
       </c>
       <c r="C32" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4535,7 +4542,7 @@
       </c>
       <c r="D32" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>683.07719999999972</v>
+        <v>742.07719999999983</v>
       </c>
       <c r="E32" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4543,19 +4550,19 @@
       </c>
       <c r="F32" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1101.571 unidades</v>
       </c>
       <c r="G32" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4563,23 +4570,23 @@
       </c>
       <c r="K32" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.95036938487813349</v>
+        <v>0.53090071975804998</v>
       </c>
       <c r="L32" s="20">
         <f t="shared" ref="L32:L52" ca="1" si="18">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" ref="M32:M52" ca="1" si="19" xml:space="preserve"> 347.0386 + L32</f>
-        <v>343.03859999999997</v>
+        <v>364.03859999999997</v>
       </c>
       <c r="N32" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O32" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P32" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4587,7 +4594,7 @@
       </c>
       <c r="Q32" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>561.7189807200001</v>
+        <v>280.67238072000004</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4603,7 @@
       </c>
       <c r="B33" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1264.8842000000004</v>
+        <v>459.88420000000019</v>
       </c>
       <c r="C33" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4604,7 +4611,7 @@
       </c>
       <c r="D33" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1035.1157999999996</v>
+        <v>1090.1157999999998</v>
       </c>
       <c r="E33" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4632,23 +4639,23 @@
       </c>
       <c r="K33" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8981621153616266</v>
+        <v>0.99338416770103521</v>
       </c>
       <c r="L33" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>352.03859999999997</v>
+        <v>348.03859999999997</v>
       </c>
       <c r="N33" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O33" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P33" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4656,7 +4663,7 @@
       </c>
       <c r="Q33" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>439.42077108000012</v>
+        <v>159.76377108000005</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,7 +4672,7 @@
       </c>
       <c r="B34" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>945.84560000000045</v>
+        <v>99.845600000000218</v>
       </c>
       <c r="C34" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4673,11 +4680,11 @@
       </c>
       <c r="D34" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1354.1543999999994</v>
+        <v>1450.1543999999999</v>
       </c>
       <c r="E34" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1354.154 unidades</v>
+        <v>Encomenda:  1450.154 unidades</v>
       </c>
       <c r="F34" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4701,23 +4708,23 @@
       </c>
       <c r="K34" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7898547530653276</v>
+        <v>0.67498772669674634</v>
       </c>
       <c r="L34" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-28</v>
+        <v>13</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>319.03859999999997</v>
+        <v>360.03859999999997</v>
       </c>
       <c r="N34" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O34" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P34" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4725,7 +4732,7 @@
       </c>
       <c r="Q34" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>328.58676144000015</v>
+        <v>34.686361440000077</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,7 +4741,7 @@
       </c>
       <c r="B35" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>600.80700000000047</v>
+        <v>-263.19299999999976</v>
       </c>
       <c r="C35" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4742,7 +4749,7 @@
       </c>
       <c r="D35" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1699.1929999999995</v>
+        <v>1813.1929999999998</v>
       </c>
       <c r="E35" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4762,7 +4769,7 @@
       </c>
       <c r="I35" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4770,31 +4777,31 @@
       </c>
       <c r="K35" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6447482561315785E-2</v>
+        <v>0.91657336938955059</v>
       </c>
       <c r="L35" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="M35" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>345.03859999999997</v>
+        <v>363.03859999999997</v>
       </c>
       <c r="N35" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O35" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P35" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="Q35" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>208.72035180000015</v>
+        <v>8850.5667518000009</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4810,7 @@
       </c>
       <c r="B36" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1609.9227999999998</v>
+        <v>861.92280000000017</v>
       </c>
       <c r="C36" s="20" t="b">
         <f t="shared" ref="C36:C52" ca="1" si="20">AND(B36&lt;$T$64,MOD(A36,$T$62)=0)</f>
@@ -4811,7 +4818,7 @@
       </c>
       <c r="D36" s="20">
         <f t="shared" ref="D36:D52" ca="1" si="21">$T$65 - B36</f>
-        <v>690.07720000000018</v>
+        <v>688.07719999999983</v>
       </c>
       <c r="E36" s="20" t="str">
         <f t="shared" ref="E36:E52" ca="1" si="22" xml:space="preserve"> IF(C36 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B36,3) &amp; " unidades", "-")</f>
@@ -4819,7 +4826,7 @@
       </c>
       <c r="F36" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1354.154 unidades</v>
+        <v>Receção: 1450.154 unidades</v>
       </c>
       <c r="G36" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4831,7 +4838,7 @@
       </c>
       <c r="I36" s="20">
         <f t="shared" ref="I36:I52" ca="1" si="23">IF(K36&lt;=0.6,1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4839,23 +4846,23 @@
       </c>
       <c r="K36" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46795933962778413</v>
+        <v>0.87755202528085186</v>
       </c>
       <c r="L36" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>345.03859999999997</v>
+        <v>325.03859999999997</v>
       </c>
       <c r="N36" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O36" s="20">
         <f t="shared" ref="O36:O52" ca="1" si="24">IF(B36 &lt;= 0, 1 + O35, O35)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P36" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4863,7 +4870,7 @@
       </c>
       <c r="Q36" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>559.28718071999992</v>
+        <v>299.43198072000007</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4879,7 @@
       </c>
       <c r="B37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1296.8842</v>
+        <v>477.88420000000019</v>
       </c>
       <c r="C37" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4880,7 +4887,7 @@
       </c>
       <c r="D37" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1003.1158</v>
+        <v>1072.1157999999998</v>
       </c>
       <c r="E37" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4900,7 +4907,7 @@
       </c>
       <c r="I37" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4908,23 +4915,23 @@
       </c>
       <c r="K37" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.94210257933782482</v>
+        <v>0.3962697360438171</v>
       </c>
       <c r="L37" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-34</v>
+        <v>37</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>313.03859999999997</v>
+        <v>384.03859999999997</v>
       </c>
       <c r="N37" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O37" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P37" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4932,7 +4939,7 @@
       </c>
       <c r="Q37" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>450.53757107999996</v>
+        <v>166.01697108000005</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4948,7 @@
       </c>
       <c r="B38" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>977.84559999999999</v>
+        <v>95.845600000000218</v>
       </c>
       <c r="C38" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4949,11 +4956,11 @@
       </c>
       <c r="D38" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1322.1543999999999</v>
+        <v>1454.1543999999999</v>
       </c>
       <c r="E38" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1322.154 unidades</v>
+        <v>Encomenda:  1454.154 unidades</v>
       </c>
       <c r="F38" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4969,31 +4976,31 @@
       </c>
       <c r="I38" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.14726912387721713</v>
+        <v>0.60285583974671031</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-28</v>
+        <v>35</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>319.03859999999997</v>
+        <v>382.03859999999997</v>
       </c>
       <c r="N38" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O38" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P38" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5001,7 +5008,7 @@
       </c>
       <c r="Q38" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>339.70356143999999</v>
+        <v>33.296761440000076</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5017,7 @@
       </c>
       <c r="B39" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1952.9614000000001</v>
+        <v>-260.19299999999976</v>
       </c>
       <c r="C39" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5018,7 +5025,7 @@
       </c>
       <c r="D39" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>347.03859999999986</v>
+        <v>1810.1929999999998</v>
       </c>
       <c r="E39" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5026,15 +5033,15 @@
       </c>
       <c r="F39" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1322.154 unidades</v>
+        <v>-</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" ca="1" si="23"/>
@@ -5046,31 +5053,31 @@
       </c>
       <c r="K39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.27995047760184089</v>
+        <v>0.49955765539424979</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>347.03859999999997</v>
+        <v>356.03859999999997</v>
       </c>
       <c r="N39" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O39" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P39" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="Q39" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>678.45879035999997</v>
+        <v>8749.6089518000008</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,7 +5086,7 @@
       </c>
       <c r="B40" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1586.9228000000003</v>
+        <v>825.92280000000017</v>
       </c>
       <c r="C40" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5087,7 +5094,7 @@
       </c>
       <c r="D40" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>713.07719999999972</v>
+        <v>724.07719999999983</v>
       </c>
       <c r="E40" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5095,15 +5102,15 @@
       </c>
       <c r="F40" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1454.154 unidades</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" ca="1" si="23"/>
@@ -5115,23 +5122,23 @@
       </c>
       <c r="K40" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.74477281064659628</v>
+        <v>0.70069813466122721</v>
       </c>
       <c r="L40" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M40" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>366.03859999999997</v>
+        <v>368.03859999999997</v>
       </c>
       <c r="N40" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O40" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P40" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5139,7 +5146,7 @@
       </c>
       <c r="Q40" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>551.29698072000008</v>
+        <v>286.92558072000003</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5155,7 @@
       </c>
       <c r="B41" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1273.8842000000004</v>
+        <v>456.88420000000019</v>
       </c>
       <c r="C41" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5156,7 +5163,7 @@
       </c>
       <c r="D41" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1026.1157999999996</v>
+        <v>1093.1157999999998</v>
       </c>
       <c r="E41" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5184,23 +5191,23 @@
       </c>
       <c r="K41" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1574754916051808E-2</v>
+        <v>0.34646911383434831</v>
       </c>
       <c r="L41" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-34</v>
+        <v>22</v>
       </c>
       <c r="M41" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>313.03859999999997</v>
+        <v>369.03859999999997</v>
       </c>
       <c r="N41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O41" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P41" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5208,7 +5215,7 @@
       </c>
       <c r="Q41" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>442.54737108000012</v>
+        <v>158.72157108000005</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,7 +5224,7 @@
       </c>
       <c r="B42" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>931.84560000000045</v>
+        <v>73.845600000000218</v>
       </c>
       <c r="C42" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5225,11 +5232,11 @@
       </c>
       <c r="D42" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1368.1543999999994</v>
+        <v>1476.1543999999999</v>
       </c>
       <c r="E42" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1368.154 unidades</v>
+        <v>Encomenda:  1476.154 unidades</v>
       </c>
       <c r="F42" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5253,23 +5260,23 @@
       </c>
       <c r="K42" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0563354941608454E-2</v>
+        <v>0.28163325134133799</v>
       </c>
       <c r="L42" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-5</v>
+        <v>36</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>342.03859999999997</v>
+        <v>383.03859999999997</v>
       </c>
       <c r="N42" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O42" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P42" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5277,7 +5284,7 @@
       </c>
       <c r="Q42" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>323.72316144000013</v>
+        <v>25.653961440000074</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,7 +5293,7 @@
       </c>
       <c r="B43" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1975.9614000000001</v>
+        <v>1236.9614000000001</v>
       </c>
       <c r="C43" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5294,7 +5301,7 @@
       </c>
       <c r="D43" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>324.03859999999986</v>
+        <v>313.03859999999986</v>
       </c>
       <c r="E43" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5302,7 +5309,7 @@
       </c>
       <c r="F43" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1368.154 unidades</v>
+        <v>Receção: 1476.154 unidades</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -5322,23 +5329,23 @@
       </c>
       <c r="K43" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2765825116482201E-2</v>
+        <v>0.36306126304288733</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-23</v>
+        <v>-34</v>
       </c>
       <c r="M43" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>324.03859999999997</v>
+        <v>313.03859999999997</v>
       </c>
       <c r="N43" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O43" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P43" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5346,7 +5353,7 @@
       </c>
       <c r="Q43" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>686.44899036000004</v>
+        <v>429.72039036000001</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,7 +5362,7 @@
       </c>
       <c r="B44" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1616.9228000000003</v>
+        <v>903.92280000000017</v>
       </c>
       <c r="C44" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5363,7 +5370,7 @@
       </c>
       <c r="D44" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>683.07719999999972</v>
+        <v>646.07719999999983</v>
       </c>
       <c r="E44" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5383,7 +5390,7 @@
       </c>
       <c r="I44" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5391,23 +5398,23 @@
       </c>
       <c r="K44" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.78586904861881002</v>
+        <v>0.59104538789682304</v>
       </c>
       <c r="L44" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="M44" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>359.03859999999997</v>
+        <v>333.03859999999997</v>
       </c>
       <c r="N44" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O44" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P44" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5415,7 +5422,7 @@
       </c>
       <c r="Q44" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>561.7189807200001</v>
+        <v>314.02278072000007</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,7 +5431,7 @@
       </c>
       <c r="B45" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1263.8842000000004</v>
+        <v>565.88420000000019</v>
       </c>
       <c r="C45" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5432,7 +5439,7 @@
       </c>
       <c r="D45" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1036.1157999999996</v>
+        <v>984.11579999999981</v>
       </c>
       <c r="E45" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5452,7 +5459,7 @@
       </c>
       <c r="I45" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5460,23 +5467,23 @@
       </c>
       <c r="K45" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.79256463507459807</v>
+        <v>0.17200202138237142</v>
       </c>
       <c r="L45" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="M45" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>353.03859999999997</v>
+        <v>338.03859999999997</v>
       </c>
       <c r="N45" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O45" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P45" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5484,7 +5491,7 @@
       </c>
       <c r="Q45" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>439.07337108000013</v>
+        <v>196.58817108000005</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,7 +5500,7 @@
       </c>
       <c r="B46" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>908.84560000000045</v>
+        <v>208.84560000000022</v>
       </c>
       <c r="C46" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5501,11 +5508,11 @@
       </c>
       <c r="D46" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1391.1543999999994</v>
+        <v>1341.1543999999999</v>
       </c>
       <c r="E46" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1391.154 unidades</v>
+        <v>Encomenda:  1341.154 unidades</v>
       </c>
       <c r="F46" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5521,31 +5528,31 @@
       </c>
       <c r="I46" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85540140256879249</v>
+        <v>0.50439841900071147</v>
       </c>
       <c r="L46" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M46" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>355.03859999999997</v>
+        <v>357.03859999999997</v>
       </c>
       <c r="N46" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O46" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P46" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5553,7 +5560,7 @@
       </c>
       <c r="Q46" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>315.73296144000017</v>
+        <v>72.552961440000075</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5569,7 @@
       </c>
       <c r="B47" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>538.80700000000047</v>
+        <v>1202.9614000000001</v>
       </c>
       <c r="C47" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5570,7 +5577,7 @@
       </c>
       <c r="D47" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1761.1929999999995</v>
+        <v>347.03859999999986</v>
       </c>
       <c r="E47" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5578,19 +5585,19 @@
       </c>
       <c r="F47" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1341.154 unidades</v>
       </c>
       <c r="G47" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5598,23 +5605,23 @@
       </c>
       <c r="K47" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89459155194312467</v>
+        <v>0.2728833250586794</v>
       </c>
       <c r="L47" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M47" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>370.03859999999997</v>
+        <v>347.03859999999997</v>
       </c>
       <c r="N47" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O47" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P47" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5622,7 +5629,7 @@
       </c>
       <c r="Q47" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>187.18155180000016</v>
+        <v>417.90879036000001</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5638,7 @@
       </c>
       <c r="B48" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1586.9227999999998</v>
+        <v>848.92280000000017</v>
       </c>
       <c r="C48" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5639,7 +5646,7 @@
       </c>
       <c r="D48" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>713.07720000000018</v>
+        <v>701.07719999999983</v>
       </c>
       <c r="E48" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5647,19 +5654,19 @@
       </c>
       <c r="F48" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1391.154 unidades</v>
+        <v>-</v>
       </c>
       <c r="G48" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5667,23 +5674,23 @@
       </c>
       <c r="K48" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.69662484870961305</v>
+        <v>7.629830398171733E-2</v>
       </c>
       <c r="L48" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>343.03859999999997</v>
+        <v>354.03859999999997</v>
       </c>
       <c r="N48" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O48" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P48" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5691,7 +5698,7 @@
       </c>
       <c r="Q48" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>551.29698071999997</v>
+        <v>294.91578072000004</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -5700,7 +5707,7 @@
       </c>
       <c r="B49" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1220.8842</v>
+        <v>480.88420000000019</v>
       </c>
       <c r="C49" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5708,7 +5715,7 @@
       </c>
       <c r="D49" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1079.1158</v>
+        <v>1069.1157999999998</v>
       </c>
       <c r="E49" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5728,7 +5735,7 @@
       </c>
       <c r="I49" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5736,23 +5743,23 @@
       </c>
       <c r="K49" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36765044953076542</v>
+        <v>0.63703171770983202</v>
       </c>
       <c r="L49" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M49" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>366.03859999999997</v>
+        <v>368.03859999999997</v>
       </c>
       <c r="N49" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O49" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P49" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5760,7 +5767,7 @@
       </c>
       <c r="Q49" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>424.13517107999996</v>
+        <v>167.05917108000006</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -5769,7 +5776,7 @@
       </c>
       <c r="B50" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>870.84559999999999</v>
+        <v>123.84560000000022</v>
       </c>
       <c r="C50" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5777,11 +5784,11 @@
       </c>
       <c r="D50" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1429.1543999999999</v>
+        <v>1426.1543999999999</v>
       </c>
       <c r="E50" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1429.154 unidades</v>
+        <v>Encomenda:  1426.154 unidades</v>
       </c>
       <c r="F50" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5797,31 +5804,31 @@
       </c>
       <c r="I50" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.27456129362902604</v>
+        <v>0.97034091414785795</v>
       </c>
       <c r="L50" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M50" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>350.03859999999997</v>
+        <v>357.03859999999997</v>
       </c>
       <c r="N50" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O50" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P50" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5829,7 +5836,7 @@
       </c>
       <c r="Q50" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>302.53176143999997</v>
+        <v>43.023961440000072</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -5838,7 +5845,7 @@
       </c>
       <c r="B51" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1980.9614000000001</v>
+        <v>-197.19299999999976</v>
       </c>
       <c r="C51" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5846,7 +5853,7 @@
       </c>
       <c r="D51" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>319.03859999999986</v>
+        <v>1747.1929999999998</v>
       </c>
       <c r="E51" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5854,15 +5861,15 @@
       </c>
       <c r="F51" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1429.154 unidades</v>
+        <v>-</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="20">
         <f t="shared" ca="1" si="23"/>
@@ -5874,31 +5881,31 @@
       </c>
       <c r="K51" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63995740568694182</v>
+        <v>0.91550162970075533</v>
       </c>
       <c r="L51" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-28</v>
+        <v>-26</v>
       </c>
       <c r="M51" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>319.03859999999997</v>
+        <v>321.03859999999997</v>
       </c>
       <c r="N51" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O51" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P51" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="Q51" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>688.18599036000001</v>
+        <v>6629.4951517999998</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -5907,7 +5914,7 @@
       </c>
       <c r="B52" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1603.9228000000003</v>
+        <v>881.92280000000017</v>
       </c>
       <c r="C52" s="21" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5915,7 +5922,7 @@
       </c>
       <c r="D52" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>696.07719999999972</v>
+        <v>668.07719999999983</v>
       </c>
       <c r="E52" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5923,19 +5930,19 @@
       </c>
       <c r="F52" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1426.154 unidades</v>
       </c>
       <c r="G52" s="21">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="21">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" s="21">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" ca="1" si="5"/>
@@ -5943,23 +5950,23 @@
       </c>
       <c r="K52" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10198059732269416</v>
+        <v>0.79439420892144341</v>
       </c>
       <c r="L52" s="21">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M52" s="21">
         <f t="shared" ca="1" si="19"/>
-        <v>377.03859999999997</v>
+        <v>347.03859999999997</v>
       </c>
       <c r="N52" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O52" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P52" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5967,7 +5974,7 @@
       </c>
       <c r="Q52" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>557.20278072000008</v>
+        <v>306.37998072000005</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -6007,23 +6014,23 @@
       </c>
       <c r="M53" s="18">
         <f ca="1">SUM(M4:M52)</f>
-        <v>20764.923299999995</v>
+        <v>20823.923299999995</v>
       </c>
       <c r="N53" s="18">
         <f ca="1" xml:space="preserve"> N52</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O53" s="18">
         <f ca="1" xml:space="preserve"> O52</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P53" s="18">
         <f ca="1">SUM(P4:P52)</f>
-        <v>0</v>
+        <v>1769</v>
       </c>
       <c r="Q53" s="18">
         <f ca="1">SUM(Q4:Q52)</f>
-        <v>24207.530824100002</v>
+        <v>69866.471708800018</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -6095,7 +6102,7 @@
       </c>
       <c r="F57" s="27">
         <f ca="1">AVERAGE(B3:B52)</f>
-        <v>1304.2919300000003</v>
+        <v>498.44224000000014</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -6122,7 +6129,7 @@
       </c>
       <c r="F58" s="27">
         <f ca="1">N53</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -6143,7 +6150,7 @@
       </c>
       <c r="F59" s="27">
         <f ca="1">O53</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -6171,7 +6178,7 @@
       </c>
       <c r="F60" s="27">
         <f ca="1">M53</f>
-        <v>20764.923299999995</v>
+        <v>20823.923299999995</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -6199,7 +6206,7 @@
       </c>
       <c r="F61" s="27">
         <f ca="1">F57*T59</f>
-        <v>453.11101648200008</v>
+        <v>173.15883417600006</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -6226,7 +6233,7 @@
       </c>
       <c r="F62" s="27">
         <f ca="1">F60 * (T57-T56)</f>
-        <v>487975.69754999987</v>
+        <v>489362.19754999987</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -6251,7 +6258,7 @@
       </c>
       <c r="F63" s="32">
         <f ca="1">F62-Q53</f>
-        <v>463768.16672589985</v>
+        <v>419495.72584119986</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -6265,7 +6272,7 @@
         <v>28</v>
       </c>
       <c r="T64" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.3">
@@ -6283,7 +6290,7 @@
         <v>29</v>
       </c>
       <c r="T65" s="9">
-        <v>2300</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.3">

--- a/Excel/MEIO_TP.xlsx
+++ b/Excel/MEIO_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisb\Desktop\MEIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5612521-CAA3-48A7-A2AE-19B9F7739548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3023908-1D9E-4A6F-8E4C-712044B137C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1639,13 +1639,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>522514</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>272141</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2334,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B3" s="19">
         <f xml:space="preserve"> T65</f>
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>30</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B4" s="20">
         <f ca="1">IF(G4=1,INDIRECT(ADDRESS(ROW(B4)-H4,4))+B3-M4,B3-M4)</f>
-        <v>1159.2233000000001</v>
+        <v>1341.2233000000001</v>
       </c>
       <c r="C4" s="20" t="b">
         <f t="shared" ref="C4:C35" ca="1" si="0">AND(B4&lt;$T$64,MOD(A4,$T$62)=0)</f>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D4" s="20">
         <f t="shared" ref="D4:D35" ca="1" si="1">$T$65 - B4</f>
-        <v>390.77669999999989</v>
+        <v>408.77669999999989</v>
       </c>
       <c r="E4" s="20" t="str">
         <f t="shared" ref="E4:E35" ca="1" si="2" xml:space="preserve"> IF(C4 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B4,3) &amp; " unidades", "-")</f>
@@ -2531,15 +2531,15 @@
       </c>
       <c r="K4" s="20">
         <f ca="1">RAND()</f>
-        <v>0.45796079663879918</v>
+        <v>2.4260215854974287E-2</v>
       </c>
       <c r="L4" s="20">
         <f ca="1" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>-31</v>
+        <v>-13</v>
       </c>
       <c r="M4" s="20">
         <f t="shared" ref="M4:M18" ca="1" si="6">421.7767 + L4</f>
-        <v>390.77670000000001</v>
+        <v>408.77670000000001</v>
       </c>
       <c r="N4" s="20">
         <v>0</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="Q4" s="30">
         <f ca="1">$T$59*B4+$T$60*P4+T61*(1/$T$62)</f>
-        <v>852.71417442000006</v>
+        <v>915.94097441999997</v>
       </c>
       <c r="T4" s="34" t="s">
         <v>60</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="B5" s="20">
         <f t="shared" ref="B5:B52" ca="1" si="8">IF(G5=1,INDIRECT(ADDRESS(ROW(B5)-H5,4))+B4-M5,B4-M5)</f>
-        <v>734.4466000000001</v>
+        <v>928.4466000000001</v>
       </c>
       <c r="C5" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="D5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>815.5533999999999</v>
+        <v>821.5533999999999</v>
       </c>
       <c r="E5" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="I5" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -2605,15 +2605,15 @@
       </c>
       <c r="K5" s="20">
         <f t="shared" ref="K5:K52" ca="1" si="11">RAND()</f>
-        <v>0.27913452002390571</v>
+        <v>0.72890287273675136</v>
       </c>
       <c r="L5" s="20">
         <f t="shared" ref="L5:L18" ca="1" si="12" xml:space="preserve"> RANDBETWEEN(-36.2808,36.2808)</f>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>424.77670000000001</v>
+        <v>412.77670000000001</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" ref="N5:N52" ca="1" si="13">IF(C5 = TRUE(), 1+ N4, N4)</f>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="Q5" s="30">
         <f t="shared" ref="Q5:Q52" ca="1" si="15">$T$59*B5+$T$60*P5+T62*(1/$T$62)</f>
-        <v>256.14674883999999</v>
+        <v>323.54234884000005</v>
       </c>
       <c r="T5" s="34" t="s">
         <v>61</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B6" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>331.6699000000001</v>
+        <v>536.6699000000001</v>
       </c>
       <c r="C6" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="D6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1218.3300999999999</v>
+        <v>1213.3300999999999</v>
       </c>
       <c r="E6" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1218.33 unidades</v>
+        <v>Encomenda:  1213.33 unidades</v>
       </c>
       <c r="F6" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2672,23 +2672,23 @@
       </c>
       <c r="I6" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10757868150214622</v>
+        <v>0.80472930907688067</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-19</v>
+        <v>-30</v>
       </c>
       <c r="M6" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>402.77670000000001</v>
+        <v>391.77670000000001</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="Q6" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>115.22212326000003</v>
+        <v>186.43912326000003</v>
       </c>
       <c r="T6" s="34" t="s">
         <v>62</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B7" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1111.2233000000001</v>
+        <v>81.893200000000093</v>
       </c>
       <c r="C7" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D7" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>438.77669999999989</v>
+        <v>1668.1068</v>
       </c>
       <c r="E7" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2735,19 +2735,19 @@
       </c>
       <c r="F7" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1218.33 unidades</v>
+        <v>-</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -2755,15 +2755,15 @@
       </c>
       <c r="K7" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71062062089068168</v>
+        <v>0.16737386272653476</v>
       </c>
       <c r="L7" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>438.77670000000001</v>
+        <v>454.77670000000001</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="Q7" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>761.03897442000005</v>
+        <v>503.44969768000004</v>
       </c>
       <c r="T7" s="34" t="s">
         <v>63</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B8" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>675.4466000000001</v>
+        <v>896.4466000000001</v>
       </c>
       <c r="C8" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2802,23 +2802,23 @@
       </c>
       <c r="D8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>874.5533999999999</v>
+        <v>853.5533999999999</v>
       </c>
       <c r="E8" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  874.553 unidades</v>
+        <v>Encomenda:  853.553 unidades</v>
       </c>
       <c r="F8" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1213.33 unidades</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -2830,15 +2830,15 @@
       </c>
       <c r="K8" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28217606916922711</v>
+        <v>0.44923508781809363</v>
       </c>
       <c r="L8" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>-23</v>
       </c>
       <c r="M8" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>435.77670000000001</v>
+        <v>398.77670000000001</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="Q8" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>1009.65014884</v>
+        <v>1186.4255488399999</v>
       </c>
       <c r="T8" s="34" t="s">
         <v>64</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B9" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1154.2233000000001</v>
+        <v>1309.2233000000001</v>
       </c>
       <c r="C9" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>395.77669999999989</v>
+        <v>440.77669999999989</v>
       </c>
       <c r="E9" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="F9" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 874.553 unidades</v>
+        <v>Receção: 853.553 unidades</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -2905,15 +2905,15 @@
       </c>
       <c r="K9" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25189664026488401</v>
+        <v>0.31333847729090969</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-26</v>
+        <v>19</v>
       </c>
       <c r="M9" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>395.77670000000001</v>
+        <v>440.77670000000001</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" ca="1" si="13"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="Q9" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>400.97717442000004</v>
+        <v>454.82417442000002</v>
       </c>
       <c r="T9" s="34" t="s">
         <v>65</v>
@@ -2944,19 +2944,19 @@
       </c>
       <c r="B10" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>764.4466000000001</v>
+        <v>866.4466000000001</v>
       </c>
       <c r="C10" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>785.5533999999999</v>
+        <v>883.5533999999999</v>
       </c>
       <c r="E10" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-</v>
+        <v>Encomenda:  883.553 unidades</v>
       </c>
       <c r="F10" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -2972,27 +2972,27 @@
       </c>
       <c r="I10" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K10" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.16776666308302612</v>
+        <v>0.74276224657026113</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-32</v>
+        <v>21</v>
       </c>
       <c r="M10" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>389.77670000000001</v>
+        <v>442.77670000000001</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="7"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="Q10" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>265.56874884000001</v>
+        <v>301.00354884000001</v>
       </c>
       <c r="T10" s="34" t="s">
         <v>66</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B11" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>311.6699000000001</v>
+        <v>450.6699000000001</v>
       </c>
       <c r="C11" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1238.3300999999999</v>
+        <v>1299.3300999999999</v>
       </c>
       <c r="E11" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3055,19 +3055,19 @@
       </c>
       <c r="K11" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.90057675841442131</v>
+        <v>0.85976433023859322</v>
       </c>
       <c r="L11" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>-6</v>
       </c>
       <c r="M11" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>452.77670000000001</v>
+        <v>415.77670000000001</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="7"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="Q11" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>108.27412326000002</v>
+        <v>156.56272326000004</v>
       </c>
       <c r="T11" s="34" t="s">
         <v>67</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B12" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-106.10679999999991</v>
+        <v>938.4466000000001</v>
       </c>
       <c r="C12" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3102,23 +3102,23 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1656.1068</v>
+        <v>811.5533999999999</v>
       </c>
       <c r="E12" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1656.107 unidades</v>
+        <v>Encomenda:  811.553 unidades</v>
       </c>
       <c r="F12" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 883.553 unidades</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -3130,31 +3130,31 @@
       </c>
       <c r="K12" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.93251003586032244</v>
+        <v>0.76158893189849453</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-4</v>
+        <v>-26</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>417.77670000000001</v>
+        <v>395.77670000000001</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>3567.13849768</v>
+        <v>326.01634884000003</v>
       </c>
       <c r="T12" s="34" t="s">
         <v>68</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B13" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-548.88349999999991</v>
+        <v>525.6699000000001</v>
       </c>
       <c r="C13" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>2098.8834999999999</v>
+        <v>1224.3300999999999</v>
       </c>
       <c r="E13" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="I13" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3205,31 +3205,31 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33127303143014952</v>
+        <v>0.97807076561723238</v>
       </c>
       <c r="L13" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <v>-9</v>
       </c>
       <c r="M13" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>442.77670000000001</v>
+        <v>412.77670000000001</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>18475.3178721</v>
+        <v>182.61772326000002</v>
       </c>
       <c r="T13" s="34" t="s">
         <v>69</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B14" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>664.4466000000001</v>
+        <v>902.4466000000001</v>
       </c>
       <c r="C14" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3252,15 +3252,15 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>885.5533999999999</v>
+        <v>847.5533999999999</v>
       </c>
       <c r="E14" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  885.553 unidades</v>
+        <v>Encomenda:  847.553 unidades</v>
       </c>
       <c r="F14" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1656.107 unidades</v>
+        <v>Receção: 811.553 unidades</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -3280,23 +3280,23 @@
       </c>
       <c r="K14" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.55518137429109948</v>
+        <v>0.52009009195139011</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M14" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>442.77670000000001</v>
+        <v>434.77670000000001</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="Q14" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>230.82874884000003</v>
+        <v>313.50994884000005</v>
       </c>
       <c r="T14" s="34" t="s">
         <v>70</v>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B15" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1133.2233000000001</v>
+        <v>1305.2233000000001</v>
       </c>
       <c r="C15" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="D15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>416.77669999999989</v>
+        <v>444.77669999999989</v>
       </c>
       <c r="E15" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="F15" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 885.553 unidades</v>
+        <v>Receção: 847.553 unidades</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="I15" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3355,23 +3355,23 @@
       </c>
       <c r="K15" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.77109627195350761</v>
+        <v>0.24538313865434669</v>
       </c>
       <c r="L15" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="M15" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>416.77670000000001</v>
+        <v>444.77670000000001</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="Q15" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>393.68177442000001</v>
+        <v>453.43457442000005</v>
       </c>
       <c r="T15" s="34" t="s">
         <v>71</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B16" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>721.4466000000001</v>
+        <v>915.4466000000001</v>
       </c>
       <c r="C16" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3402,11 +3402,11 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>828.5533999999999</v>
+        <v>834.5533999999999</v>
       </c>
       <c r="E16" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  828.553 unidades</v>
+        <v>Encomenda:  834.553 unidades</v>
       </c>
       <c r="F16" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3430,23 +3430,23 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.90193618035626899</v>
+        <v>0.74497896166331146</v>
       </c>
       <c r="L16" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-10</v>
+        <v>-32</v>
       </c>
       <c r="M16" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>411.77670000000001</v>
+        <v>389.77670000000001</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="Q16" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>250.63054884000002</v>
+        <v>318.02614884000002</v>
       </c>
       <c r="T16" s="34" t="s">
         <v>72</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B17" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>281.6699000000001</v>
+        <v>488.6699000000001</v>
       </c>
       <c r="C17" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="D17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1268.3300999999999</v>
+        <v>1261.3300999999999</v>
       </c>
       <c r="E17" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="I17" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3505,23 +3505,23 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12870336624417289</v>
+        <v>0.7803828212541043</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M17" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>439.77670000000001</v>
+        <v>426.77670000000001</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="Q17" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>97.852123260000027</v>
+        <v>169.76392326000004</v>
       </c>
       <c r="T17" s="34" t="s">
         <v>73</v>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B18" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>708.4466000000001</v>
+        <v>894.4466000000001</v>
       </c>
       <c r="C18" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3552,15 +3552,15 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>841.5533999999999</v>
+        <v>855.5533999999999</v>
       </c>
       <c r="E18" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  841.553 unidades</v>
+        <v>Encomenda:  855.553 unidades</v>
       </c>
       <c r="F18" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 828.553 unidades</v>
+        <v>Receção: 834.553 unidades</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -3580,23 +3580,23 @@
       </c>
       <c r="K18" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82863887978112261</v>
+        <v>0.61576212761300353</v>
       </c>
       <c r="L18" s="20">
         <f t="shared" ca="1" si="12"/>
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" ca="1" si="6"/>
-        <v>401.77670000000001</v>
+        <v>428.77670000000001</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="Q18" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>246.11434884000002</v>
+        <v>310.73074884000005</v>
       </c>
       <c r="T18" s="34" t="s">
         <v>74</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B19" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>173.1613000000001</v>
+        <v>369.1613000000001</v>
       </c>
       <c r="C19" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1376.8386999999998</v>
+        <v>1380.8386999999998</v>
       </c>
       <c r="E19" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="I19" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3655,23 +3655,23 @@
       </c>
       <c r="K19" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>8.7051550346931572E-2</v>
+        <v>0.69321595467950847</v>
       </c>
       <c r="L19" s="20">
         <f ca="1">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-26</v>
+        <v>-36</v>
       </c>
       <c r="M19" s="20">
         <f ca="1" xml:space="preserve"> 561.2853 + L19</f>
-        <v>535.28530000000001</v>
+        <v>525.28530000000001</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="Q19" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>60.156235620000032</v>
+        <v>128.24663562000003</v>
       </c>
       <c r="T19" s="34" t="s">
         <v>75</v>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B20" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>486.42939999999999</v>
+        <v>642.42939999999999</v>
       </c>
       <c r="C20" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3702,15 +3702,15 @@
       </c>
       <c r="D20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1063.5706</v>
+        <v>1107.5706</v>
       </c>
       <c r="E20" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1063.571 unidades</v>
+        <v>Encomenda:  1107.571 unidades</v>
       </c>
       <c r="F20" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 841.553 unidades</v>
+        <v>Receção: 855.553 unidades</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -3722,31 +3722,31 @@
       </c>
       <c r="I20" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4074080285212629</v>
+        <v>0.88111232694529595</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" ref="L20:L30" ca="1" si="16">RANDBETWEEN(-36.6643,36.6643)</f>
-        <v>-33</v>
+        <v>21</v>
       </c>
       <c r="M20" s="20">
         <f t="shared" ref="M20:M30" ca="1" si="17" xml:space="preserve"> 561.2853 + L20</f>
-        <v>528.28530000000001</v>
+        <v>582.28530000000001</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="Q20" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>168.98557355999998</v>
+        <v>223.17997355999998</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>76</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B21" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>958.71469999999999</v>
+        <v>64.14409999999998</v>
       </c>
       <c r="C21" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="D21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>591.28530000000001</v>
+        <v>1685.8559</v>
       </c>
       <c r="E21" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3785,19 +3785,19 @@
       </c>
       <c r="F21" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1063.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -3805,23 +3805,23 @@
       </c>
       <c r="K21" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30637534368835939</v>
+        <v>0.68116902922995681</v>
       </c>
       <c r="L21" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>591.28530000000001</v>
+        <v>578.28530000000001</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="Q21" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>333.05748677999998</v>
+        <v>22.283660339999994</v>
       </c>
       <c r="T21" s="34" t="s">
         <v>77</v>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B22" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>412.42939999999999</v>
+        <v>632.42939999999999</v>
       </c>
       <c r="C22" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3852,51 +3852,51 @@
       </c>
       <c r="D22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1137.5706</v>
+        <v>1117.5706</v>
       </c>
       <c r="E22" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1137.571 unidades</v>
+        <v>Encomenda:  1117.571 unidades</v>
       </c>
       <c r="F22" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1107.571 unidades</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.96202644476523702</v>
+        <v>0.40762735559764895</v>
       </c>
       <c r="L22" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-15</v>
+        <v>-22</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>546.28530000000001</v>
+        <v>539.28530000000001</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q22" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>143.27797355999999</v>
+        <v>219.70597355999999</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B23" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-178.85590000000002</v>
+        <v>1160.7147</v>
       </c>
       <c r="C23" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1728.8559</v>
+        <v>589.28530000000001</v>
       </c>
       <c r="E23" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3929,15 +3929,15 @@
       </c>
       <c r="F23" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1117.571 unidades</v>
       </c>
       <c r="G23" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -3949,31 +3949,31 @@
       </c>
       <c r="K23" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36901984114394504</v>
+        <v>0.3045726665467362</v>
       </c>
       <c r="L23" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>591.28530000000001</v>
+        <v>589.28530000000001</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>6023.86546034</v>
+        <v>403.23228677999998</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B24" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>379.42939999999999</v>
+        <v>619.42939999999999</v>
       </c>
       <c r="C24" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3990,51 +3990,51 @@
       </c>
       <c r="D24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1170.5706</v>
+        <v>1130.5706</v>
       </c>
       <c r="E24" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1170.571 unidades</v>
+        <v>Encomenda:  1130.571 unidades</v>
       </c>
       <c r="F24" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1137.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G24" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25443171598051639</v>
+        <v>0.8648672841253906</v>
       </c>
       <c r="L24" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18</v>
+        <v>-20</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>579.28530000000001</v>
+        <v>541.28530000000001</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="Q24" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>131.81377355999999</v>
+        <v>215.18977355999999</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B25" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>976.71469999999999</v>
+        <v>74.14409999999998</v>
       </c>
       <c r="C25" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>573.28530000000001</v>
+        <v>1675.8559</v>
       </c>
       <c r="E25" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4067,15 +4067,15 @@
       </c>
       <c r="F25" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1170.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -4087,23 +4087,23 @@
       </c>
       <c r="K25" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8363024653538863</v>
+        <v>0.8621985042792768</v>
       </c>
       <c r="L25" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>573.28530000000001</v>
+        <v>545.28530000000001</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="Q25" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>339.31068677999997</v>
+        <v>25.757660339999994</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B26" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>397.42939999999999</v>
+        <v>613.42939999999999</v>
       </c>
       <c r="C26" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4128,51 +4128,51 @@
       </c>
       <c r="D26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1152.5706</v>
+        <v>1136.5706</v>
       </c>
       <c r="E26" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1152.571 unidades</v>
+        <v>Encomenda:  1136.571 unidades</v>
       </c>
       <c r="F26" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1130.571 unidades</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.98521325703940266</v>
+        <v>0.22833298065261887</v>
       </c>
       <c r="L26" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M26" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>579.28530000000001</v>
+        <v>591.28530000000001</v>
       </c>
       <c r="N26" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P26" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="Q26" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>138.06697355999998</v>
+        <v>213.10537355999998</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B27" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-148.85590000000002</v>
+        <v>1216.7147</v>
       </c>
       <c r="C27" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="D27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1698.8559</v>
+        <v>533.28530000000001</v>
       </c>
       <c r="E27" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4205,15 +4205,15 @@
       </c>
       <c r="F27" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1136.571 unidades</v>
       </c>
       <c r="G27" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -4225,31 +4225,31 @@
       </c>
       <c r="K27" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.13509945849117988</v>
+        <v>0.31317373154425965</v>
       </c>
       <c r="L27" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-15</v>
+        <v>-28</v>
       </c>
       <c r="M27" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>546.28530000000001</v>
+        <v>533.28530000000001</v>
       </c>
       <c r="N27" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P27" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>5014.2874603399996</v>
+        <v>422.68668678</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B28" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>472.42939999999999</v>
+        <v>637.42939999999999</v>
       </c>
       <c r="C28" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4266,23 +4266,23 @@
       </c>
       <c r="D28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1077.5706</v>
+        <v>1112.5706</v>
       </c>
       <c r="E28" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1077.571 unidades</v>
+        <v>Encomenda:  1112.571 unidades</v>
       </c>
       <c r="F28" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1152.571 unidades</v>
+        <v>-</v>
       </c>
       <c r="G28" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" ca="1" si="4"/>
@@ -4294,23 +4294,23 @@
       </c>
       <c r="K28" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61951051446398886</v>
+        <v>0.9990551449056716</v>
       </c>
       <c r="L28" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-30</v>
+        <v>18</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>531.28530000000001</v>
+        <v>579.28530000000001</v>
       </c>
       <c r="N28" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="Q28" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>164.12197355999999</v>
+        <v>221.44297355999998</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="B29" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-65.85590000000002</v>
+        <v>53.14409999999998</v>
       </c>
       <c r="C29" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="D29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1615.8559</v>
+        <v>1696.8559</v>
       </c>
       <c r="E29" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="I29" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4363,31 +4363,31 @@
       </c>
       <c r="K29" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60204342091954222</v>
+        <v>6.5385470584081729E-3</v>
       </c>
       <c r="L29" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>538.28530000000001</v>
+        <v>584.28530000000001</v>
       </c>
       <c r="N29" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P29" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>2221.1216603399998</v>
+        <v>18.462260339999993</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B30" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>448.42939999999999</v>
+        <v>596.42939999999999</v>
       </c>
       <c r="C30" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4404,15 +4404,15 @@
       </c>
       <c r="D30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1101.5706</v>
+        <v>1153.5706</v>
       </c>
       <c r="E30" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1101.571 unidades</v>
+        <v>Encomenda:  1153.571 unidades</v>
       </c>
       <c r="F30" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1077.571 unidades</v>
+        <v>Receção: 1112.571 unidades</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4432,23 +4432,23 @@
       </c>
       <c r="K30" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70444844503125037</v>
+        <v>0.94271684461001659</v>
       </c>
       <c r="L30" s="20">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" ca="1" si="17"/>
-        <v>563.28530000000001</v>
+        <v>569.28530000000001</v>
       </c>
       <c r="N30" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P30" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="Q30" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>155.78437355999998</v>
+        <v>207.19957355999998</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="B31" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>70.390800000000013</v>
+        <v>250.39080000000001</v>
       </c>
       <c r="C31" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="D31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1479.6091999999999</v>
+        <v>1499.6091999999999</v>
       </c>
       <c r="E31" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="I31" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4501,23 +4501,23 @@
       </c>
       <c r="K31" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.339729720825658</v>
+        <v>0.93740030124062612</v>
       </c>
       <c r="L31" s="20">
         <f ca="1">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="M31" s="20">
         <f ca="1" xml:space="preserve"> 347.0386 + L31</f>
-        <v>378.03859999999997</v>
+        <v>346.03859999999997</v>
       </c>
       <c r="N31" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P31" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="Q31" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>24.453763920000004</v>
+        <v>86.985763919999997</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B32" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>807.92280000000017</v>
+        <v>1073.9228000000003</v>
       </c>
       <c r="C32" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D32" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>742.07719999999983</v>
+        <v>676.07719999999972</v>
       </c>
       <c r="E32" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="F32" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1101.571 unidades</v>
+        <v>Receção: 1153.571 unidades</v>
       </c>
       <c r="G32" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4570,23 +4570,23 @@
       </c>
       <c r="K32" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.53090071975804998</v>
+        <v>4.1882570953725051E-2</v>
       </c>
       <c r="L32" s="20">
         <f t="shared" ref="L32:L52" ca="1" si="18">RANDBETWEEN(-37.1301,37.1301)</f>
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" ref="M32:M52" ca="1" si="19" xml:space="preserve"> 347.0386 + L32</f>
-        <v>364.03859999999997</v>
+        <v>330.03859999999997</v>
       </c>
       <c r="N32" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O32" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P32" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="Q32" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>280.67238072000004</v>
+        <v>373.08078072000006</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B33" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>459.88420000000019</v>
+        <v>718.88420000000031</v>
       </c>
       <c r="C33" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D33" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1090.1157999999998</v>
+        <v>1031.1157999999996</v>
       </c>
       <c r="E33" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4639,23 +4639,23 @@
       </c>
       <c r="K33" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.99338416770103521</v>
+        <v>0.7806285047033803</v>
       </c>
       <c r="L33" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>348.03859999999997</v>
+        <v>355.03859999999997</v>
       </c>
       <c r="N33" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P33" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="Q33" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>159.76377108000005</v>
+        <v>249.7403710800001</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B34" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>99.845600000000218</v>
+        <v>369.84560000000033</v>
       </c>
       <c r="C34" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="D34" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1450.1543999999999</v>
+        <v>1380.1543999999997</v>
       </c>
       <c r="E34" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Encomenda:  1450.154 unidades</v>
+        <v>Encomenda:  1380.154 unidades</v>
       </c>
       <c r="F34" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4708,23 +4708,23 @@
       </c>
       <c r="K34" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.67498772669674634</v>
+        <v>0.61740654408176632</v>
       </c>
       <c r="L34" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>360.03859999999997</v>
+        <v>349.03859999999997</v>
       </c>
       <c r="N34" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O34" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P34" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="Q34" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>34.686361440000077</v>
+        <v>128.4843614400001</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B35" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-263.19299999999976</v>
+        <v>50.807000000000357</v>
       </c>
       <c r="C35" s="20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D35" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>1813.1929999999998</v>
+        <v>1699.1929999999998</v>
       </c>
       <c r="E35" s="20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="I35" s="20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4777,31 +4777,31 @@
       </c>
       <c r="K35" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.91657336938955059</v>
+        <v>0.52159608256665668</v>
       </c>
       <c r="L35" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>-28</v>
       </c>
       <c r="M35" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>363.03859999999997</v>
+        <v>319.03859999999997</v>
       </c>
       <c r="N35" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O35" s="20">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P35" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>8850.5667518000009</v>
+        <v>17.650351800000124</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B36" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>861.92280000000017</v>
+        <v>1068.9228000000003</v>
       </c>
       <c r="C36" s="20" t="b">
         <f t="shared" ref="C36:C52" ca="1" si="20">AND(B36&lt;$T$64,MOD(A36,$T$62)=0)</f>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="D36" s="20">
         <f t="shared" ref="D36:D52" ca="1" si="21">$T$65 - B36</f>
-        <v>688.07719999999983</v>
+        <v>681.07719999999972</v>
       </c>
       <c r="E36" s="20" t="str">
         <f t="shared" ref="E36:E52" ca="1" si="22" xml:space="preserve"> IF(C36 = TRUE(), "Encomenda:  " &amp; ROUND($T$65-B36,3) &amp; " unidades", "-")</f>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="F36" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1450.154 unidades</v>
+        <v>Receção: 1380.154 unidades</v>
       </c>
       <c r="G36" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="I36" s="20">
         <f t="shared" ref="I36:I52" ca="1" si="23">IF(K36&lt;=0.6,1,2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -4846,23 +4846,23 @@
       </c>
       <c r="K36" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.87755202528085186</v>
+        <v>0.13009243277466964</v>
       </c>
       <c r="L36" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>325.03859999999997</v>
+        <v>362.03859999999997</v>
       </c>
       <c r="N36" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O36" s="20">
         <f t="shared" ref="O36:O52" ca="1" si="24">IF(B36 &lt;= 0, 1 + O35, O35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P36" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="Q36" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>299.43198072000007</v>
+        <v>371.3437807200001</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B37" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>477.88420000000019</v>
+        <v>736.88420000000031</v>
       </c>
       <c r="C37" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="D37" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1072.1157999999998</v>
+        <v>1013.1157999999997</v>
       </c>
       <c r="E37" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4915,23 +4915,23 @@
       </c>
       <c r="K37" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.3962697360438171</v>
+        <v>0.45510134458664531</v>
       </c>
       <c r="L37" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>37</v>
+        <v>-15</v>
       </c>
       <c r="M37" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>384.03859999999997</v>
+        <v>332.03859999999997</v>
       </c>
       <c r="N37" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O37" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P37" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="Q37" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>166.01697108000005</v>
+        <v>255.99357108000009</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="B38" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>95.845600000000218</v>
+        <v>408.84560000000033</v>
       </c>
       <c r="C38" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -4956,11 +4956,11 @@
       </c>
       <c r="D38" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1454.1543999999999</v>
+        <v>1341.1543999999997</v>
       </c>
       <c r="E38" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1454.154 unidades</v>
+        <v>Encomenda:  1341.154 unidades</v>
       </c>
       <c r="F38" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4976,31 +4976,31 @@
       </c>
       <c r="I38" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.60285583974671031</v>
+        <v>0.46945399292299261</v>
       </c>
       <c r="L38" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>35</v>
+        <v>-19</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>382.03859999999997</v>
+        <v>328.03859999999997</v>
       </c>
       <c r="N38" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O38" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P38" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="Q38" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>33.296761440000076</v>
+        <v>142.03296144000012</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B39" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-260.19299999999976</v>
+        <v>1380.9614000000001</v>
       </c>
       <c r="C39" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D39" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1810.1929999999998</v>
+        <v>369.03859999999986</v>
       </c>
       <c r="E39" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5033,19 +5033,19 @@
       </c>
       <c r="F39" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>-</v>
+        <v>Receção: 1341.154 unidades</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5053,31 +5053,31 @@
       </c>
       <c r="K39" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49955765539424979</v>
+        <v>0.97075359893480573</v>
       </c>
       <c r="L39" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>356.03859999999997</v>
+        <v>369.03859999999997</v>
       </c>
       <c r="N39" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O39" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P39" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>8749.6089518000008</v>
+        <v>479.74599036000001</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B40" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>825.92280000000017</v>
+        <v>1057.9228000000003</v>
       </c>
       <c r="C40" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D40" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>724.07719999999983</v>
+        <v>692.07719999999972</v>
       </c>
       <c r="E40" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5102,15 +5102,15 @@
       </c>
       <c r="F40" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1454.154 unidades</v>
+        <v>-</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="20">
         <f t="shared" ca="1" si="23"/>
@@ -5122,23 +5122,23 @@
       </c>
       <c r="K40" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70069813466122721</v>
+        <v>0.92184114536976058</v>
       </c>
       <c r="L40" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21</v>
+        <v>-24</v>
       </c>
       <c r="M40" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>368.03859999999997</v>
+        <v>323.03859999999997</v>
       </c>
       <c r="N40" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O40" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P40" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="Q40" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>286.92558072000003</v>
+        <v>367.52238072000006</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B41" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>456.88420000000019</v>
+        <v>743.88420000000031</v>
       </c>
       <c r="C41" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="D41" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1093.1157999999998</v>
+        <v>1006.1157999999997</v>
       </c>
       <c r="E41" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5191,23 +5191,23 @@
       </c>
       <c r="K41" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.34646911383434831</v>
+        <v>0.22536661241194966</v>
       </c>
       <c r="L41" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>22</v>
+        <v>-33</v>
       </c>
       <c r="M41" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>369.03859999999997</v>
+        <v>314.03859999999997</v>
       </c>
       <c r="N41" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O41" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P41" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="Q41" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>158.72157108000005</v>
+        <v>258.4253710800001</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B42" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>73.845600000000218</v>
+        <v>361.84560000000033</v>
       </c>
       <c r="C42" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5232,11 +5232,11 @@
       </c>
       <c r="D42" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1476.1543999999999</v>
+        <v>1388.1543999999997</v>
       </c>
       <c r="E42" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1476.154 unidades</v>
+        <v>Encomenda:  1388.154 unidades</v>
       </c>
       <c r="F42" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5260,23 +5260,23 @@
       </c>
       <c r="K42" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28163325134133799</v>
+        <v>0.35358703968347416</v>
       </c>
       <c r="L42" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>383.03859999999997</v>
+        <v>382.03859999999997</v>
       </c>
       <c r="N42" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O42" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P42" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="Q42" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>25.653961440000074</v>
+        <v>125.70516144000011</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B43" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1236.9614000000001</v>
+        <v>1425.9614000000001</v>
       </c>
       <c r="C43" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="D43" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>313.03859999999986</v>
+        <v>324.03859999999986</v>
       </c>
       <c r="E43" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F43" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1476.154 unidades</v>
+        <v>Receção: 1388.154 unidades</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -5329,23 +5329,23 @@
       </c>
       <c r="K43" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36306126304288733</v>
+        <v>0.20554407839858335</v>
       </c>
       <c r="L43" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-34</v>
+        <v>-23</v>
       </c>
       <c r="M43" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>313.03859999999997</v>
+        <v>324.03859999999997</v>
       </c>
       <c r="N43" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O43" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P43" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="Q43" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>429.72039036000001</v>
+        <v>495.37899036000005</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B44" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>903.92280000000017</v>
+        <v>1089.9228000000003</v>
       </c>
       <c r="C44" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D44" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>646.07719999999983</v>
+        <v>660.07719999999972</v>
       </c>
       <c r="E44" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="I44" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5398,23 +5398,23 @@
       </c>
       <c r="K44" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.59104538789682304</v>
+        <v>0.68418767348652387</v>
       </c>
       <c r="L44" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="M44" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>333.03859999999997</v>
+        <v>336.03859999999997</v>
       </c>
       <c r="N44" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O44" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P44" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="Q44" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>314.02278072000007</v>
+        <v>378.63918072000007</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B45" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>565.88420000000019</v>
+        <v>768.88420000000031</v>
       </c>
       <c r="C45" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="D45" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>984.11579999999981</v>
+        <v>981.11579999999969</v>
       </c>
       <c r="E45" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="I45" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5467,23 +5467,23 @@
       </c>
       <c r="K45" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.17200202138237142</v>
+        <v>0.73744544006029078</v>
       </c>
       <c r="L45" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-9</v>
+        <v>-26</v>
       </c>
       <c r="M45" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>338.03859999999997</v>
+        <v>321.03859999999997</v>
       </c>
       <c r="N45" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O45" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P45" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="Q45" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>196.58817108000005</v>
+        <v>267.11037108000011</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B46" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>208.84560000000022</v>
+        <v>411.84560000000033</v>
       </c>
       <c r="C46" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5508,11 +5508,11 @@
       </c>
       <c r="D46" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1341.1543999999999</v>
+        <v>1338.1543999999997</v>
       </c>
       <c r="E46" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1341.154 unidades</v>
+        <v>Encomenda:  1338.154 unidades</v>
       </c>
       <c r="F46" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="K46" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.50439841900071147</v>
+        <v>0.17878602054231651</v>
       </c>
       <c r="L46" s="20">
         <f t="shared" ca="1" si="18"/>
@@ -5548,11 +5548,11 @@
       </c>
       <c r="N46" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O46" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P46" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="Q46" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>72.552961440000075</v>
+        <v>143.0751614400001</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B47" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>1202.9614000000001</v>
+        <v>1378.9614000000001</v>
       </c>
       <c r="C47" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D47" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>347.03859999999986</v>
+        <v>371.03859999999986</v>
       </c>
       <c r="E47" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="F47" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1341.154 unidades</v>
+        <v>Receção: 1338.154 unidades</v>
       </c>
       <c r="G47" s="20">
         <f t="shared" ca="1" si="10"/>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="I47" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5605,23 +5605,23 @@
       </c>
       <c r="K47" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.2728833250586794</v>
+        <v>0.64600654799939727</v>
       </c>
       <c r="L47" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M47" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>347.03859999999997</v>
+        <v>371.03859999999997</v>
       </c>
       <c r="N47" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O47" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P47" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="Q47" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>417.90879036000001</v>
+        <v>479.05119036000002</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="B48" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>848.92280000000017</v>
+        <v>1038.9228000000003</v>
       </c>
       <c r="C48" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="D48" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>701.07719999999983</v>
+        <v>711.07719999999972</v>
       </c>
       <c r="E48" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="I48" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5674,23 +5674,23 @@
       </c>
       <c r="K48" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>7.629830398171733E-2</v>
+        <v>0.87262426310667507</v>
       </c>
       <c r="L48" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="M48" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>354.03859999999997</v>
+        <v>340.03859999999997</v>
       </c>
       <c r="N48" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O48" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P48" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="Q48" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>294.91578072000004</v>
+        <v>360.92178072000007</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="B49" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>480.88420000000019</v>
+        <v>656.88420000000031</v>
       </c>
       <c r="C49" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="D49" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1069.1157999999998</v>
+        <v>1093.1157999999996</v>
       </c>
       <c r="E49" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="I49" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5743,23 +5743,23 @@
       </c>
       <c r="K49" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63703171770983202</v>
+        <v>0.11748901817995949</v>
       </c>
       <c r="L49" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M49" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>368.03859999999997</v>
+        <v>382.03859999999997</v>
       </c>
       <c r="N49" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O49" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P49" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="Q49" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>167.05917108000006</v>
+        <v>228.20157108000009</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B50" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>123.84560000000022</v>
+        <v>294.84560000000033</v>
       </c>
       <c r="C50" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5784,11 +5784,11 @@
       </c>
       <c r="D50" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1426.1543999999999</v>
+        <v>1455.1543999999997</v>
       </c>
       <c r="E50" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>Encomenda:  1426.154 unidades</v>
+        <v>Encomenda:  1455.154 unidades</v>
       </c>
       <c r="F50" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5812,23 +5812,23 @@
       </c>
       <c r="K50" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97034091414785795</v>
+        <v>0.65777626313310256</v>
       </c>
       <c r="L50" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M50" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>357.03859999999997</v>
+        <v>362.03859999999997</v>
       </c>
       <c r="N50" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O50" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P50" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="Q50" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>43.023961440000072</v>
+        <v>102.42936144000011</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="B51" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>-197.19299999999976</v>
+        <v>-50.192999999999643</v>
       </c>
       <c r="C51" s="20" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="D51" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>1747.1929999999998</v>
+        <v>1800.1929999999998</v>
       </c>
       <c r="E51" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="I51" s="20">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" ca="1" si="5"/>
@@ -5881,31 +5881,31 @@
       </c>
       <c r="K51" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.91550162970075533</v>
+        <v>0.33992395968179567</v>
       </c>
       <c r="L51" s="20">
         <f t="shared" ca="1" si="18"/>
-        <v>-26</v>
+        <v>-2</v>
       </c>
       <c r="M51" s="20">
         <f t="shared" ca="1" si="19"/>
-        <v>321.03859999999997</v>
+        <v>345.03859999999997</v>
       </c>
       <c r="N51" s="20">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O51" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P51" s="30">
         <f t="shared" ca="1" si="14"/>
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>6629.4951517999998</v>
+        <v>1682.5629518000001</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B52" s="20">
         <f t="shared" ca="1" si="8"/>
-        <v>881.92280000000017</v>
+        <v>1038.9228000000003</v>
       </c>
       <c r="C52" s="21" t="b">
         <f t="shared" ca="1" si="20"/>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="D52" s="20">
         <f t="shared" ca="1" si="21"/>
-        <v>668.07719999999983</v>
+        <v>711.07719999999972</v>
       </c>
       <c r="E52" s="20" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="F52" s="20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Receção: 1426.154 unidades</v>
+        <v>Receção: 1455.154 unidades</v>
       </c>
       <c r="G52" s="21">
         <f t="shared" ca="1" si="10"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="I52" s="21">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" ca="1" si="5"/>
@@ -5950,23 +5950,23 @@
       </c>
       <c r="K52" s="21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.79439420892144341</v>
+        <v>0.59241676181290404</v>
       </c>
       <c r="L52" s="21">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M52" s="21">
         <f t="shared" ca="1" si="19"/>
-        <v>347.03859999999997</v>
+        <v>366.03859999999997</v>
       </c>
       <c r="N52" s="21">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O52" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P52" s="30">
         <f t="shared" ca="1" si="14"/>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="Q52" s="30">
         <f t="shared" ca="1" si="15"/>
-        <v>306.37998072000005</v>
+        <v>360.92178072000007</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -6014,23 +6014,23 @@
       </c>
       <c r="M53" s="18">
         <f ca="1">SUM(M4:M52)</f>
-        <v>20823.923299999995</v>
+        <v>20671.923299999995</v>
       </c>
       <c r="N53" s="18">
         <f ca="1" xml:space="preserve"> N52</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O53" s="18">
         <f ca="1" xml:space="preserve"> O52</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P53" s="18">
         <f ca="1">SUM(P4:P52)</f>
-        <v>1769</v>
+        <v>50</v>
       </c>
       <c r="Q53" s="18">
         <f ca="1">SUM(Q4:Q52)</f>
-        <v>69866.471708800018</v>
+        <v>15777.783572940003</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F57" s="27">
         <f ca="1">AVERAGE(B3:B52)</f>
-        <v>498.44224000000014</v>
+        <v>741.78086200000018</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="F58" s="27">
         <f ca="1">N53</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="F59" s="27">
         <f ca="1">O53</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="F60" s="27">
         <f ca="1">M53</f>
-        <v>20823.923299999995</v>
+        <v>20671.923299999995</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="F61" s="27">
         <f ca="1">F57*T59</f>
-        <v>173.15883417600006</v>
+        <v>257.69467145880003</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F62" s="27">
         <f ca="1">F60 * (T57-T56)</f>
-        <v>489362.19754999987</v>
+        <v>485790.19754999987</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="F63" s="32">
         <f ca="1">F62-Q53</f>
-        <v>419495.72584119986</v>
+        <v>470012.41397705988</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -6272,7 +6272,7 @@
         <v>28</v>
       </c>
       <c r="T64" s="2">
-        <v>750</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.3">
@@ -6290,7 +6290,7 @@
         <v>29</v>
       </c>
       <c r="T65" s="9">
-        <v>1550</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.3">
